--- a/table.xlsx
+++ b/table.xlsx
@@ -24,6 +24,7 @@
     <sheet name="TZYdUzN04Or" sheetId="19" r:id="rId19"/>
     <sheet name="IW7y1LKWHP6" sheetId="20" r:id="rId20"/>
     <sheet name="LlmtMc9LlgY" sheetId="21" r:id="rId21"/>
+    <sheet name="D9xLxq2LP7T" sheetId="22" r:id="rId22"/>
   </sheets>
 </workbook>
 </file>
@@ -1439,7 +1440,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1633,20 +1634,9 @@
         <v>a8WzWjgowMk-HllvX50cXC0-val</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="str">
-        <v>13</v>
-      </c>
-      <c r="B19" t="str">
-        <v>Số nhân viên y tế thôn bản hoạt động</v>
-      </c>
-      <c r="C19" t="str">
-        <v>PAWDJs2uaJJ-HllvX50cXC0-val</v>
-      </c>
-    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C19"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C18"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1764,52 +1754,52 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B6" t="str">
-        <v>Sau đại học y khoa</v>
+        <v>Bác sĩ</v>
       </c>
       <c r="C6" t="str">
-        <v>totalaRDVsuK2oJa</v>
+        <v>indicatorLbFyaZ6jZ0M</v>
       </c>
       <c r="D6" t="str">
-        <v>aRDVsuK2oJa-iIcV5MepJ9Q-val</v>
+        <v>indicatorge4nqMQhKex</v>
       </c>
       <c r="E6" t="str">
-        <v>aRDVsuK2oJa-teIQx8w7HTL-val</v>
+        <v>indicatorYN2BeNa5sKL</v>
       </c>
       <c r="F6" t="str">
-        <v>hEJwt8L00yP-HllvX50cXC0-val</v>
+        <v>jF1NWA8L0sE-HllvX50cXC0-val</v>
       </c>
       <c r="G6" t="str">
-        <v/>
+        <v>YD9NYYpTEFV-cHdKrY4isFn-val</v>
       </c>
       <c r="H6" t="str">
-        <v/>
+        <v>YD9NYYpTEFV-LhYs1Hkx7Tm-val</v>
       </c>
       <c r="I6" t="str">
-        <v/>
+        <v>YD9NYYpTEFV-j6NSiwlSxIi-val</v>
       </c>
       <c r="J6" t="str">
-        <v/>
+        <v>YD9NYYpTEFV-fcK57lSPGQh-val</v>
       </c>
       <c r="K6" t="str">
-        <v/>
+        <v>YD9NYYpTEFV-NZUP4w4nyDz-val</v>
       </c>
       <c r="L6" t="str">
-        <v/>
+        <v>YD9NYYpTEFV-FQXGzVORZ6b-val</v>
       </c>
       <c r="M6" t="str">
-        <v/>
+        <v>YD9NYYpTEFV-qQzdzVPRE1Y-val</v>
       </c>
       <c r="N6" t="str">
-        <v/>
+        <v>YD9NYYpTEFV-W7IfepZkWXX-val</v>
       </c>
       <c r="O6" t="str">
-        <v/>
+        <v>YD9NYYpTEFV-oCXdoKkpm6w-val</v>
       </c>
       <c r="P6" t="str">
-        <v/>
+        <v>YD9NYYpTEFV-ZVWv8Byjx4a-val</v>
       </c>
       <c r="Q6" t="str">
         <v/>
@@ -1826,52 +1816,52 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B7" t="str">
-        <v>Bác sĩ</v>
+        <v>Bác sĩ tâm thần</v>
       </c>
       <c r="C7" t="str">
-        <v>indicatorLbFyaZ6jZ0M</v>
+        <v>indicatorGEMRITgQGFV</v>
       </c>
       <c r="D7" t="str">
-        <v>indicatorge4nqMQhKex</v>
+        <v>indicatorg7Ngg42ps5x</v>
       </c>
       <c r="E7" t="str">
-        <v>indicatorYN2BeNa5sKL</v>
+        <v>indicatorPqdzRfgio9f</v>
       </c>
       <c r="F7" t="str">
-        <v>jF1NWA8L0sE-HllvX50cXC0-val</v>
+        <v>MZAGa29CMIj-HllvX50cXC0-val</v>
       </c>
       <c r="G7" t="str">
-        <v>YD9NYYpTEFV-cHdKrY4isFn-val</v>
+        <v>kqDRXtCFV4S-cHdKrY4isFn-val</v>
       </c>
       <c r="H7" t="str">
-        <v>YD9NYYpTEFV-LhYs1Hkx7Tm-val</v>
+        <v>kqDRXtCFV4S-LhYs1Hkx7Tm-val</v>
       </c>
       <c r="I7" t="str">
-        <v>YD9NYYpTEFV-j6NSiwlSxIi-val</v>
+        <v>kqDRXtCFV4S-j6NSiwlSxIi-val</v>
       </c>
       <c r="J7" t="str">
-        <v>YD9NYYpTEFV-fcK57lSPGQh-val</v>
+        <v>kqDRXtCFV4S-fcK57lSPGQh-val</v>
       </c>
       <c r="K7" t="str">
-        <v>YD9NYYpTEFV-NZUP4w4nyDz-val</v>
+        <v>kqDRXtCFV4S-NZUP4w4nyDz-val</v>
       </c>
       <c r="L7" t="str">
-        <v>YD9NYYpTEFV-FQXGzVORZ6b-val</v>
+        <v>kqDRXtCFV4S-FQXGzVORZ6b-val</v>
       </c>
       <c r="M7" t="str">
-        <v>YD9NYYpTEFV-qQzdzVPRE1Y-val</v>
+        <v>kqDRXtCFV4S-qQzdzVPRE1Y-val</v>
       </c>
       <c r="N7" t="str">
-        <v>YD9NYYpTEFV-W7IfepZkWXX-val</v>
+        <v>kqDRXtCFV4S-W7IfepZkWXX-val</v>
       </c>
       <c r="O7" t="str">
-        <v>YD9NYYpTEFV-oCXdoKkpm6w-val</v>
+        <v>kqDRXtCFV4S-oCXdoKkpm6w-val</v>
       </c>
       <c r="P7" t="str">
-        <v>YD9NYYpTEFV-ZVWv8Byjx4a-val</v>
+        <v>kqDRXtCFV4S-ZVWv8Byjx4a-val</v>
       </c>
       <c r="Q7" t="str">
         <v/>
@@ -1888,52 +1878,52 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B8" t="str">
-        <v>Bác sĩ tâm thần</v>
+        <v>Bác sĩ tâm lý lâm sàng</v>
       </c>
       <c r="C8" t="str">
-        <v>indicatorGEMRITgQGFV</v>
+        <v>totalz2tLKKD9O40</v>
       </c>
       <c r="D8" t="str">
-        <v>indicatorg7Ngg42ps5x</v>
+        <v>indicatori3KKcYHvCdT</v>
       </c>
       <c r="E8" t="str">
-        <v>indicatorPqdzRfgio9f</v>
+        <v>indicatorhCYRLjYBIOb</v>
       </c>
       <c r="F8" t="str">
-        <v>MZAGa29CMIj-HllvX50cXC0-val</v>
+        <v>aiRnVq6ctIB-HllvX50cXC0-val</v>
       </c>
       <c r="G8" t="str">
-        <v>kqDRXtCFV4S-cHdKrY4isFn-val</v>
+        <v>z2tLKKD9O40-cHdKrY4isFn-val</v>
       </c>
       <c r="H8" t="str">
-        <v>kqDRXtCFV4S-LhYs1Hkx7Tm-val</v>
+        <v>z2tLKKD9O40-LhYs1Hkx7Tm-val</v>
       </c>
       <c r="I8" t="str">
-        <v>kqDRXtCFV4S-j6NSiwlSxIi-val</v>
+        <v>z2tLKKD9O40-j6NSiwlSxIi-val</v>
       </c>
       <c r="J8" t="str">
-        <v>kqDRXtCFV4S-fcK57lSPGQh-val</v>
+        <v>z2tLKKD9O40-fcK57lSPGQh-val</v>
       </c>
       <c r="K8" t="str">
-        <v>kqDRXtCFV4S-NZUP4w4nyDz-val</v>
+        <v>z2tLKKD9O40-NZUP4w4nyDz-val</v>
       </c>
       <c r="L8" t="str">
-        <v>kqDRXtCFV4S-FQXGzVORZ6b-val</v>
+        <v>z2tLKKD9O40-FQXGzVORZ6b-val</v>
       </c>
       <c r="M8" t="str">
-        <v>kqDRXtCFV4S-qQzdzVPRE1Y-val</v>
+        <v>z2tLKKD9O40-qQzdzVPRE1Y-val</v>
       </c>
       <c r="N8" t="str">
-        <v>kqDRXtCFV4S-W7IfepZkWXX-val</v>
+        <v>z2tLKKD9O40-W7IfepZkWXX-val</v>
       </c>
       <c r="O8" t="str">
-        <v>kqDRXtCFV4S-oCXdoKkpm6w-val</v>
+        <v>z2tLKKD9O40-oCXdoKkpm6w-val</v>
       </c>
       <c r="P8" t="str">
-        <v>kqDRXtCFV4S-ZVWv8Byjx4a-val</v>
+        <v>z2tLKKD9O40-ZVWv8Byjx4a-val</v>
       </c>
       <c r="Q8" t="str">
         <v/>
@@ -1950,7 +1940,7 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B9" t="str">
         <v>Bác sĩ y học cổ truyền</v>
@@ -2012,7 +2002,7 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B10" t="str">
         <v>Bác sĩ răng hàm mặt</v>
@@ -2074,7 +2064,7 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B11" t="str">
         <v>Bác sĩ y học dự phòng</v>
@@ -2136,7 +2126,7 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B12" t="str">
         <v>Khúc xạ nhãn khoa</v>
@@ -2198,7 +2188,7 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B13" t="str">
         <v>Y tế công cộng</v>
@@ -2260,7 +2250,7 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B14" t="str">
         <v>Dược</v>
@@ -2322,7 +2312,7 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B15" t="str">
         <v>Điều dưỡng</v>
@@ -2384,7 +2374,7 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B16" t="str">
         <v>Kỹ thuật Y</v>
@@ -2446,7 +2436,7 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B17" t="str">
         <v>Hộ sinh</v>
@@ -2508,7 +2498,7 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B18" t="str">
         <v>Dinh dưỡng</v>
@@ -2570,7 +2560,7 @@
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B19" t="str">
         <v>Y sĩ</v>
@@ -2632,7 +2622,7 @@
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B20" t="str">
         <v>Trđ: Y sĩ sản nhi</v>
@@ -2694,7 +2684,7 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B21" t="str">
         <v>Lương Y</v>
@@ -2756,10 +2746,10 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B22" t="str">
-        <v>CTV y tế/dân số</v>
+        <v>Dân số viên</v>
       </c>
       <c r="C22" t="str">
         <v>totalmrx79MJf6Hm</v>
@@ -2818,7 +2808,7 @@
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B23" t="str">
         <v>Hợp đồng 68</v>
@@ -2880,7 +2870,7 @@
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B24" t="str">
         <v>Nhân lực y tế khác</v>
@@ -2934,15 +2924,15 @@
         <v>CKr5or7Rsw2-Xh0GebJLxc7-val</v>
       </c>
       <c r="S24" t="str">
-        <v>CKr5or7Rsw2-WtSoS3htH0e-val</v>
+        <v/>
       </c>
       <c r="T24" t="str">
-        <v>CKr5or7Rsw2-aBTLow9SHt6-val</v>
+        <v/>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B25" t="str">
         <v>Tổng số nhân lực y tế</v>
@@ -3122,52 +3112,52 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B6" t="str">
-        <v>Sau đại học y khoa</v>
+        <v>Bác sĩ</v>
       </c>
       <c r="C6" t="str">
-        <v>totalaRDVsuK2oJa</v>
+        <v>indicatorLbFyaZ6jZ0M</v>
       </c>
       <c r="D6" t="str">
-        <v>aRDVsuK2oJa-iIcV5MepJ9Q-val</v>
+        <v>indicatorge4nqMQhKex</v>
       </c>
       <c r="E6" t="str">
-        <v>aRDVsuK2oJa-teIQx8w7HTL-val</v>
+        <v>indicatorYN2BeNa5sKL</v>
       </c>
       <c r="F6" t="str">
-        <v>hEJwt8L00yP-HllvX50cXC0-val</v>
+        <v>jF1NWA8L0sE-HllvX50cXC0-val</v>
       </c>
       <c r="G6" t="str">
-        <v/>
+        <v>YD9NYYpTEFV-cHdKrY4isFn-val</v>
       </c>
       <c r="H6" t="str">
-        <v/>
+        <v>YD9NYYpTEFV-LhYs1Hkx7Tm-val</v>
       </c>
       <c r="I6" t="str">
-        <v/>
+        <v>YD9NYYpTEFV-j6NSiwlSxIi-val</v>
       </c>
       <c r="J6" t="str">
-        <v/>
+        <v>YD9NYYpTEFV-fcK57lSPGQh-val</v>
       </c>
       <c r="K6" t="str">
-        <v/>
+        <v>YD9NYYpTEFV-NZUP4w4nyDz-val</v>
       </c>
       <c r="L6" t="str">
-        <v/>
+        <v>YD9NYYpTEFV-FQXGzVORZ6b-val</v>
       </c>
       <c r="M6" t="str">
-        <v/>
+        <v>YD9NYYpTEFV-qQzdzVPRE1Y-val</v>
       </c>
       <c r="N6" t="str">
-        <v/>
+        <v>YD9NYYpTEFV-W7IfepZkWXX-val</v>
       </c>
       <c r="O6" t="str">
-        <v/>
+        <v>YD9NYYpTEFV-oCXdoKkpm6w-val</v>
       </c>
       <c r="P6" t="str">
-        <v/>
+        <v>YD9NYYpTEFV-ZVWv8Byjx4a-val</v>
       </c>
       <c r="Q6" t="str">
         <v/>
@@ -3184,52 +3174,52 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B7" t="str">
-        <v>Bác sĩ</v>
+        <v>Bác sĩ tâm thần</v>
       </c>
       <c r="C7" t="str">
-        <v>indicatorLbFyaZ6jZ0M</v>
+        <v>indicatorGEMRITgQGFV</v>
       </c>
       <c r="D7" t="str">
-        <v>indicatorge4nqMQhKex</v>
+        <v>indicatorg7Ngg42ps5x</v>
       </c>
       <c r="E7" t="str">
-        <v>indicatorYN2BeNa5sKL</v>
+        <v>indicatorPqdzRfgio9f</v>
       </c>
       <c r="F7" t="str">
-        <v>jF1NWA8L0sE-HllvX50cXC0-val</v>
+        <v>MZAGa29CMIj-HllvX50cXC0-val</v>
       </c>
       <c r="G7" t="str">
-        <v>YD9NYYpTEFV-cHdKrY4isFn-val</v>
+        <v>kqDRXtCFV4S-cHdKrY4isFn-val</v>
       </c>
       <c r="H7" t="str">
-        <v>YD9NYYpTEFV-LhYs1Hkx7Tm-val</v>
+        <v>kqDRXtCFV4S-LhYs1Hkx7Tm-val</v>
       </c>
       <c r="I7" t="str">
-        <v>YD9NYYpTEFV-j6NSiwlSxIi-val</v>
+        <v>kqDRXtCFV4S-j6NSiwlSxIi-val</v>
       </c>
       <c r="J7" t="str">
-        <v>YD9NYYpTEFV-fcK57lSPGQh-val</v>
+        <v>kqDRXtCFV4S-fcK57lSPGQh-val</v>
       </c>
       <c r="K7" t="str">
-        <v>YD9NYYpTEFV-NZUP4w4nyDz-val</v>
+        <v>kqDRXtCFV4S-NZUP4w4nyDz-val</v>
       </c>
       <c r="L7" t="str">
-        <v>YD9NYYpTEFV-FQXGzVORZ6b-val</v>
+        <v>kqDRXtCFV4S-FQXGzVORZ6b-val</v>
       </c>
       <c r="M7" t="str">
-        <v>YD9NYYpTEFV-qQzdzVPRE1Y-val</v>
+        <v>kqDRXtCFV4S-qQzdzVPRE1Y-val</v>
       </c>
       <c r="N7" t="str">
-        <v>YD9NYYpTEFV-W7IfepZkWXX-val</v>
+        <v>kqDRXtCFV4S-W7IfepZkWXX-val</v>
       </c>
       <c r="O7" t="str">
-        <v>YD9NYYpTEFV-oCXdoKkpm6w-val</v>
+        <v>kqDRXtCFV4S-oCXdoKkpm6w-val</v>
       </c>
       <c r="P7" t="str">
-        <v>YD9NYYpTEFV-ZVWv8Byjx4a-val</v>
+        <v>kqDRXtCFV4S-ZVWv8Byjx4a-val</v>
       </c>
       <c r="Q7" t="str">
         <v/>
@@ -3246,52 +3236,52 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B8" t="str">
-        <v>Bác sĩ tâm thần</v>
+        <v>Bác sĩ tâm lý lâm sàng</v>
       </c>
       <c r="C8" t="str">
-        <v>indicatorGEMRITgQGFV</v>
+        <v>totalz2tLKKD9O40</v>
       </c>
       <c r="D8" t="str">
-        <v>indicatorg7Ngg42ps5x</v>
+        <v>indicatori3KKcYHvCdT</v>
       </c>
       <c r="E8" t="str">
-        <v>indicatorPqdzRfgio9f</v>
+        <v>indicatorhCYRLjYBIOb</v>
       </c>
       <c r="F8" t="str">
-        <v>MZAGa29CMIj-HllvX50cXC0-val</v>
+        <v>aiRnVq6ctIB-HllvX50cXC0-val</v>
       </c>
       <c r="G8" t="str">
-        <v>kqDRXtCFV4S-cHdKrY4isFn-val</v>
+        <v>z2tLKKD9O40-cHdKrY4isFn-val</v>
       </c>
       <c r="H8" t="str">
-        <v>kqDRXtCFV4S-LhYs1Hkx7Tm-val</v>
+        <v>z2tLKKD9O40-LhYs1Hkx7Tm-val</v>
       </c>
       <c r="I8" t="str">
-        <v>kqDRXtCFV4S-j6NSiwlSxIi-val</v>
+        <v>z2tLKKD9O40-j6NSiwlSxIi-val</v>
       </c>
       <c r="J8" t="str">
-        <v>kqDRXtCFV4S-fcK57lSPGQh-val</v>
+        <v>z2tLKKD9O40-fcK57lSPGQh-val</v>
       </c>
       <c r="K8" t="str">
-        <v>kqDRXtCFV4S-NZUP4w4nyDz-val</v>
+        <v>z2tLKKD9O40-NZUP4w4nyDz-val</v>
       </c>
       <c r="L8" t="str">
-        <v>kqDRXtCFV4S-FQXGzVORZ6b-val</v>
+        <v>z2tLKKD9O40-FQXGzVORZ6b-val</v>
       </c>
       <c r="M8" t="str">
-        <v>kqDRXtCFV4S-qQzdzVPRE1Y-val</v>
+        <v>z2tLKKD9O40-qQzdzVPRE1Y-val</v>
       </c>
       <c r="N8" t="str">
-        <v>kqDRXtCFV4S-W7IfepZkWXX-val</v>
+        <v>z2tLKKD9O40-W7IfepZkWXX-val</v>
       </c>
       <c r="O8" t="str">
-        <v>kqDRXtCFV4S-oCXdoKkpm6w-val</v>
+        <v>z2tLKKD9O40-oCXdoKkpm6w-val</v>
       </c>
       <c r="P8" t="str">
-        <v>kqDRXtCFV4S-ZVWv8Byjx4a-val</v>
+        <v>z2tLKKD9O40-ZVWv8Byjx4a-val</v>
       </c>
       <c r="Q8" t="str">
         <v/>
@@ -3308,7 +3298,7 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B9" t="str">
         <v>Bác sĩ y học cổ truyền</v>
@@ -3370,7 +3360,7 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B10" t="str">
         <v>Bác sĩ răng hàm mặt</v>
@@ -3432,7 +3422,7 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B11" t="str">
         <v>Bác sĩ y học dự phòng</v>
@@ -3494,7 +3484,7 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B12" t="str">
         <v>Khúc xạ nhãn khoa</v>
@@ -3556,7 +3546,7 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B13" t="str">
         <v>Y tế công cộng</v>
@@ -3618,7 +3608,7 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B14" t="str">
         <v>Dược</v>
@@ -3680,7 +3670,7 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B15" t="str">
         <v>Điều dưỡng</v>
@@ -3742,7 +3732,7 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B16" t="str">
         <v>Kỹ thuật Y</v>
@@ -3804,7 +3794,7 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B17" t="str">
         <v>Hộ sinh</v>
@@ -3866,7 +3856,7 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B18" t="str">
         <v>Dinh dưỡng</v>
@@ -3928,7 +3918,7 @@
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B19" t="str">
         <v>Y sĩ</v>
@@ -3990,7 +3980,7 @@
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B20" t="str">
         <v>Trđ: Y sĩ sản nhi</v>
@@ -4052,7 +4042,7 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B21" t="str">
         <v>Lương Y</v>
@@ -4114,10 +4104,10 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B22" t="str">
-        <v>CTV y tế/dân số</v>
+        <v>Dân số viên</v>
       </c>
       <c r="C22" t="str">
         <v>totalmrx79MJf6Hm</v>
@@ -4176,7 +4166,7 @@
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B23" t="str">
         <v>Hợp đồng 68</v>
@@ -4238,7 +4228,7 @@
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B24" t="str">
         <v>Nhân lực y tế khác</v>
@@ -4300,7 +4290,7 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B25" t="str">
         <v>Tổng số nhân lực y tế</v>
@@ -4480,52 +4470,52 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B6" t="str">
-        <v>Sau đại học y khoa</v>
+        <v>Bác sĩ</v>
       </c>
       <c r="C6" t="str">
-        <v>totalaRDVsuK2oJa</v>
+        <v>indicatorLbFyaZ6jZ0M</v>
       </c>
       <c r="D6" t="str">
-        <v>aRDVsuK2oJa-iIcV5MepJ9Q-val</v>
+        <v>indicatorge4nqMQhKex</v>
       </c>
       <c r="E6" t="str">
-        <v>aRDVsuK2oJa-teIQx8w7HTL-val</v>
+        <v>indicatorYN2BeNa5sKL</v>
       </c>
       <c r="F6" t="str">
-        <v>hEJwt8L00yP-HllvX50cXC0-val</v>
+        <v>jF1NWA8L0sE-HllvX50cXC0-val</v>
       </c>
       <c r="G6" t="str">
-        <v/>
+        <v>YD9NYYpTEFV-cHdKrY4isFn-val</v>
       </c>
       <c r="H6" t="str">
-        <v/>
+        <v>YD9NYYpTEFV-LhYs1Hkx7Tm-val</v>
       </c>
       <c r="I6" t="str">
-        <v/>
+        <v>YD9NYYpTEFV-j6NSiwlSxIi-val</v>
       </c>
       <c r="J6" t="str">
-        <v/>
+        <v>YD9NYYpTEFV-fcK57lSPGQh-val</v>
       </c>
       <c r="K6" t="str">
-        <v/>
+        <v>YD9NYYpTEFV-NZUP4w4nyDz-val</v>
       </c>
       <c r="L6" t="str">
-        <v/>
+        <v>YD9NYYpTEFV-FQXGzVORZ6b-val</v>
       </c>
       <c r="M6" t="str">
-        <v/>
+        <v>YD9NYYpTEFV-qQzdzVPRE1Y-val</v>
       </c>
       <c r="N6" t="str">
-        <v/>
+        <v>YD9NYYpTEFV-W7IfepZkWXX-val</v>
       </c>
       <c r="O6" t="str">
-        <v/>
+        <v>YD9NYYpTEFV-oCXdoKkpm6w-val</v>
       </c>
       <c r="P6" t="str">
-        <v/>
+        <v>YD9NYYpTEFV-ZVWv8Byjx4a-val</v>
       </c>
       <c r="Q6" t="str">
         <v/>
@@ -4542,52 +4532,52 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B7" t="str">
-        <v>Bác sĩ</v>
+        <v>Bác sĩ tâm thần</v>
       </c>
       <c r="C7" t="str">
-        <v>indicatorLbFyaZ6jZ0M</v>
+        <v>indicatorGEMRITgQGFV</v>
       </c>
       <c r="D7" t="str">
-        <v>indicatorge4nqMQhKex</v>
+        <v>indicatorg7Ngg42ps5x</v>
       </c>
       <c r="E7" t="str">
-        <v>indicatorYN2BeNa5sKL</v>
+        <v>indicatorPqdzRfgio9f</v>
       </c>
       <c r="F7" t="str">
-        <v>jF1NWA8L0sE-HllvX50cXC0-val</v>
+        <v>MZAGa29CMIj-HllvX50cXC0-val</v>
       </c>
       <c r="G7" t="str">
-        <v>YD9NYYpTEFV-cHdKrY4isFn-val</v>
+        <v>kqDRXtCFV4S-cHdKrY4isFn-val</v>
       </c>
       <c r="H7" t="str">
-        <v>YD9NYYpTEFV-LhYs1Hkx7Tm-val</v>
+        <v>kqDRXtCFV4S-LhYs1Hkx7Tm-val</v>
       </c>
       <c r="I7" t="str">
-        <v>YD9NYYpTEFV-j6NSiwlSxIi-val</v>
+        <v>kqDRXtCFV4S-j6NSiwlSxIi-val</v>
       </c>
       <c r="J7" t="str">
-        <v>YD9NYYpTEFV-fcK57lSPGQh-val</v>
+        <v>kqDRXtCFV4S-fcK57lSPGQh-val</v>
       </c>
       <c r="K7" t="str">
-        <v>YD9NYYpTEFV-NZUP4w4nyDz-val</v>
+        <v>kqDRXtCFV4S-NZUP4w4nyDz-val</v>
       </c>
       <c r="L7" t="str">
-        <v>YD9NYYpTEFV-FQXGzVORZ6b-val</v>
+        <v>kqDRXtCFV4S-FQXGzVORZ6b-val</v>
       </c>
       <c r="M7" t="str">
-        <v>YD9NYYpTEFV-qQzdzVPRE1Y-val</v>
+        <v>kqDRXtCFV4S-qQzdzVPRE1Y-val</v>
       </c>
       <c r="N7" t="str">
-        <v>YD9NYYpTEFV-W7IfepZkWXX-val</v>
+        <v>kqDRXtCFV4S-W7IfepZkWXX-val</v>
       </c>
       <c r="O7" t="str">
-        <v>YD9NYYpTEFV-oCXdoKkpm6w-val</v>
+        <v>kqDRXtCFV4S-oCXdoKkpm6w-val</v>
       </c>
       <c r="P7" t="str">
-        <v>YD9NYYpTEFV-ZVWv8Byjx4a-val</v>
+        <v>kqDRXtCFV4S-ZVWv8Byjx4a-val</v>
       </c>
       <c r="Q7" t="str">
         <v/>
@@ -4604,52 +4594,52 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B8" t="str">
-        <v>Bác sĩ tâm thần</v>
+        <v>Bác sĩ tâm lý lâm sàng</v>
       </c>
       <c r="C8" t="str">
-        <v>indicatorGEMRITgQGFV</v>
+        <v>totalz2tLKKD9O40</v>
       </c>
       <c r="D8" t="str">
-        <v>indicatorg7Ngg42ps5x</v>
+        <v>indicatori3KKcYHvCdT</v>
       </c>
       <c r="E8" t="str">
-        <v>indicatorPqdzRfgio9f</v>
+        <v>indicatorhCYRLjYBIOb</v>
       </c>
       <c r="F8" t="str">
-        <v>MZAGa29CMIj-HllvX50cXC0-val</v>
+        <v>aiRnVq6ctIB-HllvX50cXC0-val</v>
       </c>
       <c r="G8" t="str">
-        <v>kqDRXtCFV4S-cHdKrY4isFn-val</v>
+        <v>z2tLKKD9O40-cHdKrY4isFn-val</v>
       </c>
       <c r="H8" t="str">
-        <v>kqDRXtCFV4S-LhYs1Hkx7Tm-val</v>
+        <v>z2tLKKD9O40-LhYs1Hkx7Tm-val</v>
       </c>
       <c r="I8" t="str">
-        <v>kqDRXtCFV4S-j6NSiwlSxIi-val</v>
+        <v>z2tLKKD9O40-j6NSiwlSxIi-val</v>
       </c>
       <c r="J8" t="str">
-        <v>kqDRXtCFV4S-fcK57lSPGQh-val</v>
+        <v>z2tLKKD9O40-fcK57lSPGQh-val</v>
       </c>
       <c r="K8" t="str">
-        <v>kqDRXtCFV4S-NZUP4w4nyDz-val</v>
+        <v>z2tLKKD9O40-NZUP4w4nyDz-val</v>
       </c>
       <c r="L8" t="str">
-        <v>kqDRXtCFV4S-FQXGzVORZ6b-val</v>
+        <v>z2tLKKD9O40-FQXGzVORZ6b-val</v>
       </c>
       <c r="M8" t="str">
-        <v>kqDRXtCFV4S-qQzdzVPRE1Y-val</v>
+        <v>z2tLKKD9O40-qQzdzVPRE1Y-val</v>
       </c>
       <c r="N8" t="str">
-        <v>kqDRXtCFV4S-W7IfepZkWXX-val</v>
+        <v>z2tLKKD9O40-W7IfepZkWXX-val</v>
       </c>
       <c r="O8" t="str">
-        <v>kqDRXtCFV4S-oCXdoKkpm6w-val</v>
+        <v>z2tLKKD9O40-oCXdoKkpm6w-val</v>
       </c>
       <c r="P8" t="str">
-        <v>kqDRXtCFV4S-ZVWv8Byjx4a-val</v>
+        <v>z2tLKKD9O40-ZVWv8Byjx4a-val</v>
       </c>
       <c r="Q8" t="str">
         <v/>
@@ -4666,7 +4656,7 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B9" t="str">
         <v>Bác sĩ y học cổ truyền</v>
@@ -4728,7 +4718,7 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B10" t="str">
         <v>Bác sĩ răng hàm mặt</v>
@@ -4790,7 +4780,7 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B11" t="str">
         <v>Bác sĩ y học dự phòng</v>
@@ -4852,7 +4842,7 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B12" t="str">
         <v>Khúc xạ nhãn khoa</v>
@@ -4914,7 +4904,7 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B13" t="str">
         <v>Y tế công cộng</v>
@@ -4976,7 +4966,7 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B14" t="str">
         <v>Dược</v>
@@ -5038,7 +5028,7 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B15" t="str">
         <v>Điều dưỡng</v>
@@ -5100,7 +5090,7 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B16" t="str">
         <v>Kỹ thuật Y</v>
@@ -5162,7 +5152,7 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B17" t="str">
         <v>Hộ sinh</v>
@@ -5224,7 +5214,7 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B18" t="str">
         <v>Dinh dưỡng</v>
@@ -5286,7 +5276,7 @@
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B19" t="str">
         <v>Y sĩ</v>
@@ -5348,7 +5338,7 @@
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B20" t="str">
         <v>Trđ: Y sĩ sản nhi</v>
@@ -5410,7 +5400,7 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B21" t="str">
         <v>Lương Y</v>
@@ -5472,10 +5462,10 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B22" t="str">
-        <v>CTV y tế/dân số</v>
+        <v>Dân số viên</v>
       </c>
       <c r="C22" t="str">
         <v>totalmrx79MJf6Hm</v>
@@ -5534,7 +5524,7 @@
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B23" t="str">
         <v>Hợp đồng 68</v>
@@ -5596,7 +5586,7 @@
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B24" t="str">
         <v>Nhân lực y tế khác</v>
@@ -5658,7 +5648,7 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B25" t="str">
         <v>Tổng số nhân lực y tế</v>
@@ -5727,7 +5717,7 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:R27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5753,24 +5743,21 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Tiến sĩ</v>
+        <v>CKII</v>
       </c>
       <c r="B3" t="str">
-        <v>CKII</v>
+        <v>Thạc sĩ</v>
       </c>
       <c r="C3" t="str">
-        <v>Thạc sĩ</v>
+        <v>CKI</v>
       </c>
       <c r="D3" t="str">
-        <v>CKI</v>
+        <v>Đại học</v>
       </c>
       <c r="E3" t="str">
-        <v>Đại học</v>
+        <v>Cao đẳng</v>
       </c>
       <c r="F3" t="str">
-        <v>Cao đẳng</v>
-      </c>
-      <c r="G3" t="str">
         <v>Trung cấp</v>
       </c>
     </row>
@@ -5794,90 +5781,84 @@
         <v>6</v>
       </c>
       <c r="G5" t="str">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H5" t="str">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I5" t="str">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J5" t="str">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K5" t="str">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L5" t="str">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M5" t="str">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N5" t="str">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="O5" t="str">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="P5" t="str">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="Q5" t="str">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="R5" t="str">
-        <v>18</v>
-      </c>
-      <c r="S5" t="str">
-        <v>19</v>
-      </c>
-      <c r="T5" t="str">
         <v>20</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B6" t="str">
-        <v>Sau đại học y khoa</v>
+        <v>Bác sĩ</v>
       </c>
       <c r="C6" t="str">
-        <v>totalaRDVsuK2oJa</v>
+        <v>indicatorLbFyaZ6jZ0M</v>
       </c>
       <c r="D6" t="str">
-        <v>aRDVsuK2oJa-iIcV5MepJ9Q-val</v>
+        <v>indicatorge4nqMQhKex</v>
       </c>
       <c r="E6" t="str">
-        <v>aRDVsuK2oJa-teIQx8w7HTL-val</v>
+        <v>indicatorYN2BeNa5sKL</v>
       </c>
       <c r="F6" t="str">
-        <v>hEJwt8L00yP-HllvX50cXC0-val</v>
+        <v>jF1NWA8L0sE-HllvX50cXC0-val</v>
       </c>
       <c r="G6" t="str">
-        <v/>
+        <v>YD9NYYpTEFV-j6NSiwlSxIi-val</v>
       </c>
       <c r="H6" t="str">
-        <v/>
+        <v>YD9NYYpTEFV-fcK57lSPGQh-val</v>
       </c>
       <c r="I6" t="str">
-        <v/>
+        <v>YD9NYYpTEFV-NZUP4w4nyDz-val</v>
       </c>
       <c r="J6" t="str">
-        <v/>
+        <v>YD9NYYpTEFV-FQXGzVORZ6b-val</v>
       </c>
       <c r="K6" t="str">
-        <v/>
+        <v>YD9NYYpTEFV-qQzdzVPRE1Y-val</v>
       </c>
       <c r="L6" t="str">
-        <v/>
+        <v>YD9NYYpTEFV-W7IfepZkWXX-val</v>
       </c>
       <c r="M6" t="str">
-        <v/>
+        <v>YD9NYYpTEFV-oCXdoKkpm6w-val</v>
       </c>
       <c r="N6" t="str">
-        <v/>
+        <v>YD9NYYpTEFV-ZVWv8Byjx4a-val</v>
       </c>
       <c r="O6" t="str">
         <v/>
@@ -5889,142 +5870,124 @@
         <v/>
       </c>
       <c r="R6" t="str">
-        <v/>
-      </c>
-      <c r="S6" t="str">
-        <v/>
-      </c>
-      <c r="T6" t="str">
         <v/>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B7" t="str">
-        <v>Bác sĩ</v>
+        <v>Bác sĩ tâm thần</v>
       </c>
       <c r="C7" t="str">
-        <v>indicatorLbFyaZ6jZ0M</v>
+        <v>indicatorGEMRITgQGFV</v>
       </c>
       <c r="D7" t="str">
-        <v>indicatorge4nqMQhKex</v>
+        <v>indicatorg7Ngg42ps5x</v>
       </c>
       <c r="E7" t="str">
-        <v>indicatorYN2BeNa5sKL</v>
+        <v>indicatorPqdzRfgio9f</v>
       </c>
       <c r="F7" t="str">
-        <v>jF1NWA8L0sE-HllvX50cXC0-val</v>
+        <v>MZAGa29CMIj-HllvX50cXC0-val</v>
       </c>
       <c r="G7" t="str">
-        <v>YD9NYYpTEFV-cHdKrY4isFn-val</v>
+        <v>kqDRXtCFV4S-j6NSiwlSxIi-val</v>
       </c>
       <c r="H7" t="str">
-        <v>YD9NYYpTEFV-LhYs1Hkx7Tm-val</v>
+        <v>kqDRXtCFV4S-fcK57lSPGQh-val</v>
       </c>
       <c r="I7" t="str">
-        <v>YD9NYYpTEFV-j6NSiwlSxIi-val</v>
+        <v>kqDRXtCFV4S-NZUP4w4nyDz-val</v>
       </c>
       <c r="J7" t="str">
-        <v>YD9NYYpTEFV-fcK57lSPGQh-val</v>
+        <v>kqDRXtCFV4S-FQXGzVORZ6b-val</v>
       </c>
       <c r="K7" t="str">
-        <v>YD9NYYpTEFV-NZUP4w4nyDz-val</v>
+        <v>kqDRXtCFV4S-qQzdzVPRE1Y-val</v>
       </c>
       <c r="L7" t="str">
-        <v>YD9NYYpTEFV-FQXGzVORZ6b-val</v>
+        <v>kqDRXtCFV4S-W7IfepZkWXX-val</v>
       </c>
       <c r="M7" t="str">
-        <v>YD9NYYpTEFV-qQzdzVPRE1Y-val</v>
+        <v>kqDRXtCFV4S-oCXdoKkpm6w-val</v>
       </c>
       <c r="N7" t="str">
-        <v>YD9NYYpTEFV-W7IfepZkWXX-val</v>
+        <v>kqDRXtCFV4S-ZVWv8Byjx4a-val</v>
       </c>
       <c r="O7" t="str">
-        <v>YD9NYYpTEFV-oCXdoKkpm6w-val</v>
+        <v/>
       </c>
       <c r="P7" t="str">
-        <v>YD9NYYpTEFV-ZVWv8Byjx4a-val</v>
+        <v/>
       </c>
       <c r="Q7" t="str">
         <v/>
       </c>
       <c r="R7" t="str">
-        <v/>
-      </c>
-      <c r="S7" t="str">
-        <v/>
-      </c>
-      <c r="T7" t="str">
         <v/>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B8" t="str">
-        <v>Bác sĩ tâm thần</v>
+        <v>Bác sĩ tâm lý lâm sàng</v>
       </c>
       <c r="C8" t="str">
-        <v>indicatorGEMRITgQGFV</v>
+        <v>totalz2tLKKD9O40</v>
       </c>
       <c r="D8" t="str">
-        <v>indicatorg7Ngg42ps5x</v>
+        <v>indicatori3KKcYHvCdT</v>
       </c>
       <c r="E8" t="str">
-        <v>indicatorPqdzRfgio9f</v>
+        <v>indicatorhCYRLjYBIOb</v>
       </c>
       <c r="F8" t="str">
-        <v>MZAGa29CMIj-HllvX50cXC0-val</v>
+        <v>aiRnVq6ctIB-HllvX50cXC0-val</v>
       </c>
       <c r="G8" t="str">
-        <v>kqDRXtCFV4S-cHdKrY4isFn-val</v>
+        <v>z2tLKKD9O40-j6NSiwlSxIi-val</v>
       </c>
       <c r="H8" t="str">
-        <v>kqDRXtCFV4S-LhYs1Hkx7Tm-val</v>
+        <v>z2tLKKD9O40-fcK57lSPGQh-val</v>
       </c>
       <c r="I8" t="str">
-        <v>kqDRXtCFV4S-j6NSiwlSxIi-val</v>
+        <v>z2tLKKD9O40-NZUP4w4nyDz-val</v>
       </c>
       <c r="J8" t="str">
-        <v>kqDRXtCFV4S-fcK57lSPGQh-val</v>
+        <v>z2tLKKD9O40-FQXGzVORZ6b-val</v>
       </c>
       <c r="K8" t="str">
-        <v>kqDRXtCFV4S-NZUP4w4nyDz-val</v>
+        <v>z2tLKKD9O40-qQzdzVPRE1Y-val</v>
       </c>
       <c r="L8" t="str">
-        <v>kqDRXtCFV4S-FQXGzVORZ6b-val</v>
+        <v>z2tLKKD9O40-W7IfepZkWXX-val</v>
       </c>
       <c r="M8" t="str">
-        <v>kqDRXtCFV4S-qQzdzVPRE1Y-val</v>
+        <v>z2tLKKD9O40-oCXdoKkpm6w-val</v>
       </c>
       <c r="N8" t="str">
-        <v>kqDRXtCFV4S-W7IfepZkWXX-val</v>
+        <v>z2tLKKD9O40-ZVWv8Byjx4a-val</v>
       </c>
       <c r="O8" t="str">
-        <v>kqDRXtCFV4S-oCXdoKkpm6w-val</v>
+        <v/>
       </c>
       <c r="P8" t="str">
-        <v>kqDRXtCFV4S-ZVWv8Byjx4a-val</v>
+        <v/>
       </c>
       <c r="Q8" t="str">
         <v/>
       </c>
       <c r="R8" t="str">
-        <v/>
-      </c>
-      <c r="S8" t="str">
-        <v/>
-      </c>
-      <c r="T8" t="str">
         <v/>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B9" t="str">
         <v>Bác sĩ y học cổ truyền</v>
@@ -6042,51 +6005,45 @@
         <v>IClc87LbTJL-HllvX50cXC0-val</v>
       </c>
       <c r="G9" t="str">
-        <v>cjoW2OBXLDj-cHdKrY4isFn-val</v>
+        <v>cjoW2OBXLDj-j6NSiwlSxIi-val</v>
       </c>
       <c r="H9" t="str">
-        <v>cjoW2OBXLDj-LhYs1Hkx7Tm-val</v>
+        <v>cjoW2OBXLDj-fcK57lSPGQh-val</v>
       </c>
       <c r="I9" t="str">
-        <v>cjoW2OBXLDj-j6NSiwlSxIi-val</v>
+        <v>cjoW2OBXLDj-NZUP4w4nyDz-val</v>
       </c>
       <c r="J9" t="str">
-        <v>cjoW2OBXLDj-fcK57lSPGQh-val</v>
+        <v>cjoW2OBXLDj-FQXGzVORZ6b-val</v>
       </c>
       <c r="K9" t="str">
-        <v>cjoW2OBXLDj-NZUP4w4nyDz-val</v>
+        <v>cjoW2OBXLDj-qQzdzVPRE1Y-val</v>
       </c>
       <c r="L9" t="str">
-        <v>cjoW2OBXLDj-FQXGzVORZ6b-val</v>
+        <v>cjoW2OBXLDj-W7IfepZkWXX-val</v>
       </c>
       <c r="M9" t="str">
-        <v>cjoW2OBXLDj-qQzdzVPRE1Y-val</v>
+        <v>cjoW2OBXLDj-oCXdoKkpm6w-val</v>
       </c>
       <c r="N9" t="str">
-        <v>cjoW2OBXLDj-W7IfepZkWXX-val</v>
+        <v>cjoW2OBXLDj-ZVWv8Byjx4a-val</v>
       </c>
       <c r="O9" t="str">
-        <v>cjoW2OBXLDj-oCXdoKkpm6w-val</v>
+        <v/>
       </c>
       <c r="P9" t="str">
-        <v>cjoW2OBXLDj-ZVWv8Byjx4a-val</v>
+        <v/>
       </c>
       <c r="Q9" t="str">
         <v/>
       </c>
       <c r="R9" t="str">
-        <v/>
-      </c>
-      <c r="S9" t="str">
-        <v/>
-      </c>
-      <c r="T9" t="str">
         <v/>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B10" t="str">
         <v>Bác sĩ răng hàm mặt</v>
@@ -6104,51 +6061,45 @@
         <v>H2tvKnTrxY8-HllvX50cXC0-val</v>
       </c>
       <c r="G10" t="str">
-        <v>p9GO3747RX3-cHdKrY4isFn-val</v>
+        <v>p9GO3747RX3-j6NSiwlSxIi-val</v>
       </c>
       <c r="H10" t="str">
-        <v>p9GO3747RX3-LhYs1Hkx7Tm-val</v>
+        <v>p9GO3747RX3-fcK57lSPGQh-val</v>
       </c>
       <c r="I10" t="str">
-        <v>p9GO3747RX3-j6NSiwlSxIi-val</v>
+        <v>p9GO3747RX3-NZUP4w4nyDz-val</v>
       </c>
       <c r="J10" t="str">
-        <v>p9GO3747RX3-fcK57lSPGQh-val</v>
+        <v>p9GO3747RX3-FQXGzVORZ6b-val</v>
       </c>
       <c r="K10" t="str">
-        <v>p9GO3747RX3-NZUP4w4nyDz-val</v>
+        <v>p9GO3747RX3-qQzdzVPRE1Y-val</v>
       </c>
       <c r="L10" t="str">
-        <v>p9GO3747RX3-FQXGzVORZ6b-val</v>
+        <v>p9GO3747RX3-W7IfepZkWXX-val</v>
       </c>
       <c r="M10" t="str">
-        <v>p9GO3747RX3-qQzdzVPRE1Y-val</v>
+        <v>p9GO3747RX3-oCXdoKkpm6w-val</v>
       </c>
       <c r="N10" t="str">
-        <v>p9GO3747RX3-W7IfepZkWXX-val</v>
+        <v>p9GO3747RX3-ZVWv8Byjx4a-val</v>
       </c>
       <c r="O10" t="str">
-        <v>p9GO3747RX3-oCXdoKkpm6w-val</v>
+        <v/>
       </c>
       <c r="P10" t="str">
-        <v>p9GO3747RX3-ZVWv8Byjx4a-val</v>
+        <v/>
       </c>
       <c r="Q10" t="str">
         <v/>
       </c>
       <c r="R10" t="str">
-        <v/>
-      </c>
-      <c r="S10" t="str">
-        <v/>
-      </c>
-      <c r="T10" t="str">
         <v/>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B11" t="str">
         <v>Bác sĩ y học dự phòng</v>
@@ -6166,57 +6117,51 @@
         <v>BWyyZkiIsKB-HllvX50cXC0-val</v>
       </c>
       <c r="G11" t="str">
-        <v>iBPVIZeR0dC-cHdKrY4isFn-val</v>
+        <v>iBPVIZeR0dC-j6NSiwlSxIi-val</v>
       </c>
       <c r="H11" t="str">
-        <v>iBPVIZeR0dC-LhYs1Hkx7Tm-val</v>
+        <v>iBPVIZeR0dC-fcK57lSPGQh-val</v>
       </c>
       <c r="I11" t="str">
-        <v>iBPVIZeR0dC-j6NSiwlSxIi-val</v>
+        <v>iBPVIZeR0dC-NZUP4w4nyDz-val</v>
       </c>
       <c r="J11" t="str">
-        <v>iBPVIZeR0dC-fcK57lSPGQh-val</v>
+        <v>iBPVIZeR0dC-FQXGzVORZ6b-val</v>
       </c>
       <c r="K11" t="str">
-        <v>iBPVIZeR0dC-NZUP4w4nyDz-val</v>
+        <v>iBPVIZeR0dC-qQzdzVPRE1Y-val</v>
       </c>
       <c r="L11" t="str">
-        <v>iBPVIZeR0dC-FQXGzVORZ6b-val</v>
+        <v>iBPVIZeR0dC-W7IfepZkWXX-val</v>
       </c>
       <c r="M11" t="str">
-        <v>iBPVIZeR0dC-qQzdzVPRE1Y-val</v>
+        <v>iBPVIZeR0dC-oCXdoKkpm6w-val</v>
       </c>
       <c r="N11" t="str">
-        <v>iBPVIZeR0dC-W7IfepZkWXX-val</v>
+        <v>iBPVIZeR0dC-ZVWv8Byjx4a-val</v>
       </c>
       <c r="O11" t="str">
-        <v>iBPVIZeR0dC-oCXdoKkpm6w-val</v>
+        <v/>
       </c>
       <c r="P11" t="str">
-        <v>iBPVIZeR0dC-ZVWv8Byjx4a-val</v>
+        <v/>
       </c>
       <c r="Q11" t="str">
         <v/>
       </c>
       <c r="R11" t="str">
-        <v/>
-      </c>
-      <c r="S11" t="str">
-        <v/>
-      </c>
-      <c r="T11" t="str">
         <v/>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B12" t="str">
         <v>Khúc xạ nhãn khoa</v>
       </c>
       <c r="C12" t="str">
-        <v>indicatorTlaSX54iz54</v>
+        <v>totalWvBabF9GM06</v>
       </c>
       <c r="D12" t="str">
         <v>indicatorESKjXovyt7f</v>
@@ -6228,51 +6173,45 @@
         <v>G2zYTLfmEj0-HllvX50cXC0-val</v>
       </c>
       <c r="G12" t="str">
-        <v>WvBabF9GM06-cHdKrY4isFn-val</v>
+        <v>WvBabF9GM06-j6NSiwlSxIi-val</v>
       </c>
       <c r="H12" t="str">
-        <v>WvBabF9GM06-LhYs1Hkx7Tm-val</v>
+        <v>WvBabF9GM06-fcK57lSPGQh-val</v>
       </c>
       <c r="I12" t="str">
-        <v>WvBabF9GM06-j6NSiwlSxIi-val</v>
+        <v>WvBabF9GM06-NZUP4w4nyDz-val</v>
       </c>
       <c r="J12" t="str">
-        <v>WvBabF9GM06-fcK57lSPGQh-val</v>
+        <v>WvBabF9GM06-FQXGzVORZ6b-val</v>
       </c>
       <c r="K12" t="str">
-        <v>WvBabF9GM06-NZUP4w4nyDz-val</v>
+        <v>WvBabF9GM06-qQzdzVPRE1Y-val</v>
       </c>
       <c r="L12" t="str">
-        <v>WvBabF9GM06-FQXGzVORZ6b-val</v>
+        <v>WvBabF9GM06-W7IfepZkWXX-val</v>
       </c>
       <c r="M12" t="str">
-        <v>WvBabF9GM06-qQzdzVPRE1Y-val</v>
+        <v>WvBabF9GM06-oCXdoKkpm6w-val</v>
       </c>
       <c r="N12" t="str">
-        <v>WvBabF9GM06-W7IfepZkWXX-val</v>
+        <v>WvBabF9GM06-ZVWv8Byjx4a-val</v>
       </c>
       <c r="O12" t="str">
-        <v>WvBabF9GM06-oCXdoKkpm6w-val</v>
+        <v/>
       </c>
       <c r="P12" t="str">
-        <v>WvBabF9GM06-ZVWv8Byjx4a-val</v>
+        <v/>
       </c>
       <c r="Q12" t="str">
         <v/>
       </c>
       <c r="R12" t="str">
-        <v/>
-      </c>
-      <c r="S12" t="str">
-        <v/>
-      </c>
-      <c r="T12" t="str">
         <v/>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B13" t="str">
         <v>Y tế công cộng</v>
@@ -6290,51 +6229,45 @@
         <v>BhmDnw6WxAS-HllvX50cXC0-val</v>
       </c>
       <c r="G13" t="str">
-        <v>I1q7eUkrtiD-cHdKrY4isFn-val</v>
+        <v>I1q7eUkrtiD-j6NSiwlSxIi-val</v>
       </c>
       <c r="H13" t="str">
-        <v>I1q7eUkrtiD-LhYs1Hkx7Tm-val</v>
+        <v>I1q7eUkrtiD-fcK57lSPGQh-val</v>
       </c>
       <c r="I13" t="str">
-        <v>I1q7eUkrtiD-j6NSiwlSxIi-val</v>
+        <v>I1q7eUkrtiD-NZUP4w4nyDz-val</v>
       </c>
       <c r="J13" t="str">
-        <v>I1q7eUkrtiD-fcK57lSPGQh-val</v>
+        <v>I1q7eUkrtiD-FQXGzVORZ6b-val</v>
       </c>
       <c r="K13" t="str">
-        <v>I1q7eUkrtiD-NZUP4w4nyDz-val</v>
+        <v>I1q7eUkrtiD-qQzdzVPRE1Y-val</v>
       </c>
       <c r="L13" t="str">
-        <v>I1q7eUkrtiD-FQXGzVORZ6b-val</v>
+        <v>I1q7eUkrtiD-W7IfepZkWXX-val</v>
       </c>
       <c r="M13" t="str">
-        <v>I1q7eUkrtiD-qQzdzVPRE1Y-val</v>
+        <v>I1q7eUkrtiD-oCXdoKkpm6w-val</v>
       </c>
       <c r="N13" t="str">
-        <v>I1q7eUkrtiD-W7IfepZkWXX-val</v>
+        <v>I1q7eUkrtiD-ZVWv8Byjx4a-val</v>
       </c>
       <c r="O13" t="str">
-        <v>I1q7eUkrtiD-oCXdoKkpm6w-val</v>
+        <v/>
       </c>
       <c r="P13" t="str">
-        <v>I1q7eUkrtiD-ZVWv8Byjx4a-val</v>
+        <v/>
       </c>
       <c r="Q13" t="str">
         <v/>
       </c>
       <c r="R13" t="str">
-        <v/>
-      </c>
-      <c r="S13" t="str">
-        <v/>
-      </c>
-      <c r="T13" t="str">
         <v/>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B14" t="str">
         <v>Dược</v>
@@ -6352,51 +6285,45 @@
         <v>fJsALv2chFQ-HllvX50cXC0-val</v>
       </c>
       <c r="G14" t="str">
-        <v>tYHvKOCPKD0-cHdKrY4isFn-val</v>
+        <v>tYHvKOCPKD0-j6NSiwlSxIi-val</v>
       </c>
       <c r="H14" t="str">
-        <v>tYHvKOCPKD0-LhYs1Hkx7Tm-val</v>
+        <v>tYHvKOCPKD0-fcK57lSPGQh-val</v>
       </c>
       <c r="I14" t="str">
-        <v>tYHvKOCPKD0-j6NSiwlSxIi-val</v>
+        <v>tYHvKOCPKD0-NZUP4w4nyDz-val</v>
       </c>
       <c r="J14" t="str">
-        <v>tYHvKOCPKD0-fcK57lSPGQh-val</v>
+        <v>tYHvKOCPKD0-FQXGzVORZ6b-val</v>
       </c>
       <c r="K14" t="str">
-        <v>tYHvKOCPKD0-NZUP4w4nyDz-val</v>
+        <v>tYHvKOCPKD0-qQzdzVPRE1Y-val</v>
       </c>
       <c r="L14" t="str">
-        <v>tYHvKOCPKD0-FQXGzVORZ6b-val</v>
+        <v>tYHvKOCPKD0-W7IfepZkWXX-val</v>
       </c>
       <c r="M14" t="str">
-        <v>tYHvKOCPKD0-qQzdzVPRE1Y-val</v>
+        <v>tYHvKOCPKD0-oCXdoKkpm6w-val</v>
       </c>
       <c r="N14" t="str">
-        <v>tYHvKOCPKD0-W7IfepZkWXX-val</v>
+        <v>tYHvKOCPKD0-ZVWv8Byjx4a-val</v>
       </c>
       <c r="O14" t="str">
-        <v>tYHvKOCPKD0-oCXdoKkpm6w-val</v>
+        <v>tYHvKOCPKD0-lulFtHd6g9U-val</v>
       </c>
       <c r="P14" t="str">
-        <v>tYHvKOCPKD0-ZVWv8Byjx4a-val</v>
+        <v>tYHvKOCPKD0-Xh0GebJLxc7-val</v>
       </c>
       <c r="Q14" t="str">
-        <v>tYHvKOCPKD0-lulFtHd6g9U-val</v>
+        <v>tYHvKOCPKD0-WtSoS3htH0e-val</v>
       </c>
       <c r="R14" t="str">
-        <v>tYHvKOCPKD0-Xh0GebJLxc7-val</v>
-      </c>
-      <c r="S14" t="str">
-        <v>tYHvKOCPKD0-WtSoS3htH0e-val</v>
-      </c>
-      <c r="T14" t="str">
         <v>tYHvKOCPKD0-aBTLow9SHt6-val</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B15" t="str">
         <v>Điều dưỡng</v>
@@ -6414,51 +6341,45 @@
         <v>p9mbre5d9EX-HllvX50cXC0-val</v>
       </c>
       <c r="G15" t="str">
-        <v>SuJV0QHbGMC-cHdKrY4isFn-val</v>
+        <v>SuJV0QHbGMC-j6NSiwlSxIi-val</v>
       </c>
       <c r="H15" t="str">
-        <v>SuJV0QHbGMC-LhYs1Hkx7Tm-val</v>
+        <v>SuJV0QHbGMC-fcK57lSPGQh-val</v>
       </c>
       <c r="I15" t="str">
-        <v>SuJV0QHbGMC-j6NSiwlSxIi-val</v>
+        <v>SuJV0QHbGMC-NZUP4w4nyDz-val</v>
       </c>
       <c r="J15" t="str">
-        <v>SuJV0QHbGMC-fcK57lSPGQh-val</v>
+        <v>SuJV0QHbGMC-FQXGzVORZ6b-val</v>
       </c>
       <c r="K15" t="str">
-        <v>SuJV0QHbGMC-NZUP4w4nyDz-val</v>
+        <v>SuJV0QHbGMC-qQzdzVPRE1Y-val</v>
       </c>
       <c r="L15" t="str">
-        <v>SuJV0QHbGMC-FQXGzVORZ6b-val</v>
+        <v>SuJV0QHbGMC-W7IfepZkWXX-val</v>
       </c>
       <c r="M15" t="str">
-        <v>SuJV0QHbGMC-qQzdzVPRE1Y-val</v>
+        <v>SuJV0QHbGMC-oCXdoKkpm6w-val</v>
       </c>
       <c r="N15" t="str">
-        <v>SuJV0QHbGMC-W7IfepZkWXX-val</v>
+        <v>SuJV0QHbGMC-ZVWv8Byjx4a-val</v>
       </c>
       <c r="O15" t="str">
-        <v>SuJV0QHbGMC-oCXdoKkpm6w-val</v>
+        <v>SuJV0QHbGMC-lulFtHd6g9U-val</v>
       </c>
       <c r="P15" t="str">
-        <v>SuJV0QHbGMC-ZVWv8Byjx4a-val</v>
+        <v>SuJV0QHbGMC-Xh0GebJLxc7-val</v>
       </c>
       <c r="Q15" t="str">
-        <v>SuJV0QHbGMC-lulFtHd6g9U-val</v>
+        <v>SuJV0QHbGMC-WtSoS3htH0e-val</v>
       </c>
       <c r="R15" t="str">
-        <v>SuJV0QHbGMC-Xh0GebJLxc7-val</v>
-      </c>
-      <c r="S15" t="str">
-        <v>SuJV0QHbGMC-WtSoS3htH0e-val</v>
-      </c>
-      <c r="T15" t="str">
         <v>SuJV0QHbGMC-aBTLow9SHt6-val</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B16" t="str">
         <v>Kỹ thuật Y</v>
@@ -6476,51 +6397,45 @@
         <v>oRMUFE5FcFL-HllvX50cXC0-val</v>
       </c>
       <c r="G16" t="str">
-        <v>VmYCezYPWfW-cHdKrY4isFn-val</v>
+        <v>VmYCezYPWfW-j6NSiwlSxIi-val</v>
       </c>
       <c r="H16" t="str">
-        <v>VmYCezYPWfW-LhYs1Hkx7Tm-val</v>
+        <v>VmYCezYPWfW-fcK57lSPGQh-val</v>
       </c>
       <c r="I16" t="str">
-        <v>VmYCezYPWfW-j6NSiwlSxIi-val</v>
+        <v>VmYCezYPWfW-NZUP4w4nyDz-val</v>
       </c>
       <c r="J16" t="str">
-        <v>VmYCezYPWfW-fcK57lSPGQh-val</v>
+        <v>VmYCezYPWfW-FQXGzVORZ6b-val</v>
       </c>
       <c r="K16" t="str">
-        <v>VmYCezYPWfW-NZUP4w4nyDz-val</v>
+        <v>VmYCezYPWfW-qQzdzVPRE1Y-val</v>
       </c>
       <c r="L16" t="str">
-        <v>VmYCezYPWfW-FQXGzVORZ6b-val</v>
+        <v>VmYCezYPWfW-W7IfepZkWXX-val</v>
       </c>
       <c r="M16" t="str">
-        <v>VmYCezYPWfW-qQzdzVPRE1Y-val</v>
+        <v>VmYCezYPWfW-oCXdoKkpm6w-val</v>
       </c>
       <c r="N16" t="str">
-        <v>VmYCezYPWfW-W7IfepZkWXX-val</v>
+        <v>VmYCezYPWfW-ZVWv8Byjx4a-val</v>
       </c>
       <c r="O16" t="str">
-        <v>VmYCezYPWfW-oCXdoKkpm6w-val</v>
+        <v>VmYCezYPWfW-lulFtHd6g9U-val</v>
       </c>
       <c r="P16" t="str">
-        <v>VmYCezYPWfW-ZVWv8Byjx4a-val</v>
+        <v>VmYCezYPWfW-Xh0GebJLxc7-val</v>
       </c>
       <c r="Q16" t="str">
-        <v>VmYCezYPWfW-lulFtHd6g9U-val</v>
+        <v>VmYCezYPWfW-WtSoS3htH0e-val</v>
       </c>
       <c r="R16" t="str">
-        <v>VmYCezYPWfW-Xh0GebJLxc7-val</v>
-      </c>
-      <c r="S16" t="str">
-        <v>VmYCezYPWfW-WtSoS3htH0e-val</v>
-      </c>
-      <c r="T16" t="str">
         <v>VmYCezYPWfW-aBTLow9SHt6-val</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B17" t="str">
         <v>Hộ sinh</v>
@@ -6538,51 +6453,45 @@
         <v>khx70zeNUUW-HllvX50cXC0-val</v>
       </c>
       <c r="G17" t="str">
-        <v>aXmairWrfMD-cHdKrY4isFn-val</v>
+        <v>aXmairWrfMD-j6NSiwlSxIi-val</v>
       </c>
       <c r="H17" t="str">
-        <v>aXmairWrfMD-LhYs1Hkx7Tm-val</v>
+        <v>aXmairWrfMD-fcK57lSPGQh-val</v>
       </c>
       <c r="I17" t="str">
-        <v>aXmairWrfMD-j6NSiwlSxIi-val</v>
+        <v>aXmairWrfMD-NZUP4w4nyDz-val</v>
       </c>
       <c r="J17" t="str">
-        <v>aXmairWrfMD-fcK57lSPGQh-val</v>
+        <v>aXmairWrfMD-FQXGzVORZ6b-val</v>
       </c>
       <c r="K17" t="str">
-        <v>aXmairWrfMD-NZUP4w4nyDz-val</v>
+        <v>aXmairWrfMD-qQzdzVPRE1Y-val</v>
       </c>
       <c r="L17" t="str">
-        <v>aXmairWrfMD-FQXGzVORZ6b-val</v>
+        <v>aXmairWrfMD-W7IfepZkWXX-val</v>
       </c>
       <c r="M17" t="str">
-        <v>aXmairWrfMD-qQzdzVPRE1Y-val</v>
+        <v>aXmairWrfMD-oCXdoKkpm6w-val</v>
       </c>
       <c r="N17" t="str">
-        <v>aXmairWrfMD-W7IfepZkWXX-val</v>
+        <v>aXmairWrfMD-ZVWv8Byjx4a-val</v>
       </c>
       <c r="O17" t="str">
-        <v>aXmairWrfMD-oCXdoKkpm6w-val</v>
+        <v>aXmairWrfMD-lulFtHd6g9U-val</v>
       </c>
       <c r="P17" t="str">
-        <v>aXmairWrfMD-ZVWv8Byjx4a-val</v>
+        <v>aXmairWrfMD-Xh0GebJLxc7-val</v>
       </c>
       <c r="Q17" t="str">
-        <v>aXmairWrfMD-lulFtHd6g9U-val</v>
+        <v>aXmairWrfMD-WtSoS3htH0e-val</v>
       </c>
       <c r="R17" t="str">
-        <v>aXmairWrfMD-Xh0GebJLxc7-val</v>
-      </c>
-      <c r="S17" t="str">
-        <v>aXmairWrfMD-WtSoS3htH0e-val</v>
-      </c>
-      <c r="T17" t="str">
         <v>aXmairWrfMD-aBTLow9SHt6-val</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B18" t="str">
         <v>Dinh dưỡng</v>
@@ -6600,51 +6509,45 @@
         <v>CdNXzkSckvr-HllvX50cXC0-val</v>
       </c>
       <c r="G18" t="str">
-        <v>NQ2DQIdC9bh-cHdKrY4isFn-val</v>
+        <v>NQ2DQIdC9bh-j6NSiwlSxIi-val</v>
       </c>
       <c r="H18" t="str">
-        <v>NQ2DQIdC9bh-LhYs1Hkx7Tm-val</v>
+        <v>NQ2DQIdC9bh-fcK57lSPGQh-val</v>
       </c>
       <c r="I18" t="str">
-        <v>NQ2DQIdC9bh-j6NSiwlSxIi-val</v>
+        <v>NQ2DQIdC9bh-NZUP4w4nyDz-val</v>
       </c>
       <c r="J18" t="str">
-        <v>NQ2DQIdC9bh-fcK57lSPGQh-val</v>
+        <v>NQ2DQIdC9bh-FQXGzVORZ6b-val</v>
       </c>
       <c r="K18" t="str">
-        <v>NQ2DQIdC9bh-NZUP4w4nyDz-val</v>
+        <v>NQ2DQIdC9bh-qQzdzVPRE1Y-val</v>
       </c>
       <c r="L18" t="str">
-        <v>NQ2DQIdC9bh-FQXGzVORZ6b-val</v>
+        <v>NQ2DQIdC9bh-W7IfepZkWXX-val</v>
       </c>
       <c r="M18" t="str">
-        <v>NQ2DQIdC9bh-qQzdzVPRE1Y-val</v>
+        <v>NQ2DQIdC9bh-oCXdoKkpm6w-val</v>
       </c>
       <c r="N18" t="str">
-        <v>NQ2DQIdC9bh-W7IfepZkWXX-val</v>
+        <v>NQ2DQIdC9bh-ZVWv8Byjx4a-val</v>
       </c>
       <c r="O18" t="str">
-        <v>NQ2DQIdC9bh-oCXdoKkpm6w-val</v>
+        <v>NQ2DQIdC9bh-lulFtHd6g9U-val</v>
       </c>
       <c r="P18" t="str">
-        <v>NQ2DQIdC9bh-ZVWv8Byjx4a-val</v>
+        <v>NQ2DQIdC9bh-Xh0GebJLxc7-val</v>
       </c>
       <c r="Q18" t="str">
-        <v>NQ2DQIdC9bh-lulFtHd6g9U-val</v>
+        <v>NQ2DQIdC9bh-WtSoS3htH0e-val</v>
       </c>
       <c r="R18" t="str">
-        <v>NQ2DQIdC9bh-Xh0GebJLxc7-val</v>
-      </c>
-      <c r="S18" t="str">
-        <v>NQ2DQIdC9bh-WtSoS3htH0e-val</v>
-      </c>
-      <c r="T18" t="str">
         <v>NQ2DQIdC9bh-aBTLow9SHt6-val</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B19" t="str">
         <v>Y sĩ</v>
@@ -6697,19 +6600,13 @@
       <c r="R19" t="str">
         <v/>
       </c>
-      <c r="S19" t="str">
-        <v/>
-      </c>
-      <c r="T19" t="str">
-        <v/>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B20" t="str">
-        <v>Trđ: Y sĩ sản nhi</v>
+        <v>Trong đó: Y sĩ sản nhi</v>
       </c>
       <c r="C20" t="str">
         <v>totals0wgnRiHeUe</v>
@@ -6759,16 +6656,10 @@
       <c r="R20" t="str">
         <v/>
       </c>
-      <c r="S20" t="str">
-        <v/>
-      </c>
-      <c r="T20" t="str">
-        <v/>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B21" t="str">
         <v>Lương Y</v>
@@ -6821,19 +6712,13 @@
       <c r="R21" t="str">
         <v/>
       </c>
-      <c r="S21" t="str">
-        <v/>
-      </c>
-      <c r="T21" t="str">
-        <v/>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B22" t="str">
-        <v>CTV y tế/dân số</v>
+        <v>Dân số viên</v>
       </c>
       <c r="C22" t="str">
         <v>totalmrx79MJf6Hm</v>
@@ -6883,202 +6768,290 @@
       <c r="R22" t="str">
         <v/>
       </c>
-      <c r="S22" t="str">
-        <v/>
-      </c>
-      <c r="T22" t="str">
-        <v/>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B23" t="str">
-        <v>Hợp đồng 68</v>
+        <v>Nhân lực y tế khác</v>
       </c>
       <c r="C23" t="str">
-        <v>totalKQj7APFQG6z</v>
+        <v>indicatort4yeGuGYFQf</v>
       </c>
       <c r="D23" t="str">
-        <v>KQj7APFQG6z-iIcV5MepJ9Q-val</v>
+        <v>indicatorzqnnh5ZWvuF</v>
       </c>
       <c r="E23" t="str">
-        <v>KQj7APFQG6z-teIQx8w7HTL-val</v>
+        <v>indicatorUgXTsTuoHFR</v>
       </c>
       <c r="F23" t="str">
-        <v>RwoYtalPSC7-HllvX50cXC0-val</v>
+        <v>iZhUj6XLCf2-HllvX50cXC0-val</v>
       </c>
       <c r="G23" t="str">
-        <v/>
+        <v>CKr5or7Rsw2-j6NSiwlSxIi-val</v>
       </c>
       <c r="H23" t="str">
-        <v/>
+        <v>CKr5or7Rsw2-fcK57lSPGQh-val</v>
       </c>
       <c r="I23" t="str">
-        <v/>
+        <v>CKr5or7Rsw2-NZUP4w4nyDz-val</v>
       </c>
       <c r="J23" t="str">
-        <v/>
+        <v>CKr5or7Rsw2-FQXGzVORZ6b-val</v>
       </c>
       <c r="K23" t="str">
-        <v/>
+        <v>CKr5or7Rsw2-qQzdzVPRE1Y-val</v>
       </c>
       <c r="L23" t="str">
-        <v/>
+        <v>CKr5or7Rsw2-W7IfepZkWXX-val</v>
       </c>
       <c r="M23" t="str">
-        <v/>
+        <v>CKr5or7Rsw2-oCXdoKkpm6w-val</v>
       </c>
       <c r="N23" t="str">
-        <v/>
+        <v>CKr5or7Rsw2-ZVWv8Byjx4a-val</v>
       </c>
       <c r="O23" t="str">
-        <v/>
+        <v>CKr5or7Rsw2-lulFtHd6g9U-val</v>
       </c>
       <c r="P23" t="str">
-        <v/>
+        <v>CKr5or7Rsw2-Xh0GebJLxc7-val</v>
       </c>
       <c r="Q23" t="str">
-        <v/>
+        <v>CKr5or7Rsw2-WtSoS3htH0e-val</v>
       </c>
       <c r="R23" t="str">
-        <v/>
-      </c>
-      <c r="S23" t="str">
-        <v/>
-      </c>
-      <c r="T23" t="str">
-        <v/>
+        <v>CKr5or7Rsw2-aBTLow9SHt6-val</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B24" t="str">
-        <v>Nhân lực y tế khác</v>
+        <v>Nhân viên y tế thôn bản</v>
       </c>
       <c r="C24" t="str">
-        <v>indicatort4yeGuGYFQf</v>
+        <v>totalPAWDJs2uaJJ</v>
       </c>
       <c r="D24" t="str">
-        <v>indicatorzqnnh5ZWvuF</v>
+        <v>PAWDJs2uaJJ-iIcV5MepJ9Q-val</v>
       </c>
       <c r="E24" t="str">
-        <v>indicatorUgXTsTuoHFR</v>
+        <v>PAWDJs2uaJJ-teIQx8w7HTL-val</v>
       </c>
       <c r="F24" t="str">
-        <v>iZhUj6XLCf2-HllvX50cXC0-val</v>
+        <v>AY6fur1TF4R-HllvX50cXC0-val</v>
       </c>
       <c r="G24" t="str">
-        <v>CKr5or7Rsw2-cHdKrY4isFn-val</v>
+        <v/>
       </c>
       <c r="H24" t="str">
-        <v>CKr5or7Rsw2-LhYs1Hkx7Tm-val</v>
+        <v/>
       </c>
       <c r="I24" t="str">
-        <v>CKr5or7Rsw2-j6NSiwlSxIi-val</v>
+        <v/>
       </c>
       <c r="J24" t="str">
-        <v>CKr5or7Rsw2-fcK57lSPGQh-val</v>
+        <v/>
       </c>
       <c r="K24" t="str">
-        <v>CKr5or7Rsw2-NZUP4w4nyDz-val</v>
+        <v/>
       </c>
       <c r="L24" t="str">
-        <v>CKr5or7Rsw2-FQXGzVORZ6b-val</v>
+        <v/>
       </c>
       <c r="M24" t="str">
-        <v>CKr5or7Rsw2-qQzdzVPRE1Y-val</v>
+        <v/>
       </c>
       <c r="N24" t="str">
-        <v>CKr5or7Rsw2-W7IfepZkWXX-val</v>
+        <v/>
       </c>
       <c r="O24" t="str">
-        <v>CKr5or7Rsw2-oCXdoKkpm6w-val</v>
+        <v/>
       </c>
       <c r="P24" t="str">
-        <v>CKr5or7Rsw2-ZVWv8Byjx4a-val</v>
+        <v/>
       </c>
       <c r="Q24" t="str">
-        <v>CKr5or7Rsw2-lulFtHd6g9U-val</v>
+        <v/>
       </c>
       <c r="R24" t="str">
-        <v>CKr5or7Rsw2-Xh0GebJLxc7-val</v>
-      </c>
-      <c r="S24" t="str">
-        <v>CKr5or7Rsw2-WtSoS3htH0e-val</v>
-      </c>
-      <c r="T24" t="str">
-        <v>CKr5or7Rsw2-aBTLow9SHt6-val</v>
+        <v/>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B25" t="str">
+        <v>Trong đó: Số được đào tạo theo chương trình của BYT</v>
+      </c>
+      <c r="C25" t="str">
+        <v>totalMogQN0tG8p3</v>
+      </c>
+      <c r="D25" t="str">
+        <v>MogQN0tG8p3-iIcV5MepJ9Q-val</v>
+      </c>
+      <c r="E25" t="str">
+        <v>MogQN0tG8p3-teIQx8w7HTL-val</v>
+      </c>
+      <c r="F25" t="str">
+        <v>UIcWKa2Uozp-HllvX50cXC0-val</v>
+      </c>
+      <c r="G25" t="str">
+        <v/>
+      </c>
+      <c r="H25" t="str">
+        <v/>
+      </c>
+      <c r="I25" t="str">
+        <v/>
+      </c>
+      <c r="J25" t="str">
+        <v/>
+      </c>
+      <c r="K25" t="str">
+        <v/>
+      </c>
+      <c r="L25" t="str">
+        <v/>
+      </c>
+      <c r="M25" t="str">
+        <v/>
+      </c>
+      <c r="N25" t="str">
+        <v/>
+      </c>
+      <c r="O25" t="str">
+        <v/>
+      </c>
+      <c r="P25" t="str">
+        <v/>
+      </c>
+      <c r="Q25" t="str">
+        <v/>
+      </c>
+      <c r="R25" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>21</v>
+      </c>
+      <c r="B26" t="str">
+        <v>Cô đỡ thôn bản</v>
+      </c>
+      <c r="C26" t="str">
+        <v>totalin4t2CQUISx</v>
+      </c>
+      <c r="D26" t="str">
+        <v>in4t2CQUISx-iIcV5MepJ9Q-val</v>
+      </c>
+      <c r="E26" t="str">
+        <v>in4t2CQUISx-teIQx8w7HTL-val</v>
+      </c>
+      <c r="F26" t="str">
+        <v>tWNUs7domxy-HllvX50cXC0-val</v>
+      </c>
+      <c r="G26" t="str">
+        <v/>
+      </c>
+      <c r="H26" t="str">
+        <v/>
+      </c>
+      <c r="I26" t="str">
+        <v/>
+      </c>
+      <c r="J26" t="str">
+        <v/>
+      </c>
+      <c r="K26" t="str">
+        <v/>
+      </c>
+      <c r="L26" t="str">
+        <v/>
+      </c>
+      <c r="M26" t="str">
+        <v/>
+      </c>
+      <c r="N26" t="str">
+        <v/>
+      </c>
+      <c r="O26" t="str">
+        <v/>
+      </c>
+      <c r="P26" t="str">
+        <v/>
+      </c>
+      <c r="Q26" t="str">
+        <v/>
+      </c>
+      <c r="R26" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>22</v>
+      </c>
+      <c r="B27" t="str">
         <v>Tổng số nhân lực y tế</v>
       </c>
-      <c r="C25" t="str">
+      <c r="C27" t="str">
         <v>totalhsVznuhU2ix</v>
       </c>
-      <c r="D25" t="str">
+      <c r="D27" t="str">
         <v>hsVznuhU2ix-iIcV5MepJ9Q-val</v>
       </c>
-      <c r="E25" t="str">
+      <c r="E27" t="str">
         <v>hsVznuhU2ix-teIQx8w7HTL-val</v>
       </c>
-      <c r="F25" t="str">
+      <c r="F27" t="str">
         <v>S1BIM3lWXZS-HllvX50cXC0-val</v>
       </c>
-      <c r="G25" t="str">
-        <v/>
-      </c>
-      <c r="H25" t="str">
-        <v/>
-      </c>
-      <c r="I25" t="str">
-        <v/>
-      </c>
-      <c r="J25" t="str">
-        <v/>
-      </c>
-      <c r="K25" t="str">
-        <v/>
-      </c>
-      <c r="L25" t="str">
-        <v/>
-      </c>
-      <c r="M25" t="str">
-        <v/>
-      </c>
-      <c r="N25" t="str">
-        <v/>
-      </c>
-      <c r="O25" t="str">
-        <v/>
-      </c>
-      <c r="P25" t="str">
-        <v/>
-      </c>
-      <c r="Q25" t="str">
-        <v/>
-      </c>
-      <c r="R25" t="str">
-        <v/>
-      </c>
-      <c r="S25" t="str">
-        <v/>
-      </c>
-      <c r="T25" t="str">
+      <c r="G27" t="str">
+        <v/>
+      </c>
+      <c r="H27" t="str">
+        <v/>
+      </c>
+      <c r="I27" t="str">
+        <v/>
+      </c>
+      <c r="J27" t="str">
+        <v/>
+      </c>
+      <c r="K27" t="str">
+        <v/>
+      </c>
+      <c r="L27" t="str">
+        <v/>
+      </c>
+      <c r="M27" t="str">
+        <v/>
+      </c>
+      <c r="N27" t="str">
+        <v/>
+      </c>
+      <c r="O27" t="str">
+        <v/>
+      </c>
+      <c r="P27" t="str">
+        <v/>
+      </c>
+      <c r="Q27" t="str">
+        <v/>
+      </c>
+      <c r="R27" t="str">
         <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:T25"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:R27"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -8622,6 +8595,873 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F47"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>BIỂU MẪU BÁO CÁO NHANH</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>TT</v>
+      </c>
+      <c r="B2" t="str">
+        <v>Tên chỉ tiêu</v>
+      </c>
+      <c r="C2" t="str">
+        <v>Giá trị</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>A</v>
+      </c>
+      <c r="B3" t="str">
+        <v>Tổng số xã/phường</v>
+      </c>
+      <c r="C3" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>-</v>
+      </c>
+      <c r="B4" t="str">
+        <v>Tổng số xã/phường</v>
+      </c>
+      <c r="C4" t="str">
+        <v>aIUs4ByKOk2-HllvX50cXC0-val</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>-</v>
+      </c>
+      <c r="B5" t="str">
+        <v>Tổng số TYT xã/phường có tối thiểu một bác sỹ làm việc</v>
+      </c>
+      <c r="C5" t="str">
+        <v>l2EP1j2c7qO-HllvX50cXC0-val</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>-</v>
+      </c>
+      <c r="B6" t="str">
+        <v>Tổng số TYT xã/phường có bác sỹ định biên</v>
+      </c>
+      <c r="C6" t="str">
+        <v>LMJJs5MbpDU-HllvX50cXC0-val</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>-</v>
+      </c>
+      <c r="B7" t="str">
+        <v>Tổng số TYT xã/phường có hộ sinh hoặc y sỹ sản nhi</v>
+      </c>
+      <c r="C7" t="str">
+        <v>bWdrToaRZCT-HllvX50cXC0-val</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>-</v>
+      </c>
+      <c r="B8" t="str">
+        <v>Tổng số thôn/bản</v>
+      </c>
+      <c r="C8" t="str">
+        <v>PjwXzsd1syp-HllvX50cXC0-val</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>-</v>
+      </c>
+      <c r="B9" t="str">
+        <v>Tổng số thôn, bản có nhân viên y tế hoạt động</v>
+      </c>
+      <c r="C9" t="str">
+        <v>vae4e6zMz28-HllvX50cXC0-val</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>B</v>
+      </c>
+      <c r="B10" t="str">
+        <v>Tổng số nhân lực y tế</v>
+      </c>
+      <c r="C10" t="str">
+        <v>Tổng số</v>
+      </c>
+      <c r="D10" t="str">
+        <v>Nam</v>
+      </c>
+      <c r="E10" t="str">
+        <v>Nữ</v>
+      </c>
+      <c r="F10" t="str">
+        <v>Dân tộc thiểu số</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>I</v>
+      </c>
+      <c r="B11" t="str">
+        <v>Tổng số Lãnh đạo Sở (GĐ, PGĐ)</v>
+      </c>
+      <c r="C11" t="str">
+        <v>totalXGDxJby7eMt</v>
+      </c>
+      <c r="D11" t="str">
+        <v>XGDxJby7eMt-iIcV5MepJ9Q-val</v>
+      </c>
+      <c r="E11" t="str">
+        <v>XGDxJby7eMt-teIQx8w7HTL-val</v>
+      </c>
+      <c r="F11" t="str">
+        <v>dKcrjwfd2MK-HllvX50cXC0-val</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>II</v>
+      </c>
+      <c r="B12" t="str">
+        <v>Tổng số cán bộ nhân viên y tế (=5.1+5.2)</v>
+      </c>
+      <c r="C12" t="str">
+        <v>indicatorM5mgyWQoHHG</v>
+      </c>
+      <c r="D12" t="str">
+        <v>indicatorsOc7B21MajO</v>
+      </c>
+      <c r="E12" t="str">
+        <v>indicatorR7i0u9Qkexh</v>
+      </c>
+      <c r="F12" t="str">
+        <v>indicatorWB9NXcaAToa</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>1</v>
+      </c>
+      <c r="B13" t="str">
+        <v>Chia theo chuyên ngành</v>
+      </c>
+      <c r="C13" t="str">
+        <v/>
+      </c>
+      <c r="D13" t="str">
+        <v/>
+      </c>
+      <c r="E13" t="str">
+        <v/>
+      </c>
+      <c r="F13" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>1.1</v>
+      </c>
+      <c r="B14" t="str">
+        <v>Chuyên ngành Y (=a+b+c+d+e+f+g+h+i)</v>
+      </c>
+      <c r="C14" t="str">
+        <v>indicatorx2jSInYPlFC</v>
+      </c>
+      <c r="D14" t="str">
+        <v>indicatortFVXxKzpfkf</v>
+      </c>
+      <c r="E14" t="str">
+        <v>indicatorrnFhlZHG6C9</v>
+      </c>
+      <c r="F14" t="str">
+        <v>indicatorjmXLFQzvizG</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>a</v>
+      </c>
+      <c r="B15" t="str">
+        <v>Tổng số bác sĩ</v>
+      </c>
+      <c r="C15" t="str">
+        <v>indicatormGcJ65tbDoo</v>
+      </c>
+      <c r="D15" t="str">
+        <v>indicatorrJOq73oBBDf</v>
+      </c>
+      <c r="E15" t="str">
+        <v>indicatore5E5NGQL6KI</v>
+      </c>
+      <c r="F15" t="str">
+        <v>indicatoratUIK1PXcZQ</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v/>
+      </c>
+      <c r="B16" t="str">
+        <v>Bác sĩ sau đại học</v>
+      </c>
+      <c r="C16" t="str">
+        <v>totalX1VikV9vqha</v>
+      </c>
+      <c r="D16" t="str">
+        <v>X1VikV9vqha-iIcV5MepJ9Q-val</v>
+      </c>
+      <c r="E16" t="str">
+        <v>X1VikV9vqha-teIQx8w7HTL-val</v>
+      </c>
+      <c r="F16" t="str">
+        <v>YERXr3nBYxy-HllvX50cXC0-val</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v/>
+      </c>
+      <c r="B17" t="str">
+        <v>Bác sĩ đại học</v>
+      </c>
+      <c r="C17" t="str">
+        <v>totallvoSoQVMixH</v>
+      </c>
+      <c r="D17" t="str">
+        <v>lvoSoQVMixH-iIcV5MepJ9Q-val</v>
+      </c>
+      <c r="E17" t="str">
+        <v>lvoSoQVMixH-teIQx8w7HTL-val</v>
+      </c>
+      <c r="F17" t="str">
+        <v>vk4AS8x36NE-HllvX50cXC0-val</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>b</v>
+      </c>
+      <c r="B18" t="str">
+        <v>Y tế công cộng</v>
+      </c>
+      <c r="C18" t="str">
+        <v>totalXiibRsCOoNU</v>
+      </c>
+      <c r="D18" t="str">
+        <v>XiibRsCOoNU-iIcV5MepJ9Q-val</v>
+      </c>
+      <c r="E18" t="str">
+        <v>XiibRsCOoNU-teIQx8w7HTL-val</v>
+      </c>
+      <c r="F18" t="str">
+        <v>Vatzw3cAl42-HllvX50cXC0-val</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>c</v>
+      </c>
+      <c r="B19" t="str">
+        <v>Y học dự phòng</v>
+      </c>
+      <c r="C19" t="str">
+        <v>totallby5DWCwwT2</v>
+      </c>
+      <c r="D19" t="str">
+        <v>lby5DWCwwT2-iIcV5MepJ9Q-val</v>
+      </c>
+      <c r="E19" t="str">
+        <v>lby5DWCwwT2-teIQx8w7HTL-val</v>
+      </c>
+      <c r="F19" t="str">
+        <v>PJv3neqqgYB-HllvX50cXC0-val</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>d</v>
+      </c>
+      <c r="B20" t="str">
+        <v>Y học cổ truyền</v>
+      </c>
+      <c r="C20" t="str">
+        <v>indicatorNUd5r4swO8q</v>
+      </c>
+      <c r="D20" t="str">
+        <v>indicatoriIXIcUb1nSl</v>
+      </c>
+      <c r="E20" t="str">
+        <v>indicatorh6EKGvfGFrM</v>
+      </c>
+      <c r="F20" t="str">
+        <v>indicatorwAiWo99SUdp</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v/>
+      </c>
+      <c r="B21" t="str">
+        <v>Y học cổ truyền đại học và sau đại học</v>
+      </c>
+      <c r="C21" t="str">
+        <v>totalNabxwRNXimH</v>
+      </c>
+      <c r="D21" t="str">
+        <v>NabxwRNXimH-iIcV5MepJ9Q-val</v>
+      </c>
+      <c r="E21" t="str">
+        <v>NabxwRNXimH-teIQx8w7HTL-val</v>
+      </c>
+      <c r="F21" t="str">
+        <v>tKqXV2EIlYv-HllvX50cXC0-val</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v/>
+      </c>
+      <c r="B22" t="str">
+        <v>Y học cổ truyền cao đẳng và trung học</v>
+      </c>
+      <c r="C22" t="str">
+        <v>totalqk71ONhI8Oj</v>
+      </c>
+      <c r="D22" t="str">
+        <v>qk71ONhI8Oj-iIcV5MepJ9Q-val</v>
+      </c>
+      <c r="E22" t="str">
+        <v>qk71ONhI8Oj-teIQx8w7HTL-val</v>
+      </c>
+      <c r="F22" t="str">
+        <v>hs30u0cLZlg-HllvX50cXC0-val</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>e</v>
+      </c>
+      <c r="B23" t="str">
+        <v>Điều Dưỡng</v>
+      </c>
+      <c r="C23" t="str">
+        <v>indicatortu50G3uZtb5</v>
+      </c>
+      <c r="D23" t="str">
+        <v>indicatorsgK9XziSqJb</v>
+      </c>
+      <c r="E23" t="str">
+        <v>indicatorUoTVaBnQhSl</v>
+      </c>
+      <c r="F23" t="str">
+        <v>indicatorvS9comCYhXy</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v/>
+      </c>
+      <c r="B24" t="str">
+        <v>Điều dưỡng đại học và sau đại học</v>
+      </c>
+      <c r="C24" t="str">
+        <v>totalwgSYT67aOUD</v>
+      </c>
+      <c r="D24" t="str">
+        <v>wgSYT67aOUD-iIcV5MepJ9Q-val</v>
+      </c>
+      <c r="E24" t="str">
+        <v>wgSYT67aOUD-teIQx8w7HTL-val</v>
+      </c>
+      <c r="F24" t="str">
+        <v>kXQIobldOAA-HllvX50cXC0-val</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v/>
+      </c>
+      <c r="B25" t="str">
+        <v>Điều dưỡng cao đẳng và trung học</v>
+      </c>
+      <c r="C25" t="str">
+        <v>totald2ekMnYe1d0</v>
+      </c>
+      <c r="D25" t="str">
+        <v>d2ekMnYe1d0-iIcV5MepJ9Q-val</v>
+      </c>
+      <c r="E25" t="str">
+        <v>d2ekMnYe1d0-teIQx8w7HTL-val</v>
+      </c>
+      <c r="F25" t="str">
+        <v>ut4BojLSXQy-HllvX50cXC0-val</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>f</v>
+      </c>
+      <c r="B26" t="str">
+        <v>Kỹ thuật viên Y</v>
+      </c>
+      <c r="C26" t="str">
+        <v>indicatorG0im2tim5yc</v>
+      </c>
+      <c r="D26" t="str">
+        <v>indicatorg7VgqZOOhqJ</v>
+      </c>
+      <c r="E26" t="str">
+        <v>indicatorxy2RvpRaSNI</v>
+      </c>
+      <c r="F26" t="str">
+        <v>indicatorDfddSHzCXM7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v/>
+      </c>
+      <c r="B27" t="str">
+        <v>Kỹ thuật viên Y đại học và sau đại hoc</v>
+      </c>
+      <c r="C27" t="str">
+        <v>totalrLgjaXA3Uff</v>
+      </c>
+      <c r="D27" t="str">
+        <v>rLgjaXA3Uff-iIcV5MepJ9Q-val</v>
+      </c>
+      <c r="E27" t="str">
+        <v>rLgjaXA3Uff-teIQx8w7HTL-val</v>
+      </c>
+      <c r="F27" t="str">
+        <v>QYr26gHIQ31-HllvX50cXC0-val</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v/>
+      </c>
+      <c r="B28" t="str">
+        <v>Kỹ thuật viên Y cao đăng và trung học</v>
+      </c>
+      <c r="C28" t="str">
+        <v>totalABfITYHavJD</v>
+      </c>
+      <c r="D28" t="str">
+        <v>ABfITYHavJD-iIcV5MepJ9Q-val</v>
+      </c>
+      <c r="E28" t="str">
+        <v>ABfITYHavJD-teIQx8w7HTL-val</v>
+      </c>
+      <c r="F28" t="str">
+        <v>B2nlQYrtLjh-HllvX50cXC0-val</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>g</v>
+      </c>
+      <c r="B29" t="str">
+        <v>Y sĩ</v>
+      </c>
+      <c r="C29" t="str">
+        <v>totalcHw7Lwrjrnk</v>
+      </c>
+      <c r="D29" t="str">
+        <v>cHw7Lwrjrnk-iIcV5MepJ9Q-val</v>
+      </c>
+      <c r="E29" t="str">
+        <v>cHw7Lwrjrnk-teIQx8w7HTL-val</v>
+      </c>
+      <c r="F29" t="str">
+        <v>EtmX4rqNSeT-HllvX50cXC0-val</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>h</v>
+      </c>
+      <c r="B30" t="str">
+        <v>Hộ sinh</v>
+      </c>
+      <c r="C30" t="str">
+        <v>indicatore7pNhHY7SZ1</v>
+      </c>
+      <c r="D30" t="str">
+        <v>indicatorVc7W3wUYZIZ</v>
+      </c>
+      <c r="E30" t="str">
+        <v>indicatorppSMQOGgGUP</v>
+      </c>
+      <c r="F30" t="str">
+        <v>indicatorGDIeZMMat6e</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v/>
+      </c>
+      <c r="B31" t="str">
+        <v>Hộ sinh đại học và sau đại hoc</v>
+      </c>
+      <c r="C31" t="str">
+        <v>totalG0Fnc9br5ja</v>
+      </c>
+      <c r="D31" t="str">
+        <v>G0Fnc9br5ja-iIcV5MepJ9Q-val</v>
+      </c>
+      <c r="E31" t="str">
+        <v>G0Fnc9br5ja-teIQx8w7HTL-val</v>
+      </c>
+      <c r="F31" t="str">
+        <v>sqCPmRRkP8K-HllvX50cXC0-val</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v/>
+      </c>
+      <c r="B32" t="str">
+        <v>Hộ sinh cao đẳng và trung học</v>
+      </c>
+      <c r="C32" t="str">
+        <v>totalyfWvowD70t4</v>
+      </c>
+      <c r="D32" t="str">
+        <v>yfWvowD70t4-iIcV5MepJ9Q-val</v>
+      </c>
+      <c r="E32" t="str">
+        <v>yfWvowD70t4-teIQx8w7HTL-val</v>
+      </c>
+      <c r="F32" t="str">
+        <v>rBOaVV8x2QY-HllvX50cXC0-val</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>i</v>
+      </c>
+      <c r="B33" t="str">
+        <v>Chuyên ngành y khác</v>
+      </c>
+      <c r="C33" t="str">
+        <v>totalXofd8KskzVY</v>
+      </c>
+      <c r="D33" t="str">
+        <v>Xofd8KskzVY-iIcV5MepJ9Q-val</v>
+      </c>
+      <c r="E33" t="str">
+        <v>Xofd8KskzVY-teIQx8w7HTL-val</v>
+      </c>
+      <c r="F33" t="str">
+        <v>w05zk0nlhUA-HllvX50cXC0-val</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>1.2</v>
+      </c>
+      <c r="B34" t="str">
+        <v>Chuyên ngành Dược (=a+b+c+d)</v>
+      </c>
+      <c r="C34" t="str">
+        <v>totalucnEvdsjIKz</v>
+      </c>
+      <c r="D34" t="str">
+        <v>indicatorZCHiCoXlm0I</v>
+      </c>
+      <c r="E34" t="str">
+        <v>indicatoruTjVnRs3aow</v>
+      </c>
+      <c r="F34" t="str">
+        <v>indicatorRW6Bay5k4UZ</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>a</v>
+      </c>
+      <c r="B35" t="str">
+        <v>Dược sĩ sau đại học</v>
+      </c>
+      <c r="C35" t="str">
+        <v>indicatorSt8e9t0t6pU</v>
+      </c>
+      <c r="D35" t="str">
+        <v>ucnEvdsjIKz-Ap3iq3sQ0al-val</v>
+      </c>
+      <c r="E35" t="str">
+        <v>ucnEvdsjIKz-CC93lD6n6Xv-val</v>
+      </c>
+      <c r="F35" t="str">
+        <v>jnzVPZ6p3sJ-HllvX50cXC0-val</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>b</v>
+      </c>
+      <c r="B36" t="str">
+        <v>Dược sĩ đại học</v>
+      </c>
+      <c r="C36" t="str">
+        <v>indicatorTwFpsNCeh2z</v>
+      </c>
+      <c r="D36" t="str">
+        <v>ucnEvdsjIKz-Dn3Ttb4FPS9-val</v>
+      </c>
+      <c r="E36" t="str">
+        <v>ucnEvdsjIKz-PzmtQiD5D2k-val</v>
+      </c>
+      <c r="F36" t="str">
+        <v>xkTdCN3MwA0-HllvX50cXC0-val</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>c</v>
+      </c>
+      <c r="B37" t="str">
+        <v>Dược sĩ (cao đẳng + trung cấp)</v>
+      </c>
+      <c r="C37" t="str">
+        <v>indicatoroW2ZeRUJ8ud</v>
+      </c>
+      <c r="D37" t="str">
+        <v>ucnEvdsjIKz-zA6yWqm61QG-val</v>
+      </c>
+      <c r="E37" t="str">
+        <v>ucnEvdsjIKz-Qo5JzNyWgNd-val</v>
+      </c>
+      <c r="F37" t="str">
+        <v>GWvYBoxxCp9-HllvX50cXC0-val</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>d</v>
+      </c>
+      <c r="B38" t="str">
+        <v>Trình độ dược khác</v>
+      </c>
+      <c r="C38" t="str">
+        <v>indicatorM1TYAxrRh3f</v>
+      </c>
+      <c r="D38" t="str">
+        <v>ucnEvdsjIKz-S0plUPceKBh-val</v>
+      </c>
+      <c r="E38" t="str">
+        <v>ucnEvdsjIKz-cEVYtqSIFy6-val</v>
+      </c>
+      <c r="F38" t="str">
+        <v>EJDm15ToPxs-HllvX50cXC0-val</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>2</v>
+      </c>
+      <c r="B39" t="str">
+        <v>Chia theo trình độ chuyên môn</v>
+      </c>
+      <c r="C39" t="str">
+        <v>totalWauGDnrxzOG</v>
+      </c>
+      <c r="D39" t="str">
+        <v>indicatorlw6dycA7xTC</v>
+      </c>
+      <c r="E39" t="str">
+        <v>indicatorxuUKebl90O3</v>
+      </c>
+      <c r="F39" t="str">
+        <v>indicatorYky9Innzsfm</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v/>
+      </c>
+      <c r="B40" t="str">
+        <v>Tiến sĩ</v>
+      </c>
+      <c r="C40" t="str">
+        <v>indicatorSSQu17wC2ZO</v>
+      </c>
+      <c r="D40" t="str">
+        <v>WauGDnrxzOG-ZYP1fifDUhS-val</v>
+      </c>
+      <c r="E40" t="str">
+        <v>WauGDnrxzOG-bmX1bS9Gzg7-val</v>
+      </c>
+      <c r="F40" t="str">
+        <v>lE8ppEOF1jG-HllvX50cXC0-val</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v/>
+      </c>
+      <c r="B41" t="str">
+        <v>Chuyên khoa II</v>
+      </c>
+      <c r="C41" t="str">
+        <v>indicatortGvaWBoB1mj</v>
+      </c>
+      <c r="D41" t="str">
+        <v>WauGDnrxzOG-lzrlUgTPxx9-val</v>
+      </c>
+      <c r="E41" t="str">
+        <v>WauGDnrxzOG-kvCrmtcbZyp-val</v>
+      </c>
+      <c r="F41" t="str">
+        <v>h5o5MreVVko-HllvX50cXC0-val</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v/>
+      </c>
+      <c r="B42" t="str">
+        <v>Thạc sĩ</v>
+      </c>
+      <c r="C42" t="str">
+        <v>indicatorwdDWQBN7Ppu</v>
+      </c>
+      <c r="D42" t="str">
+        <v>WauGDnrxzOG-dMuW7flUllt-val</v>
+      </c>
+      <c r="E42" t="str">
+        <v>WauGDnrxzOG-MRxj8WSZKuG-val</v>
+      </c>
+      <c r="F42" t="str">
+        <v>Jqmed7Zu780-HllvX50cXC0-val</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v/>
+      </c>
+      <c r="B43" t="str">
+        <v>Chuyên khoa I</v>
+      </c>
+      <c r="C43" t="str">
+        <v>indicatorh8HXtgEsMRO</v>
+      </c>
+      <c r="D43" t="str">
+        <v>WauGDnrxzOG-W49gGuoCout-val</v>
+      </c>
+      <c r="E43" t="str">
+        <v>WauGDnrxzOG-QBKhSUg612w-val</v>
+      </c>
+      <c r="F43" t="str">
+        <v>dToHCvQneq1-HllvX50cXC0-val</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v/>
+      </c>
+      <c r="B44" t="str">
+        <v>Đại học</v>
+      </c>
+      <c r="C44" t="str">
+        <v>indicatorvgSU08yYMmC</v>
+      </c>
+      <c r="D44" t="str">
+        <v>WauGDnrxzOG-ql5pbgW9cX4-val</v>
+      </c>
+      <c r="E44" t="str">
+        <v>WauGDnrxzOG-J5DUoUm1kQb-val</v>
+      </c>
+      <c r="F44" t="str">
+        <v>qNUyZsH2uqn-HllvX50cXC0-val</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v/>
+      </c>
+      <c r="B45" t="str">
+        <v>Cao đẳng</v>
+      </c>
+      <c r="C45" t="str">
+        <v>indicatorS30iEyyYH26</v>
+      </c>
+      <c r="D45" t="str">
+        <v>WauGDnrxzOG-VbiPXWbI7Wp-val</v>
+      </c>
+      <c r="E45" t="str">
+        <v>WauGDnrxzOG-YWsZXMdm4RB-val</v>
+      </c>
+      <c r="F45" t="str">
+        <v>VhPloHmdsFn-HllvX50cXC0-val</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v/>
+      </c>
+      <c r="B46" t="str">
+        <v>Trung cấp</v>
+      </c>
+      <c r="C46" t="str">
+        <v>indicatorXKKFPFdRfOu</v>
+      </c>
+      <c r="D46" t="str">
+        <v>WauGDnrxzOG-ixVT7ZpBMzZ-val</v>
+      </c>
+      <c r="E46" t="str">
+        <v>WauGDnrxzOG-Ma71OFmKL9J-val</v>
+      </c>
+      <c r="F46" t="str">
+        <v>X30IxhCnkZb-HllvX50cXC0-val</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v/>
+      </c>
+      <c r="B47" t="str">
+        <v>Khác</v>
+      </c>
+      <c r="C47" t="str">
+        <v>indicatorEZs1duf385z</v>
+      </c>
+      <c r="D47" t="str">
+        <v>WauGDnrxzOG-TdorX0ApKk4-val</v>
+      </c>
+      <c r="E47" t="str">
+        <v>WauGDnrxzOG-ci6yc1qd6xB-val</v>
+      </c>
+      <c r="F47" t="str">
+        <v>FNkxBGpotXK-HllvX50cXC0-val</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:F47"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F72"/>

--- a/table.xlsx
+++ b/table.xlsx
@@ -3,7 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="f7014fmLbUl" sheetId="1" r:id="rId1"/>
+    <sheet name="dyDM30g8Pna" sheetId="1" r:id="rId1"/>
+    <sheet name="GY79aDzNnMZ" sheetId="2" r:id="rId2"/>
   </sheets>
 </workbook>
 </file>
@@ -375,15 +376,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V17"/>
+  <dimension ref="A1:T27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
-    <row r="1" xml:space="preserve">
-      <c r="A1" t="str" xml:space="preserve">
-        <v xml:space="preserve">TÌNH HÌNH DINH DƯỠNG Ở TRẺ EM DƯỚI 5 TUỔI VÀ THỪA CÂN BÉO PHÌ, THỪA CÂN BÉO PHÌ VÀ CHIỀU CAO TRUNG BÌNH Ở NGƯỜI TRƯỞNG THÀNH
-			Báo cáo năm</v>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>Biểu số 2/BCH - BÁO CÁO NHÂN LỰC THEO CHUYÊN MÔN</v>
       </c>
     </row>
     <row r="2">
@@ -391,51 +391,36 @@
         <v>TT</v>
       </c>
       <c r="B2" t="str">
-        <v>Điều kiện/ Phân loại</v>
+        <v>Trình độ chuyên môn</v>
       </c>
       <c r="C2" t="str">
-        <v>Dinh dưỡng trẻ em dưới 5 tuổi</v>
+        <v>Số lượng</v>
       </c>
       <c r="D2" t="str">
-        <v>Tổng số trẻ 6-59 tháng tuổi bị SDD cấp tính nặng</v>
-      </c>
-      <c r="E2" t="str">
-        <v>Số trẻ 6-59 tháng tuổi bị SDD cấp tính nặng được điều trị theo phác đồ điều trị của BYT</v>
-      </c>
-      <c r="F2" t="str">
-        <v>Tổng số người trưởng thành (từ 18 tuổi trở lên) được cân</v>
-      </c>
-      <c r="G2" t="str">
-        <v>Số người trưởng thành (từ 18 tuổi trở lên) bị thừa cân, béo phì</v>
-      </c>
-      <c r="H2" t="str">
-        <v>Chiều cao trung bình của người trưởng thành Việt Nam (từ 18 tuổi trở lên)</v>
+        <v>Trong đó</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Số trẻ điều tra</v>
+        <v>Tiến sĩ</v>
       </c>
       <c r="B3" t="str">
-        <v>SDD cân/tuổi</v>
+        <v>CKII</v>
       </c>
       <c r="C3" t="str">
-        <v>SDD cao/tuổi</v>
+        <v>Thạc sĩ</v>
       </c>
       <c r="D3" t="str">
-        <v>Số trẻ được cân đo</v>
+        <v>CKI</v>
       </c>
       <c r="E3" t="str">
-        <v>Số trẻ bị SDD cân/cao-WHz&lt;-3</v>
+        <v>Đại học</v>
       </c>
       <c r="F3" t="str">
-        <v>Số trẻ bị SDD cân/cao-WHz&lt;-2</v>
+        <v>Cao đẳng</v>
       </c>
       <c r="G3" t="str">
-        <v>Số trẻ bị thừa cân -WHz&gt;+2</v>
-      </c>
-      <c r="H3" t="str">
-        <v>Số trẻ bị béo phì - WHz&gt;+3</v>
+        <v>Trung cấp</v>
       </c>
     </row>
     <row r="5">
@@ -443,525 +428,480 @@
         <v>1</v>
       </c>
       <c r="B5" t="str">
-        <v>Tổng số</v>
+        <v>2</v>
       </c>
       <c r="C5" t="str">
-        <v>VQzeHF0IWMW-HllvX50cXC0-val</v>
+        <v>3</v>
       </c>
       <c r="D5" t="str">
-        <v>D2HyryY89MP-HllvX50cXC0-val</v>
+        <v>4</v>
       </c>
       <c r="E5" t="str">
-        <v>xZIRzug1j8V-HllvX50cXC0-val</v>
+        <v>5</v>
       </c>
       <c r="F5" t="str">
-        <v>PrYXgaEC9X0-HllvX50cXC0-val</v>
+        <v>6</v>
       </c>
       <c r="G5" t="str">
-        <v>UmdHKU3aeES-HllvX50cXC0-val</v>
+        <v>7</v>
       </c>
       <c r="H5" t="str">
-        <v>vuHtXR6VIp3-HllvX50cXC0-val</v>
+        <v>8</v>
       </c>
       <c r="I5" t="str">
-        <v>FWQWqmlbhpc-HllvX50cXC0-val</v>
+        <v>9</v>
       </c>
       <c r="J5" t="str">
-        <v>EfOeCTGPyKm-HllvX50cXC0-val</v>
+        <v>10</v>
       </c>
       <c r="K5" t="str">
-        <v>edLH9AsKa4z-HllvX50cXC0-val</v>
+        <v>11</v>
       </c>
       <c r="L5" t="str">
-        <v>JKjxQoi8IyX-HllvX50cXC0-val</v>
+        <v>12</v>
       </c>
       <c r="M5" t="str">
-        <v>Ot1lulGuRRl-HllvX50cXC0-val</v>
+        <v>13</v>
       </c>
       <c r="N5" t="str">
-        <v>p4pXjf8TqDm-HllvX50cXC0-val</v>
+        <v>14</v>
       </c>
       <c r="O5" t="str">
-        <v>ymQVFPyoOS7-HllvX50cXC0-val</v>
+        <v>15</v>
       </c>
       <c r="P5" t="str">
-        <v>pXaC5hDq3Il-HllvX50cXC0-val</v>
+        <v>16</v>
       </c>
       <c r="Q5" t="str">
-        <v>EJuNoVonfm4-HllvX50cXC0-val</v>
+        <v>17</v>
       </c>
       <c r="R5" t="str">
-        <v>us7RMlxD8Rg-HllvX50cXC0-val</v>
+        <v>18</v>
       </c>
       <c r="S5" t="str">
-        <v>EQDAyTKZcoF-HllvX50cXC0-val</v>
+        <v>19</v>
       </c>
       <c r="T5" t="str">
-        <v>YZWZz86VQCg-HllvX50cXC0-val</v>
-      </c>
-      <c r="U5" t="str">
-        <v>Ypiswx0vAD6-HllvX50cXC0-val</v>
-      </c>
-      <c r="V5" t="str">
-        <v>uhyxIqkfmlW-HllvX50cXC0-val</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="str">
-        <v>Thành thị</v>
+        <v>Bác sĩ (tất cả các chuyên ngành)</v>
       </c>
       <c r="C6" t="str">
-        <v>KQkj6n6UOzp-eDCnw2mdz6i-val</v>
+        <v>totalYD9NYYpTEFV</v>
       </c>
       <c r="D6" t="str">
-        <v>Rk9UkQXbm2X-eDCnw2mdz6i-val</v>
+        <v>indicatorge4nqMQhKex</v>
       </c>
       <c r="E6" t="str">
-        <v>yd3QsvNwnnL-eDCnw2mdz6i-val</v>
+        <v>indicatorYN2BeNa5sKL</v>
       </c>
       <c r="F6" t="str">
-        <v>btsMJ5ZklS2-eDCnw2mdz6i-val</v>
+        <v>jF1NWA8L0sE-HllvX50cXC0-val</v>
       </c>
       <c r="G6" t="str">
-        <v>SM5C5KVnAFD-eDCnw2mdz6i-val</v>
+        <v>YD9NYYpTEFV-cHdKrY4isFn-val</v>
       </c>
       <c r="H6" t="str">
-        <v>jlwN6ziE4d7-eDCnw2mdz6i-val</v>
+        <v>YD9NYYpTEFV-LhYs1Hkx7Tm-val</v>
       </c>
       <c r="I6" t="str">
-        <v>Pglpl78Mi7e-eDCnw2mdz6i-val</v>
+        <v>YD9NYYpTEFV-j6NSiwlSxIi-val</v>
       </c>
       <c r="J6" t="str">
-        <v>iHSgVWJtbgZ-eDCnw2mdz6i-val</v>
+        <v>YD9NYYpTEFV-fcK57lSPGQh-val</v>
       </c>
       <c r="K6" t="str">
-        <v>C2w0WPL3mdd-eDCnw2mdz6i-val</v>
+        <v>YD9NYYpTEFV-NZUP4w4nyDz-val</v>
       </c>
       <c r="L6" t="str">
-        <v>gquthAnTw1V-eDCnw2mdz6i-val</v>
+        <v>YD9NYYpTEFV-FQXGzVORZ6b-val</v>
       </c>
       <c r="M6" t="str">
-        <v>a5zB90Xq64r-eDCnw2mdz6i-val</v>
+        <v>YD9NYYpTEFV-qQzdzVPRE1Y-val</v>
       </c>
       <c r="N6" t="str">
-        <v>WZymNKvXkNw-eDCnw2mdz6i-val</v>
+        <v>YD9NYYpTEFV-W7IfepZkWXX-val</v>
       </c>
       <c r="O6" t="str">
-        <v>hPiJBolGD9y-eDCnw2mdz6i-val</v>
+        <v>YD9NYYpTEFV-oCXdoKkpm6w-val</v>
       </c>
       <c r="P6" t="str">
-        <v>KhC2ImfaKSE-eDCnw2mdz6i-val</v>
+        <v>YD9NYYpTEFV-ZVWv8Byjx4a-val</v>
       </c>
       <c r="Q6" t="str">
-        <v>OuRvEbYAol5-eDCnw2mdz6i-val</v>
+        <v/>
       </c>
       <c r="R6" t="str">
-        <v>tSbpBrBvT9L-eDCnw2mdz6i-val</v>
+        <v/>
       </c>
       <c r="S6" t="str">
-        <v>eB3UhBRBz9a-eDCnw2mdz6i-val</v>
+        <v/>
       </c>
       <c r="T6" t="str">
-        <v>QguUlEthDF3-eDCnw2mdz6i-val</v>
-      </c>
-      <c r="U6" t="str">
-        <v>xseh9g7dgjv-eDCnw2mdz6i-val</v>
-      </c>
-      <c r="V6" t="str">
-        <v>yQkV4C0Fcdm-eDCnw2mdz6i-val</v>
+        <v/>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>3</v>
+        <v/>
       </c>
       <c r="B7" t="str">
-        <v>Nông thôn</v>
+        <v>Trong đó:</v>
       </c>
       <c r="C7" t="str">
-        <v>KQkj6n6UOzp-enDbpTHJHh5-val</v>
+        <v/>
       </c>
       <c r="D7" t="str">
-        <v>Rk9UkQXbm2X-enDbpTHJHh5-val</v>
+        <v/>
       </c>
       <c r="E7" t="str">
-        <v>yd3QsvNwnnL-enDbpTHJHh5-val</v>
+        <v/>
       </c>
       <c r="F7" t="str">
-        <v>btsMJ5ZklS2-enDbpTHJHh5-val</v>
+        <v/>
       </c>
       <c r="G7" t="str">
-        <v>SM5C5KVnAFD-enDbpTHJHh5-val</v>
+        <v/>
       </c>
       <c r="H7" t="str">
-        <v>jlwN6ziE4d7-enDbpTHJHh5-val</v>
+        <v/>
       </c>
       <c r="I7" t="str">
-        <v>Pglpl78Mi7e-enDbpTHJHh5-val</v>
+        <v/>
       </c>
       <c r="J7" t="str">
-        <v>iHSgVWJtbgZ-enDbpTHJHh5-val</v>
+        <v/>
       </c>
       <c r="K7" t="str">
-        <v>C2w0WPL3mdd-enDbpTHJHh5-val</v>
+        <v/>
       </c>
       <c r="L7" t="str">
-        <v>gquthAnTw1V-enDbpTHJHh5-val</v>
+        <v/>
       </c>
       <c r="M7" t="str">
-        <v>a5zB90Xq64r-enDbpTHJHh5-val</v>
+        <v/>
       </c>
       <c r="N7" t="str">
-        <v>WZymNKvXkNw-enDbpTHJHh5-val</v>
+        <v/>
       </c>
       <c r="O7" t="str">
-        <v>hPiJBolGD9y-enDbpTHJHh5-val</v>
+        <v/>
       </c>
       <c r="P7" t="str">
-        <v>KhC2ImfaKSE-enDbpTHJHh5-val</v>
+        <v/>
       </c>
       <c r="Q7" t="str">
-        <v>OuRvEbYAol5-enDbpTHJHh5-val</v>
+        <v/>
       </c>
       <c r="R7" t="str">
-        <v>tSbpBrBvT9L-enDbpTHJHh5-val</v>
+        <v/>
       </c>
       <c r="S7" t="str">
-        <v>eB3UhBRBz9a-enDbpTHJHh5-val</v>
-      </c>
-      <c r="T7" t="str">
-        <v>QguUlEthDF3-enDbpTHJHh5-val</v>
-      </c>
-      <c r="U7" t="str">
-        <v>xseh9g7dgjv-enDbpTHJHh5-val</v>
-      </c>
-      <c r="V7" t="str">
-        <v>yQkV4C0Fcdm-enDbpTHJHh5-val</v>
+        <v/>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>4</v>
+        <v>-</v>
       </c>
       <c r="B8" t="str">
-        <v>Kinh</v>
+        <v>Bác sĩ tâm thần</v>
       </c>
       <c r="C8" t="str">
-        <v>ZfNk5Y1dOkl-jQi9Zigtmcc-val</v>
+        <v>totalkqDRXtCFV4S</v>
       </c>
       <c r="D8" t="str">
-        <v>GaSEESbh2dT-jQi9Zigtmcc-val</v>
+        <v>indicatorg7Ngg42ps5x</v>
       </c>
       <c r="E8" t="str">
-        <v>lxFGZlX35F3-jQi9Zigtmcc-val</v>
+        <v>indicatorPqdzRfgio9f</v>
       </c>
       <c r="F8" t="str">
-        <v>THEeVN3LDtO-jQi9Zigtmcc-val</v>
+        <v>MZAGa29CMIj-HllvX50cXC0-val</v>
       </c>
       <c r="G8" t="str">
-        <v>rrbtBpJJF58-jQi9Zigtmcc-val</v>
+        <v>kqDRXtCFV4S-cHdKrY4isFn-val</v>
       </c>
       <c r="H8" t="str">
-        <v>fe0HYiLQY7u-jQi9Zigtmcc-val</v>
+        <v>kqDRXtCFV4S-LhYs1Hkx7Tm-val</v>
       </c>
       <c r="I8" t="str">
-        <v>OUFDcHpsKO4-jQi9Zigtmcc-val</v>
+        <v>kqDRXtCFV4S-j6NSiwlSxIi-val</v>
       </c>
       <c r="J8" t="str">
-        <v>sZhWhRQE9Y4-jQi9Zigtmcc-val</v>
+        <v>kqDRXtCFV4S-fcK57lSPGQh-val</v>
       </c>
       <c r="K8" t="str">
-        <v>gmh4DIqGRaw-jQi9Zigtmcc-val</v>
+        <v>kqDRXtCFV4S-NZUP4w4nyDz-val</v>
       </c>
       <c r="L8" t="str">
-        <v>M3VyD8ucAlQ-jQi9Zigtmcc-val</v>
+        <v>kqDRXtCFV4S-FQXGzVORZ6b-val</v>
       </c>
       <c r="M8" t="str">
-        <v>ecJ3wwQengv-jQi9Zigtmcc-val</v>
+        <v>kqDRXtCFV4S-qQzdzVPRE1Y-val</v>
       </c>
       <c r="N8" t="str">
-        <v>ua4RXVfeMhx-jQi9Zigtmcc-val</v>
+        <v>kqDRXtCFV4S-W7IfepZkWXX-val</v>
       </c>
       <c r="O8" t="str">
-        <v>PYSau2TfNw5-jQi9Zigtmcc-val</v>
+        <v>kqDRXtCFV4S-oCXdoKkpm6w-val</v>
       </c>
       <c r="P8" t="str">
-        <v>D3bwrcrPe1u-jQi9Zigtmcc-val</v>
+        <v>kqDRXtCFV4S-ZVWv8Byjx4a-val</v>
       </c>
       <c r="Q8" t="str">
-        <v>IBcRmKNIuA6-jQi9Zigtmcc-val</v>
+        <v/>
       </c>
       <c r="R8" t="str">
-        <v>xx44rqzS8ac-jQi9Zigtmcc-val</v>
+        <v/>
       </c>
       <c r="S8" t="str">
-        <v>QinpSYzPo2e-jQi9Zigtmcc-val</v>
+        <v/>
       </c>
       <c r="T8" t="str">
-        <v>HMKOkurWU9L-jQi9Zigtmcc-val</v>
-      </c>
-      <c r="U8" t="str">
-        <v>N1Sw4F5ySrm-jQi9Zigtmcc-val</v>
-      </c>
-      <c r="V8" t="str">
-        <v>NBPiEkCUmwh-jQi9Zigtmcc-val</v>
+        <v/>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>5</v>
+        <v>-</v>
       </c>
       <c r="B9" t="str">
-        <v>Dân tộc thiểu số</v>
+        <v>Bác sĩ tâm lý lâm sàng</v>
       </c>
       <c r="C9" t="str">
-        <v>ZfNk5Y1dOkl-HjQJgIlO2fS-val</v>
+        <v>totalz2tLKKD9O40</v>
       </c>
       <c r="D9" t="str">
-        <v>GaSEESbh2dT-HjQJgIlO2fS-val</v>
+        <v>indicatori3KKcYHvCdT</v>
       </c>
       <c r="E9" t="str">
-        <v>lxFGZlX35F3-HjQJgIlO2fS-val</v>
+        <v>indicatorhCYRLjYBIOb</v>
       </c>
       <c r="F9" t="str">
-        <v>THEeVN3LDtO-HjQJgIlO2fS-val</v>
+        <v>aiRnVq6ctIB-HllvX50cXC0-val</v>
       </c>
       <c r="G9" t="str">
-        <v>rrbtBpJJF58-HjQJgIlO2fS-val</v>
+        <v>z2tLKKD9O40-cHdKrY4isFn-val</v>
       </c>
       <c r="H9" t="str">
-        <v>fe0HYiLQY7u-HjQJgIlO2fS-val</v>
+        <v>z2tLKKD9O40-LhYs1Hkx7Tm-val</v>
       </c>
       <c r="I9" t="str">
-        <v>OUFDcHpsKO4-HjQJgIlO2fS-val</v>
+        <v>z2tLKKD9O40-j6NSiwlSxIi-val</v>
       </c>
       <c r="J9" t="str">
-        <v>sZhWhRQE9Y4-HjQJgIlO2fS-val</v>
+        <v>z2tLKKD9O40-fcK57lSPGQh-val</v>
       </c>
       <c r="K9" t="str">
-        <v>gmh4DIqGRaw-HjQJgIlO2fS-val</v>
+        <v>z2tLKKD9O40-NZUP4w4nyDz-val</v>
       </c>
       <c r="L9" t="str">
-        <v>M3VyD8ucAlQ-HjQJgIlO2fS-val</v>
+        <v>z2tLKKD9O40-FQXGzVORZ6b-val</v>
       </c>
       <c r="M9" t="str">
-        <v>ecJ3wwQengv-HjQJgIlO2fS-val</v>
+        <v>z2tLKKD9O40-qQzdzVPRE1Y-val</v>
       </c>
       <c r="N9" t="str">
-        <v>ua4RXVfeMhx-HjQJgIlO2fS-val</v>
+        <v>z2tLKKD9O40-W7IfepZkWXX-val</v>
       </c>
       <c r="O9" t="str">
-        <v>PYSau2TfNw5-HjQJgIlO2fS-val</v>
+        <v>z2tLKKD9O40-oCXdoKkpm6w-val</v>
       </c>
       <c r="P9" t="str">
-        <v>D3bwrcrPe1u-HjQJgIlO2fS-val</v>
+        <v>z2tLKKD9O40-ZVWv8Byjx4a-val</v>
       </c>
       <c r="Q9" t="str">
-        <v>IBcRmKNIuA6-HjQJgIlO2fS-val</v>
+        <v/>
       </c>
       <c r="R9" t="str">
-        <v>xx44rqzS8ac-HjQJgIlO2fS-val</v>
+        <v/>
       </c>
       <c r="S9" t="str">
-        <v>QinpSYzPo2e-HjQJgIlO2fS-val</v>
+        <v/>
       </c>
       <c r="T9" t="str">
-        <v>HMKOkurWU9L-HjQJgIlO2fS-val</v>
-      </c>
-      <c r="U9" t="str">
-        <v>N1Sw4F5ySrm-HjQJgIlO2fS-val</v>
-      </c>
-      <c r="V9" t="str">
-        <v>NBPiEkCUmwh-HjQJgIlO2fS-val</v>
+        <v/>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>6</v>
+        <v>-</v>
       </c>
       <c r="B10" t="str">
-        <v>Giới tính: Nam</v>
+        <v>Bác sĩ y học cổ truyền</v>
       </c>
       <c r="C10" t="str">
-        <v>YzZe2vdwiHn-NZTXFyz6GLm-val</v>
+        <v>totalcjoW2OBXLDj</v>
       </c>
       <c r="D10" t="str">
-        <v>NOgZHmunMS0-NZTXFyz6GLm-val</v>
+        <v>indicatornkJciKZb3Bx</v>
       </c>
       <c r="E10" t="str">
-        <v>ATJwvtgqtSC-NZTXFyz6GLm-val</v>
+        <v>indicatorttAMTWZOycv</v>
       </c>
       <c r="F10" t="str">
-        <v>HlQyXUuo3bP-NZTXFyz6GLm-val</v>
+        <v>IClc87LbTJL-HllvX50cXC0-val</v>
       </c>
       <c r="G10" t="str">
-        <v>QkWRTQLDkxP-NZTXFyz6GLm-val</v>
+        <v>cjoW2OBXLDj-cHdKrY4isFn-val</v>
       </c>
       <c r="H10" t="str">
-        <v>kQhbvGC918j-NZTXFyz6GLm-val</v>
+        <v>cjoW2OBXLDj-LhYs1Hkx7Tm-val</v>
       </c>
       <c r="I10" t="str">
-        <v>Nj6K9bAaEIJ-NZTXFyz6GLm-val</v>
+        <v>cjoW2OBXLDj-j6NSiwlSxIi-val</v>
       </c>
       <c r="J10" t="str">
-        <v>ZPo5rU1l92f-NZTXFyz6GLm-val</v>
+        <v>cjoW2OBXLDj-fcK57lSPGQh-val</v>
       </c>
       <c r="K10" t="str">
-        <v>SOWMv9mSW2c-NZTXFyz6GLm-val</v>
+        <v>cjoW2OBXLDj-NZUP4w4nyDz-val</v>
       </c>
       <c r="L10" t="str">
-        <v>tnSosAusjPV-NZTXFyz6GLm-val</v>
+        <v>cjoW2OBXLDj-FQXGzVORZ6b-val</v>
       </c>
       <c r="M10" t="str">
-        <v>UFusL6IaMnY-NZTXFyz6GLm-val</v>
+        <v>cjoW2OBXLDj-qQzdzVPRE1Y-val</v>
       </c>
       <c r="N10" t="str">
-        <v>IuglSbXu96s-NZTXFyz6GLm-val</v>
+        <v>cjoW2OBXLDj-W7IfepZkWXX-val</v>
       </c>
       <c r="O10" t="str">
-        <v>tnyPA4dxHma-NZTXFyz6GLm-val</v>
+        <v>cjoW2OBXLDj-oCXdoKkpm6w-val</v>
       </c>
       <c r="P10" t="str">
-        <v>UhlR7TYZW4x-NZTXFyz6GLm-val</v>
+        <v>cjoW2OBXLDj-ZVWv8Byjx4a-val</v>
       </c>
       <c r="Q10" t="str">
-        <v>cvUQrs6KC7m-NZTXFyz6GLm-val</v>
+        <v/>
       </c>
       <c r="R10" t="str">
-        <v>QaseiDIdfoj-NZTXFyz6GLm-val</v>
+        <v/>
       </c>
       <c r="S10" t="str">
-        <v>JBQS2HgGLIf-NZTXFyz6GLm-val</v>
+        <v/>
       </c>
       <c r="T10" t="str">
-        <v>Sv18KBjhWu5-NZTXFyz6GLm-val</v>
-      </c>
-      <c r="U10" t="str">
-        <v>Su7s4NICOqz-NZTXFyz6GLm-val</v>
-      </c>
-      <c r="V10" t="str">
-        <v>gLrQCYV3ZQg-NZTXFyz6GLm-val</v>
+        <v/>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>7</v>
+        <v>-</v>
       </c>
       <c r="B11" t="str">
-        <v>Nữ</v>
+        <v>Bác sĩ răng hàm mặt</v>
       </c>
       <c r="C11" t="str">
-        <v>YzZe2vdwiHn-GvoEANq375m-val</v>
+        <v>totalp9GO3747RX3</v>
       </c>
       <c r="D11" t="str">
-        <v>NOgZHmunMS0-GvoEANq375m-val</v>
+        <v>indicatorVIAvaLRbBdj</v>
       </c>
       <c r="E11" t="str">
-        <v>ATJwvtgqtSC-GvoEANq375m-val</v>
+        <v>indicatorRMLGeiSBMc9</v>
       </c>
       <c r="F11" t="str">
-        <v>HlQyXUuo3bP-GvoEANq375m-val</v>
+        <v>H2tvKnTrxY8-HllvX50cXC0-val</v>
       </c>
       <c r="G11" t="str">
-        <v>QkWRTQLDkxP-GvoEANq375m-val</v>
+        <v>p9GO3747RX3-cHdKrY4isFn-val</v>
       </c>
       <c r="H11" t="str">
-        <v>kQhbvGC918j-GvoEANq375m-val</v>
+        <v>p9GO3747RX3-LhYs1Hkx7Tm-val</v>
       </c>
       <c r="I11" t="str">
-        <v>Nj6K9bAaEIJ-GvoEANq375m-val</v>
+        <v>p9GO3747RX3-j6NSiwlSxIi-val</v>
       </c>
       <c r="J11" t="str">
-        <v>ZPo5rU1l92f-GvoEANq375m-val</v>
+        <v>p9GO3747RX3-fcK57lSPGQh-val</v>
       </c>
       <c r="K11" t="str">
-        <v>SOWMv9mSW2c-GvoEANq375m-val</v>
+        <v>p9GO3747RX3-NZUP4w4nyDz-val</v>
       </c>
       <c r="L11" t="str">
-        <v>tnSosAusjPV-GvoEANq375m-val</v>
+        <v>p9GO3747RX3-FQXGzVORZ6b-val</v>
       </c>
       <c r="M11" t="str">
-        <v>UFusL6IaMnY-GvoEANq375m-val</v>
+        <v>p9GO3747RX3-qQzdzVPRE1Y-val</v>
       </c>
       <c r="N11" t="str">
-        <v>IuglSbXu96s-GvoEANq375m-val</v>
+        <v>p9GO3747RX3-W7IfepZkWXX-val</v>
       </c>
       <c r="O11" t="str">
-        <v>tnyPA4dxHma-GvoEANq375m-val</v>
+        <v>p9GO3747RX3-oCXdoKkpm6w-val</v>
       </c>
       <c r="P11" t="str">
-        <v>UhlR7TYZW4x-GvoEANq375m-val</v>
+        <v>p9GO3747RX3-ZVWv8Byjx4a-val</v>
       </c>
       <c r="Q11" t="str">
-        <v>cvUQrs6KC7m-GvoEANq375m-val</v>
+        <v/>
       </c>
       <c r="R11" t="str">
-        <v>QaseiDIdfoj-GvoEANq375m-val</v>
+        <v/>
       </c>
       <c r="S11" t="str">
-        <v>JBQS2HgGLIf-GvoEANq375m-val</v>
+        <v/>
       </c>
       <c r="T11" t="str">
-        <v>Sv18KBjhWu5-GvoEANq375m-val</v>
-      </c>
-      <c r="U11" t="str">
-        <v>Su7s4NICOqz-GvoEANq375m-val</v>
-      </c>
-      <c r="V11" t="str">
-        <v>gLrQCYV3ZQg-GvoEANq375m-val</v>
+        <v/>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>8</v>
+        <v>-</v>
       </c>
       <c r="B12" t="str">
-        <v>Chia theo tháng tuổi</v>
+        <v>Bác sĩ y học dự phòng</v>
       </c>
       <c r="C12" t="str">
-        <v/>
+        <v>totaliBPVIZeR0dC</v>
       </c>
       <c r="D12" t="str">
-        <v/>
+        <v>indicatorNJNSggbus90</v>
       </c>
       <c r="E12" t="str">
-        <v/>
+        <v>indicatorto8QP1CObtu</v>
       </c>
       <c r="F12" t="str">
-        <v/>
+        <v>BWyyZkiIsKB-HllvX50cXC0-val</v>
       </c>
       <c r="G12" t="str">
-        <v/>
+        <v>iBPVIZeR0dC-cHdKrY4isFn-val</v>
       </c>
       <c r="H12" t="str">
-        <v/>
+        <v>iBPVIZeR0dC-LhYs1Hkx7Tm-val</v>
       </c>
       <c r="I12" t="str">
-        <v/>
+        <v>iBPVIZeR0dC-j6NSiwlSxIi-val</v>
       </c>
       <c r="J12" t="str">
-        <v/>
+        <v>iBPVIZeR0dC-fcK57lSPGQh-val</v>
       </c>
       <c r="K12" t="str">
-        <v/>
+        <v>iBPVIZeR0dC-NZUP4w4nyDz-val</v>
       </c>
       <c r="L12" t="str">
-        <v/>
+        <v>iBPVIZeR0dC-FQXGzVORZ6b-val</v>
       </c>
       <c r="M12" t="str">
-        <v/>
+        <v>iBPVIZeR0dC-qQzdzVPRE1Y-val</v>
       </c>
       <c r="N12" t="str">
-        <v/>
+        <v>iBPVIZeR0dC-W7IfepZkWXX-val</v>
       </c>
       <c r="O12" t="str">
-        <v/>
+        <v>iBPVIZeR0dC-oCXdoKkpm6w-val</v>
       </c>
       <c r="P12" t="str">
-        <v/>
+        <v>iBPVIZeR0dC-ZVWv8Byjx4a-val</v>
       </c>
       <c r="Q12" t="str">
         <v/>
@@ -973,358 +913,2510 @@
         <v/>
       </c>
       <c r="T12" t="str">
-        <v/>
-      </c>
-      <c r="U12" t="str">
-        <v/>
-      </c>
-      <c r="V12" t="str">
         <v/>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B13" t="str">
-        <v>&lt;12 tháng</v>
+        <v>Khúc xạ nhãn khoa</v>
       </c>
       <c r="C13" t="str">
-        <v>HyzrpPc0l3P-oWFrhYt3yw8-val</v>
+        <v>totalWvBabF9GM06</v>
       </c>
       <c r="D13" t="str">
-        <v>e2vZvEipbgi-oWFrhYt3yw8-val</v>
+        <v>indicatorESKjXovyt7f</v>
       </c>
       <c r="E13" t="str">
-        <v>OdqdyI45bug-oWFrhYt3yw8-val</v>
+        <v>indicatork2pYgoyh9xh</v>
       </c>
       <c r="F13" t="str">
-        <v>C5lNEaDl6Rn-oWFrhYt3yw8-val</v>
+        <v>G2zYTLfmEj0-HllvX50cXC0-val</v>
       </c>
       <c r="G13" t="str">
-        <v>GYIIbGdLowM-oWFrhYt3yw8-val</v>
+        <v>WvBabF9GM06-cHdKrY4isFn-val</v>
       </c>
       <c r="H13" t="str">
-        <v>Kbu91ZFYTL8-oWFrhYt3yw8-val</v>
+        <v>WvBabF9GM06-LhYs1Hkx7Tm-val</v>
       </c>
       <c r="I13" t="str">
-        <v>NbqoxliP9sk-oWFrhYt3yw8-val</v>
+        <v>WvBabF9GM06-j6NSiwlSxIi-val</v>
       </c>
       <c r="J13" t="str">
-        <v>oQvl8r6UcZf-oWFrhYt3yw8-val</v>
+        <v>WvBabF9GM06-fcK57lSPGQh-val</v>
       </c>
       <c r="K13" t="str">
-        <v>eEb8CRruiXp-oWFrhYt3yw8-val</v>
+        <v>WvBabF9GM06-NZUP4w4nyDz-val</v>
       </c>
       <c r="L13" t="str">
-        <v>qhTt4JMUsbT-oWFrhYt3yw8-val</v>
+        <v>WvBabF9GM06-FQXGzVORZ6b-val</v>
       </c>
       <c r="M13" t="str">
-        <v>rZEV2FuiJeQ-oWFrhYt3yw8-val</v>
+        <v>WvBabF9GM06-qQzdzVPRE1Y-val</v>
       </c>
       <c r="N13" t="str">
-        <v>qzzWTQjnlNO-oWFrhYt3yw8-val</v>
+        <v>WvBabF9GM06-W7IfepZkWXX-val</v>
       </c>
       <c r="O13" t="str">
-        <v>XhjT8Vu7Ybn-oWFrhYt3yw8-val</v>
+        <v>WvBabF9GM06-oCXdoKkpm6w-val</v>
       </c>
       <c r="P13" t="str">
-        <v>gc1OgGZ6c0q-oWFrhYt3yw8-val</v>
+        <v>WvBabF9GM06-ZVWv8Byjx4a-val</v>
       </c>
       <c r="Q13" t="str">
-        <v>RDyCcK4c0J3-oWFrhYt3yw8-val</v>
+        <v/>
       </c>
       <c r="R13" t="str">
-        <v>H4JsBxpjeuD-oWFrhYt3yw8-val</v>
+        <v/>
       </c>
       <c r="S13" t="str">
         <v/>
       </c>
       <c r="T13" t="str">
-        <v/>
-      </c>
-      <c r="U13" t="str">
-        <v/>
-      </c>
-      <c r="V13" t="str">
         <v/>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B14" t="str">
-        <v>12 -&lt; 24 tháng</v>
+        <v>Y tế công cộng</v>
       </c>
       <c r="C14" t="str">
-        <v>HyzrpPc0l3P-PRfPHapdNHP-val</v>
+        <v>totalI1q7eUkrtiD</v>
       </c>
       <c r="D14" t="str">
-        <v>e2vZvEipbgi-PRfPHapdNHP-val</v>
+        <v>indicatorw0XzbiIpNGv</v>
       </c>
       <c r="E14" t="str">
-        <v>OdqdyI45bug-PRfPHapdNHP-val</v>
+        <v>indicatorunqLFEq83Eo</v>
       </c>
       <c r="F14" t="str">
-        <v>C5lNEaDl6Rn-PRfPHapdNHP-val</v>
+        <v>BhmDnw6WxAS-HllvX50cXC0-val</v>
       </c>
       <c r="G14" t="str">
-        <v>GYIIbGdLowM-PRfPHapdNHP-val</v>
+        <v>I1q7eUkrtiD-cHdKrY4isFn-val</v>
       </c>
       <c r="H14" t="str">
-        <v>Kbu91ZFYTL8-PRfPHapdNHP-val</v>
+        <v>I1q7eUkrtiD-LhYs1Hkx7Tm-val</v>
       </c>
       <c r="I14" t="str">
-        <v>NbqoxliP9sk-PRfPHapdNHP-val</v>
+        <v>I1q7eUkrtiD-j6NSiwlSxIi-val</v>
       </c>
       <c r="J14" t="str">
-        <v>oQvl8r6UcZf-PRfPHapdNHP-val</v>
+        <v>I1q7eUkrtiD-fcK57lSPGQh-val</v>
       </c>
       <c r="K14" t="str">
-        <v>eEb8CRruiXp-PRfPHapdNHP-val</v>
+        <v>I1q7eUkrtiD-NZUP4w4nyDz-val</v>
       </c>
       <c r="L14" t="str">
-        <v>qhTt4JMUsbT-PRfPHapdNHP-val</v>
+        <v>I1q7eUkrtiD-FQXGzVORZ6b-val</v>
       </c>
       <c r="M14" t="str">
-        <v>rZEV2FuiJeQ-PRfPHapdNHP-val</v>
+        <v>I1q7eUkrtiD-qQzdzVPRE1Y-val</v>
       </c>
       <c r="N14" t="str">
-        <v>qzzWTQjnlNO-PRfPHapdNHP-val</v>
+        <v>I1q7eUkrtiD-W7IfepZkWXX-val</v>
       </c>
       <c r="O14" t="str">
-        <v>XhjT8Vu7Ybn-PRfPHapdNHP-val</v>
+        <v>I1q7eUkrtiD-oCXdoKkpm6w-val</v>
       </c>
       <c r="P14" t="str">
-        <v>gc1OgGZ6c0q-PRfPHapdNHP-val</v>
+        <v>I1q7eUkrtiD-ZVWv8Byjx4a-val</v>
       </c>
       <c r="Q14" t="str">
-        <v>RDyCcK4c0J3-PRfPHapdNHP-val</v>
+        <v/>
       </c>
       <c r="R14" t="str">
-        <v>H4JsBxpjeuD-PRfPHapdNHP-val</v>
+        <v/>
       </c>
       <c r="S14" t="str">
         <v/>
       </c>
       <c r="T14" t="str">
-        <v/>
-      </c>
-      <c r="U14" t="str">
-        <v/>
-      </c>
-      <c r="V14" t="str">
         <v/>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B15" t="str">
-        <v>24 -&lt; 36 tháng</v>
+        <v>Dược</v>
       </c>
       <c r="C15" t="str">
-        <v>HyzrpPc0l3P-g8uX60iTxLv-val</v>
+        <v>totaltYHvKOCPKD0</v>
       </c>
       <c r="D15" t="str">
-        <v>e2vZvEipbgi-g8uX60iTxLv-val</v>
+        <v>indicatorSpQDIjaDz1t</v>
       </c>
       <c r="E15" t="str">
-        <v>OdqdyI45bug-g8uX60iTxLv-val</v>
+        <v>indicatorcu9ZUTtTmRi</v>
       </c>
       <c r="F15" t="str">
-        <v>C5lNEaDl6Rn-g8uX60iTxLv-val</v>
+        <v>fJsALv2chFQ-HllvX50cXC0-val</v>
       </c>
       <c r="G15" t="str">
-        <v>GYIIbGdLowM-g8uX60iTxLv-val</v>
+        <v>tYHvKOCPKD0-cHdKrY4isFn-val</v>
       </c>
       <c r="H15" t="str">
-        <v>Kbu91ZFYTL8-g8uX60iTxLv-val</v>
+        <v>tYHvKOCPKD0-LhYs1Hkx7Tm-val</v>
       </c>
       <c r="I15" t="str">
-        <v>NbqoxliP9sk-g8uX60iTxLv-val</v>
+        <v>tYHvKOCPKD0-j6NSiwlSxIi-val</v>
       </c>
       <c r="J15" t="str">
-        <v>oQvl8r6UcZf-g8uX60iTxLv-val</v>
+        <v>tYHvKOCPKD0-fcK57lSPGQh-val</v>
       </c>
       <c r="K15" t="str">
-        <v>eEb8CRruiXp-g8uX60iTxLv-val</v>
+        <v>tYHvKOCPKD0-NZUP4w4nyDz-val</v>
       </c>
       <c r="L15" t="str">
-        <v>qhTt4JMUsbT-g8uX60iTxLv-val</v>
+        <v>tYHvKOCPKD0-FQXGzVORZ6b-val</v>
       </c>
       <c r="M15" t="str">
-        <v>rZEV2FuiJeQ-g8uX60iTxLv-val</v>
+        <v>tYHvKOCPKD0-qQzdzVPRE1Y-val</v>
       </c>
       <c r="N15" t="str">
-        <v>qzzWTQjnlNO-g8uX60iTxLv-val</v>
+        <v>tYHvKOCPKD0-W7IfepZkWXX-val</v>
       </c>
       <c r="O15" t="str">
-        <v>XhjT8Vu7Ybn-g8uX60iTxLv-val</v>
+        <v>tYHvKOCPKD0-oCXdoKkpm6w-val</v>
       </c>
       <c r="P15" t="str">
-        <v>gc1OgGZ6c0q-g8uX60iTxLv-val</v>
+        <v>tYHvKOCPKD0-ZVWv8Byjx4a-val</v>
       </c>
       <c r="Q15" t="str">
-        <v>RDyCcK4c0J3-g8uX60iTxLv-val</v>
+        <v>tYHvKOCPKD0-lulFtHd6g9U-val</v>
       </c>
       <c r="R15" t="str">
-        <v>H4JsBxpjeuD-g8uX60iTxLv-val</v>
+        <v>tYHvKOCPKD0-Xh0GebJLxc7-val</v>
       </c>
       <c r="S15" t="str">
-        <v/>
+        <v>tYHvKOCPKD0-WtSoS3htH0e-val</v>
       </c>
       <c r="T15" t="str">
-        <v/>
-      </c>
-      <c r="U15" t="str">
-        <v/>
-      </c>
-      <c r="V15" t="str">
-        <v/>
+        <v>tYHvKOCPKD0-aBTLow9SHt6-val</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B16" t="str">
-        <v>36 -&lt; 48 tháng</v>
+        <v>Điều dưỡng</v>
       </c>
       <c r="C16" t="str">
-        <v>HyzrpPc0l3P-mFx9Kgj7iJC-val</v>
+        <v>totalSuJV0QHbGMC</v>
       </c>
       <c r="D16" t="str">
-        <v>e2vZvEipbgi-mFx9Kgj7iJC-val</v>
+        <v>indicatorr0b3z7AEbNV</v>
       </c>
       <c r="E16" t="str">
-        <v>OdqdyI45bug-mFx9Kgj7iJC-val</v>
+        <v>indicatorM1fMqT4Awei</v>
       </c>
       <c r="F16" t="str">
-        <v>C5lNEaDl6Rn-mFx9Kgj7iJC-val</v>
+        <v>p9mbre5d9EX-HllvX50cXC0-val</v>
       </c>
       <c r="G16" t="str">
-        <v>GYIIbGdLowM-mFx9Kgj7iJC-val</v>
+        <v>SuJV0QHbGMC-cHdKrY4isFn-val</v>
       </c>
       <c r="H16" t="str">
-        <v>Kbu91ZFYTL8-mFx9Kgj7iJC-val</v>
+        <v>SuJV0QHbGMC-LhYs1Hkx7Tm-val</v>
       </c>
       <c r="I16" t="str">
-        <v>NbqoxliP9sk-mFx9Kgj7iJC-val</v>
+        <v>SuJV0QHbGMC-j6NSiwlSxIi-val</v>
       </c>
       <c r="J16" t="str">
-        <v>oQvl8r6UcZf-mFx9Kgj7iJC-val</v>
+        <v>SuJV0QHbGMC-fcK57lSPGQh-val</v>
       </c>
       <c r="K16" t="str">
-        <v>eEb8CRruiXp-mFx9Kgj7iJC-val</v>
+        <v>SuJV0QHbGMC-NZUP4w4nyDz-val</v>
       </c>
       <c r="L16" t="str">
-        <v>qhTt4JMUsbT-mFx9Kgj7iJC-val</v>
+        <v>SuJV0QHbGMC-FQXGzVORZ6b-val</v>
       </c>
       <c r="M16" t="str">
-        <v>rZEV2FuiJeQ-mFx9Kgj7iJC-val</v>
+        <v>SuJV0QHbGMC-qQzdzVPRE1Y-val</v>
       </c>
       <c r="N16" t="str">
-        <v>qzzWTQjnlNO-mFx9Kgj7iJC-val</v>
+        <v>SuJV0QHbGMC-W7IfepZkWXX-val</v>
       </c>
       <c r="O16" t="str">
-        <v>XhjT8Vu7Ybn-mFx9Kgj7iJC-val</v>
+        <v>SuJV0QHbGMC-oCXdoKkpm6w-val</v>
       </c>
       <c r="P16" t="str">
-        <v>gc1OgGZ6c0q-mFx9Kgj7iJC-val</v>
+        <v>SuJV0QHbGMC-ZVWv8Byjx4a-val</v>
       </c>
       <c r="Q16" t="str">
-        <v>RDyCcK4c0J3-mFx9Kgj7iJC-val</v>
+        <v>SuJV0QHbGMC-lulFtHd6g9U-val</v>
       </c>
       <c r="R16" t="str">
-        <v>H4JsBxpjeuD-mFx9Kgj7iJC-val</v>
+        <v>SuJV0QHbGMC-Xh0GebJLxc7-val</v>
       </c>
       <c r="S16" t="str">
-        <v/>
+        <v>SuJV0QHbGMC-WtSoS3htH0e-val</v>
       </c>
       <c r="T16" t="str">
-        <v/>
-      </c>
-      <c r="U16" t="str">
-        <v/>
-      </c>
-      <c r="V16" t="str">
-        <v/>
+        <v>SuJV0QHbGMC-aBTLow9SHt6-val</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
+        <v>6</v>
+      </c>
+      <c r="B17" t="str">
+        <v>Kỹ thuật Y</v>
+      </c>
+      <c r="C17" t="str">
+        <v>totalVmYCezYPWfW</v>
+      </c>
+      <c r="D17" t="str">
+        <v>indicatorFPraZJsauMY</v>
+      </c>
+      <c r="E17" t="str">
+        <v>indicatorJnBBB72qFCL</v>
+      </c>
+      <c r="F17" t="str">
+        <v>oRMUFE5FcFL-HllvX50cXC0-val</v>
+      </c>
+      <c r="G17" t="str">
+        <v>VmYCezYPWfW-cHdKrY4isFn-val</v>
+      </c>
+      <c r="H17" t="str">
+        <v>VmYCezYPWfW-LhYs1Hkx7Tm-val</v>
+      </c>
+      <c r="I17" t="str">
+        <v>VmYCezYPWfW-j6NSiwlSxIi-val</v>
+      </c>
+      <c r="J17" t="str">
+        <v>VmYCezYPWfW-fcK57lSPGQh-val</v>
+      </c>
+      <c r="K17" t="str">
+        <v>VmYCezYPWfW-NZUP4w4nyDz-val</v>
+      </c>
+      <c r="L17" t="str">
+        <v>VmYCezYPWfW-FQXGzVORZ6b-val</v>
+      </c>
+      <c r="M17" t="str">
+        <v>VmYCezYPWfW-qQzdzVPRE1Y-val</v>
+      </c>
+      <c r="N17" t="str">
+        <v>VmYCezYPWfW-W7IfepZkWXX-val</v>
+      </c>
+      <c r="O17" t="str">
+        <v>VmYCezYPWfW-oCXdoKkpm6w-val</v>
+      </c>
+      <c r="P17" t="str">
+        <v>VmYCezYPWfW-ZVWv8Byjx4a-val</v>
+      </c>
+      <c r="Q17" t="str">
+        <v>VmYCezYPWfW-lulFtHd6g9U-val</v>
+      </c>
+      <c r="R17" t="str">
+        <v>VmYCezYPWfW-Xh0GebJLxc7-val</v>
+      </c>
+      <c r="S17" t="str">
+        <v>VmYCezYPWfW-WtSoS3htH0e-val</v>
+      </c>
+      <c r="T17" t="str">
+        <v>VmYCezYPWfW-aBTLow9SHt6-val</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>7</v>
+      </c>
+      <c r="B18" t="str">
+        <v>Hộ sinh</v>
+      </c>
+      <c r="C18" t="str">
+        <v>totalaXmairWrfMD</v>
+      </c>
+      <c r="D18" t="str">
+        <v>indicatormDQcUxpV7uU</v>
+      </c>
+      <c r="E18" t="str">
+        <v>indicatorR2aa2yl74vr</v>
+      </c>
+      <c r="F18" t="str">
+        <v>khx70zeNUUW-HllvX50cXC0-val</v>
+      </c>
+      <c r="G18" t="str">
+        <v>aXmairWrfMD-cHdKrY4isFn-val</v>
+      </c>
+      <c r="H18" t="str">
+        <v>aXmairWrfMD-LhYs1Hkx7Tm-val</v>
+      </c>
+      <c r="I18" t="str">
+        <v>aXmairWrfMD-j6NSiwlSxIi-val</v>
+      </c>
+      <c r="J18" t="str">
+        <v>aXmairWrfMD-fcK57lSPGQh-val</v>
+      </c>
+      <c r="K18" t="str">
+        <v>aXmairWrfMD-NZUP4w4nyDz-val</v>
+      </c>
+      <c r="L18" t="str">
+        <v>aXmairWrfMD-FQXGzVORZ6b-val</v>
+      </c>
+      <c r="M18" t="str">
+        <v>aXmairWrfMD-qQzdzVPRE1Y-val</v>
+      </c>
+      <c r="N18" t="str">
+        <v>aXmairWrfMD-W7IfepZkWXX-val</v>
+      </c>
+      <c r="O18" t="str">
+        <v>aXmairWrfMD-oCXdoKkpm6w-val</v>
+      </c>
+      <c r="P18" t="str">
+        <v>aXmairWrfMD-ZVWv8Byjx4a-val</v>
+      </c>
+      <c r="Q18" t="str">
+        <v>aXmairWrfMD-lulFtHd6g9U-val</v>
+      </c>
+      <c r="R18" t="str">
+        <v>aXmairWrfMD-Xh0GebJLxc7-val</v>
+      </c>
+      <c r="S18" t="str">
+        <v>aXmairWrfMD-WtSoS3htH0e-val</v>
+      </c>
+      <c r="T18" t="str">
+        <v>aXmairWrfMD-aBTLow9SHt6-val</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>8</v>
+      </c>
+      <c r="B19" t="str">
+        <v>Dinh dưỡng</v>
+      </c>
+      <c r="C19" t="str">
+        <v>totalNQ2DQIdC9bh</v>
+      </c>
+      <c r="D19" t="str">
+        <v>indicatorU2KvL4vZg1B</v>
+      </c>
+      <c r="E19" t="str">
+        <v>indicatorkPqt7bgVaha</v>
+      </c>
+      <c r="F19" t="str">
+        <v>CdNXzkSckvr-HllvX50cXC0-val</v>
+      </c>
+      <c r="G19" t="str">
+        <v>NQ2DQIdC9bh-cHdKrY4isFn-val</v>
+      </c>
+      <c r="H19" t="str">
+        <v>NQ2DQIdC9bh-LhYs1Hkx7Tm-val</v>
+      </c>
+      <c r="I19" t="str">
+        <v>NQ2DQIdC9bh-j6NSiwlSxIi-val</v>
+      </c>
+      <c r="J19" t="str">
+        <v>NQ2DQIdC9bh-fcK57lSPGQh-val</v>
+      </c>
+      <c r="K19" t="str">
+        <v>NQ2DQIdC9bh-NZUP4w4nyDz-val</v>
+      </c>
+      <c r="L19" t="str">
+        <v>NQ2DQIdC9bh-FQXGzVORZ6b-val</v>
+      </c>
+      <c r="M19" t="str">
+        <v>NQ2DQIdC9bh-qQzdzVPRE1Y-val</v>
+      </c>
+      <c r="N19" t="str">
+        <v>NQ2DQIdC9bh-W7IfepZkWXX-val</v>
+      </c>
+      <c r="O19" t="str">
+        <v>NQ2DQIdC9bh-oCXdoKkpm6w-val</v>
+      </c>
+      <c r="P19" t="str">
+        <v>NQ2DQIdC9bh-ZVWv8Byjx4a-val</v>
+      </c>
+      <c r="Q19" t="str">
+        <v>NQ2DQIdC9bh-lulFtHd6g9U-val</v>
+      </c>
+      <c r="R19" t="str">
+        <v>NQ2DQIdC9bh-Xh0GebJLxc7-val</v>
+      </c>
+      <c r="S19" t="str">
+        <v>NQ2DQIdC9bh-WtSoS3htH0e-val</v>
+      </c>
+      <c r="T19" t="str">
+        <v>NQ2DQIdC9bh-aBTLow9SHt6-val</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>9</v>
+      </c>
+      <c r="B20" t="str">
+        <v>Dân số viên</v>
+      </c>
+      <c r="C20" t="str">
+        <v>totalmrx79MJf6Hm</v>
+      </c>
+      <c r="D20" t="str">
+        <v>indicatorjgzI0oW8Uhz</v>
+      </c>
+      <c r="E20" t="str">
+        <v>indicatorpQmY5wqaeAj</v>
+      </c>
+      <c r="F20" t="str">
+        <v>h2w2h1f6l9N-HllvX50cXC0-val</v>
+      </c>
+      <c r="G20" t="str">
+        <v>mrx79MJf6Hm-cHdKrY4isFn-val</v>
+      </c>
+      <c r="H20" t="str">
+        <v>mrx79MJf6Hm-LhYs1Hkx7Tm-val</v>
+      </c>
+      <c r="I20" t="str">
+        <v>mrx79MJf6Hm-j6NSiwlSxIi-val</v>
+      </c>
+      <c r="J20" t="str">
+        <v>mrx79MJf6Hm-fcK57lSPGQh-val</v>
+      </c>
+      <c r="K20" t="str">
+        <v>mrx79MJf6Hm-NZUP4w4nyDz-val</v>
+      </c>
+      <c r="L20" t="str">
+        <v>mrx79MJf6Hm-FQXGzVORZ6b-val</v>
+      </c>
+      <c r="M20" t="str">
+        <v>mrx79MJf6Hm-qQzdzVPRE1Y-val</v>
+      </c>
+      <c r="N20" t="str">
+        <v>mrx79MJf6Hm-W7IfepZkWXX-val</v>
+      </c>
+      <c r="O20" t="str">
+        <v>mrx79MJf6Hm-oCXdoKkpm6w-val</v>
+      </c>
+      <c r="P20" t="str">
+        <v>mrx79MJf6Hm-ZVWv8Byjx4a-val</v>
+      </c>
+      <c r="Q20" t="str">
+        <v>mrx79MJf6Hm-lulFtHd6g9U-val</v>
+      </c>
+      <c r="R20" t="str">
+        <v>mrx79MJf6Hm-Xh0GebJLxc7-val</v>
+      </c>
+      <c r="S20" t="str">
+        <v>mrx79MJf6Hm-WtSoS3htH0e-val</v>
+      </c>
+      <c r="T20" t="str">
+        <v>mrx79MJf6Hm-aBTLow9SHt6-val</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>10</v>
+      </c>
+      <c r="B21" t="str">
+        <v>Y sĩ</v>
+      </c>
+      <c r="C21" t="str">
+        <v>totalpEnCidSJu83</v>
+      </c>
+      <c r="D21" t="str">
+        <v>indicatorQ56HFzHq0aC</v>
+      </c>
+      <c r="E21" t="str">
+        <v>indicatorbpr7fqeFGCO</v>
+      </c>
+      <c r="F21" t="str">
+        <v>S9UBTvEcJJr-HllvX50cXC0-val</v>
+      </c>
+      <c r="G21" t="str">
+        <v/>
+      </c>
+      <c r="H21" t="str">
+        <v/>
+      </c>
+      <c r="I21" t="str">
+        <v/>
+      </c>
+      <c r="J21" t="str">
+        <v/>
+      </c>
+      <c r="K21" t="str">
+        <v/>
+      </c>
+      <c r="L21" t="str">
+        <v/>
+      </c>
+      <c r="M21" t="str">
+        <v/>
+      </c>
+      <c r="N21" t="str">
+        <v/>
+      </c>
+      <c r="O21" t="str">
+        <v/>
+      </c>
+      <c r="P21" t="str">
+        <v/>
+      </c>
+      <c r="Q21" t="str">
+        <v>pEnCidSJu83-lulFtHd6g9U-val</v>
+      </c>
+      <c r="R21" t="str">
+        <v>pEnCidSJu83-Xh0GebJLxc7-val</v>
+      </c>
+      <c r="S21" t="str">
+        <v>pEnCidSJu83-WtSoS3htH0e-val</v>
+      </c>
+      <c r="T21" t="str">
+        <v>pEnCidSJu83-aBTLow9SHt6-val</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v/>
+      </c>
+      <c r="B22" t="str">
+        <v>Trđ: Y sĩ sản nhi</v>
+      </c>
+      <c r="C22" t="str">
+        <v>totals0wgnRiHeUe</v>
+      </c>
+      <c r="D22" t="str">
+        <v>indicatorTSc0jodArgj</v>
+      </c>
+      <c r="E22" t="str">
+        <v>indicatorvpZqAkSoTrw</v>
+      </c>
+      <c r="F22" t="str">
+        <v>cI46I5xfpAE-HllvX50cXC0-val</v>
+      </c>
+      <c r="G22" t="str">
+        <v/>
+      </c>
+      <c r="H22" t="str">
+        <v/>
+      </c>
+      <c r="I22" t="str">
+        <v/>
+      </c>
+      <c r="J22" t="str">
+        <v/>
+      </c>
+      <c r="K22" t="str">
+        <v/>
+      </c>
+      <c r="L22" t="str">
+        <v/>
+      </c>
+      <c r="M22" t="str">
+        <v/>
+      </c>
+      <c r="N22" t="str">
+        <v/>
+      </c>
+      <c r="O22" t="str">
+        <v/>
+      </c>
+      <c r="P22" t="str">
+        <v/>
+      </c>
+      <c r="Q22" t="str">
+        <v>s0wgnRiHeUe-lulFtHd6g9U-val</v>
+      </c>
+      <c r="R22" t="str">
+        <v>s0wgnRiHeUe-Xh0GebJLxc7-val</v>
+      </c>
+      <c r="S22" t="str">
+        <v>s0wgnRiHeUe-WtSoS3htH0e-val</v>
+      </c>
+      <c r="T22" t="str">
+        <v>s0wgnRiHeUe-aBTLow9SHt6-val</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>11</v>
+      </c>
+      <c r="B23" t="str">
+        <v>Lương Y</v>
+      </c>
+      <c r="C23" t="str">
+        <v>totalRregpNece1W</v>
+      </c>
+      <c r="D23" t="str">
+        <v>RregpNece1W-iIcV5MepJ9Q-val</v>
+      </c>
+      <c r="E23" t="str">
+        <v>RregpNece1W-teIQx8w7HTL-val</v>
+      </c>
+      <c r="F23" t="str">
+        <v>gnV1JoEvWDh-HllvX50cXC0-val</v>
+      </c>
+      <c r="G23" t="str">
+        <v/>
+      </c>
+      <c r="H23" t="str">
+        <v/>
+      </c>
+      <c r="I23" t="str">
+        <v/>
+      </c>
+      <c r="J23" t="str">
+        <v/>
+      </c>
+      <c r="K23" t="str">
+        <v/>
+      </c>
+      <c r="L23" t="str">
+        <v/>
+      </c>
+      <c r="M23" t="str">
+        <v/>
+      </c>
+      <c r="N23" t="str">
+        <v/>
+      </c>
+      <c r="O23" t="str">
+        <v/>
+      </c>
+      <c r="P23" t="str">
+        <v/>
+      </c>
+      <c r="Q23" t="str">
+        <v/>
+      </c>
+      <c r="R23" t="str">
+        <v/>
+      </c>
+      <c r="S23" t="str">
+        <v/>
+      </c>
+      <c r="T23" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>12</v>
+      </c>
+      <c r="B24" t="str">
+        <v>Hợp đồng theo Nghị định 111/2022/NĐ-CP</v>
+      </c>
+      <c r="C24" t="str">
+        <v>totalKQj7APFQG6z</v>
+      </c>
+      <c r="D24" t="str">
+        <v>KQj7APFQG6z-iIcV5MepJ9Q-val</v>
+      </c>
+      <c r="E24" t="str">
+        <v>KQj7APFQG6z-teIQx8w7HTL-val</v>
+      </c>
+      <c r="F24" t="str">
+        <v>RwoYtalPSC7-HllvX50cXC0-val</v>
+      </c>
+      <c r="G24" t="str">
+        <v/>
+      </c>
+      <c r="H24" t="str">
+        <v/>
+      </c>
+      <c r="I24" t="str">
+        <v/>
+      </c>
+      <c r="J24" t="str">
+        <v/>
+      </c>
+      <c r="K24" t="str">
+        <v/>
+      </c>
+      <c r="L24" t="str">
+        <v/>
+      </c>
+      <c r="M24" t="str">
+        <v/>
+      </c>
+      <c r="N24" t="str">
+        <v/>
+      </c>
+      <c r="O24" t="str">
+        <v/>
+      </c>
+      <c r="P24" t="str">
+        <v/>
+      </c>
+      <c r="Q24" t="str">
+        <v/>
+      </c>
+      <c r="R24" t="str">
+        <v/>
+      </c>
+      <c r="S24" t="str">
+        <v/>
+      </c>
+      <c r="T24" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
         <v>13</v>
       </c>
-      <c r="B17" t="str">
-        <v>48 -&lt; 60 tháng</v>
-      </c>
-      <c r="C17" t="str">
-        <v>HyzrpPc0l3P-qlSK3uAZapF-val</v>
-      </c>
-      <c r="D17" t="str">
-        <v>e2vZvEipbgi-qlSK3uAZapF-val</v>
-      </c>
-      <c r="E17" t="str">
-        <v>OdqdyI45bug-qlSK3uAZapF-val</v>
-      </c>
-      <c r="F17" t="str">
-        <v>C5lNEaDl6Rn-qlSK3uAZapF-val</v>
-      </c>
-      <c r="G17" t="str">
-        <v>GYIIbGdLowM-qlSK3uAZapF-val</v>
-      </c>
-      <c r="H17" t="str">
-        <v>Kbu91ZFYTL8-qlSK3uAZapF-val</v>
-      </c>
-      <c r="I17" t="str">
-        <v>NbqoxliP9sk-qlSK3uAZapF-val</v>
-      </c>
-      <c r="J17" t="str">
-        <v>oQvl8r6UcZf-qlSK3uAZapF-val</v>
-      </c>
-      <c r="K17" t="str">
-        <v>eEb8CRruiXp-qlSK3uAZapF-val</v>
-      </c>
-      <c r="L17" t="str">
-        <v>qhTt4JMUsbT-qlSK3uAZapF-val</v>
-      </c>
-      <c r="M17" t="str">
-        <v>rZEV2FuiJeQ-qlSK3uAZapF-val</v>
-      </c>
-      <c r="N17" t="str">
-        <v>qzzWTQjnlNO-qlSK3uAZapF-val</v>
-      </c>
-      <c r="O17" t="str">
-        <v>XhjT8Vu7Ybn-qlSK3uAZapF-val</v>
-      </c>
-      <c r="P17" t="str">
-        <v>gc1OgGZ6c0q-qlSK3uAZapF-val</v>
-      </c>
-      <c r="Q17" t="str">
-        <v>RDyCcK4c0J3-qlSK3uAZapF-val</v>
-      </c>
-      <c r="R17" t="str">
-        <v>H4JsBxpjeuD-qlSK3uAZapF-val</v>
-      </c>
-      <c r="S17" t="str">
-        <v/>
-      </c>
-      <c r="T17" t="str">
-        <v/>
-      </c>
-      <c r="U17" t="str">
-        <v/>
-      </c>
-      <c r="V17" t="str">
+      <c r="B25" t="str">
+        <v>Nhân lực y tế khác</v>
+      </c>
+      <c r="C25" t="str">
+        <v>totalCKr5or7Rsw2</v>
+      </c>
+      <c r="D25" t="str">
+        <v>indicatorzqnnh5ZWvuF</v>
+      </c>
+      <c r="E25" t="str">
+        <v>indicatorUgXTsTuoHFR</v>
+      </c>
+      <c r="F25" t="str">
+        <v>iZhUj6XLCf2-HllvX50cXC0-val</v>
+      </c>
+      <c r="G25" t="str">
+        <v>CKr5or7Rsw2-cHdKrY4isFn-val</v>
+      </c>
+      <c r="H25" t="str">
+        <v>CKr5or7Rsw2-LhYs1Hkx7Tm-val</v>
+      </c>
+      <c r="I25" t="str">
+        <v>CKr5or7Rsw2-j6NSiwlSxIi-val</v>
+      </c>
+      <c r="J25" t="str">
+        <v>CKr5or7Rsw2-fcK57lSPGQh-val</v>
+      </c>
+      <c r="K25" t="str">
+        <v>CKr5or7Rsw2-NZUP4w4nyDz-val</v>
+      </c>
+      <c r="L25" t="str">
+        <v>CKr5or7Rsw2-FQXGzVORZ6b-val</v>
+      </c>
+      <c r="M25" t="str">
+        <v>CKr5or7Rsw2-qQzdzVPRE1Y-val</v>
+      </c>
+      <c r="N25" t="str">
+        <v>CKr5or7Rsw2-W7IfepZkWXX-val</v>
+      </c>
+      <c r="O25" t="str">
+        <v>CKr5or7Rsw2-oCXdoKkpm6w-val</v>
+      </c>
+      <c r="P25" t="str">
+        <v>CKr5or7Rsw2-ZVWv8Byjx4a-val</v>
+      </c>
+      <c r="Q25" t="str">
+        <v>CKr5or7Rsw2-lulFtHd6g9U-val</v>
+      </c>
+      <c r="R25" t="str">
+        <v>CKr5or7Rsw2-Xh0GebJLxc7-val</v>
+      </c>
+      <c r="S25" t="str">
+        <v>CKr5or7Rsw2-WtSoS3htH0e-val</v>
+      </c>
+      <c r="T25" t="str">
+        <v>CKr5or7Rsw2-aBTLow9SHt6-val</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v/>
+      </c>
+      <c r="B26" t="str">
+        <v>Tổng số nhân lực y tế</v>
+      </c>
+      <c r="C26" t="str">
+        <v>indicatorRLD5rvZJhPV</v>
+      </c>
+      <c r="D26" t="str">
+        <v>indicatorQPKya4ndrGp</v>
+      </c>
+      <c r="E26" t="str">
+        <v>indicatorKSD2vjkKBfe</v>
+      </c>
+      <c r="F26" t="str">
+        <v>indicatorTXLPiBsLai1</v>
+      </c>
+      <c r="G26" t="str">
+        <v>indicatorWclNcG9j1aV</v>
+      </c>
+      <c r="H26" t="str">
+        <v>indicatorjprtL2ffRq3</v>
+      </c>
+      <c r="I26" t="str">
+        <v>indicatorXxgoo1w5HEj</v>
+      </c>
+      <c r="J26" t="str">
+        <v>indicatoragLzAZ4wVbs</v>
+      </c>
+      <c r="K26" t="str">
+        <v>indicatorxTTUAYoMtOw</v>
+      </c>
+      <c r="L26" t="str">
+        <v>indicatorAsQppe0tkYc</v>
+      </c>
+      <c r="M26" t="str">
+        <v>indicatora3yInfWNTqk</v>
+      </c>
+      <c r="N26" t="str">
+        <v>indicatorqXiTHLQntXq</v>
+      </c>
+      <c r="O26" t="str">
+        <v>indicatorqs1X5gCjSQG</v>
+      </c>
+      <c r="P26" t="str">
+        <v>indicatormWEd3XcJys5</v>
+      </c>
+      <c r="Q26" t="str">
+        <v>indicatoriwyJwiHdHAD</v>
+      </c>
+      <c r="R26" t="str">
+        <v>indicatorrcLO80n30NI</v>
+      </c>
+      <c r="S26" t="str">
+        <v>indicatorSX4KmNYYhGy</v>
+      </c>
+      <c r="T26" t="str">
+        <v>indicatorDyh7aaJLytQ</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v/>
+      </c>
+      <c r="B27" t="str">
+        <v>Sau đại học y khoa (báo cáo Thông tư 37/2019/TT-BYT)</v>
+      </c>
+      <c r="C27" t="str">
+        <v>totalaRDVsuK2oJa</v>
+      </c>
+      <c r="D27" t="str">
+        <v>aRDVsuK2oJa-iIcV5MepJ9Q-val</v>
+      </c>
+      <c r="E27" t="str">
+        <v>aRDVsuK2oJa-teIQx8w7HTL-val</v>
+      </c>
+      <c r="F27" t="str">
+        <v>hEJwt8L00yP-HllvX50cXC0-val</v>
+      </c>
+      <c r="G27" t="str">
+        <v/>
+      </c>
+      <c r="H27" t="str">
+        <v/>
+      </c>
+      <c r="I27" t="str">
+        <v/>
+      </c>
+      <c r="J27" t="str">
+        <v/>
+      </c>
+      <c r="K27" t="str">
+        <v/>
+      </c>
+      <c r="L27" t="str">
+        <v/>
+      </c>
+      <c r="M27" t="str">
+        <v/>
+      </c>
+      <c r="N27" t="str">
+        <v/>
+      </c>
+      <c r="O27" t="str">
+        <v/>
+      </c>
+      <c r="P27" t="str">
+        <v/>
+      </c>
+      <c r="Q27" t="str">
+        <v/>
+      </c>
+      <c r="R27" t="str">
+        <v/>
+      </c>
+      <c r="S27" t="str">
+        <v/>
+      </c>
+      <c r="T27" t="str">
         <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:V17"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:T27"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:S31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>Biểu số 2/BCX - BÁO CÁO NHÂN LỰC THEO CHUYÊN MÔN</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>TT</v>
+      </c>
+      <c r="B2" t="str">
+        <v>Trình độ chuyên môn</v>
+      </c>
+      <c r="C2" t="str">
+        <v>Số lượng</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Trong đó</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>CKII</v>
+      </c>
+      <c r="B3" t="str">
+        <v>Thạc sĩ</v>
+      </c>
+      <c r="C3" t="str">
+        <v>CKI</v>
+      </c>
+      <c r="D3" t="str">
+        <v>Đại học</v>
+      </c>
+      <c r="E3" t="str">
+        <v>Cao đẳng</v>
+      </c>
+      <c r="F3" t="str">
+        <v>Trung cấp</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>1</v>
+      </c>
+      <c r="B5" t="str">
+        <v>2</v>
+      </c>
+      <c r="C5" t="str">
+        <v>3</v>
+      </c>
+      <c r="D5" t="str">
+        <v>4</v>
+      </c>
+      <c r="E5" t="str">
+        <v>5</v>
+      </c>
+      <c r="F5" t="str">
+        <v>6</v>
+      </c>
+      <c r="G5" t="str">
+        <v>9</v>
+      </c>
+      <c r="H5" t="str">
+        <v>10</v>
+      </c>
+      <c r="I5" t="str">
+        <v>11</v>
+      </c>
+      <c r="J5" t="str">
+        <v>12</v>
+      </c>
+      <c r="K5" t="str">
+        <v>13</v>
+      </c>
+      <c r="L5" t="str">
+        <v>14</v>
+      </c>
+      <c r="M5" t="str">
+        <v>15</v>
+      </c>
+      <c r="N5" t="str">
+        <v>16</v>
+      </c>
+      <c r="O5" t="str">
+        <v>17</v>
+      </c>
+      <c r="P5" t="str">
+        <v>18</v>
+      </c>
+      <c r="Q5" t="str">
+        <v>19</v>
+      </c>
+      <c r="R5" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>I</v>
+      </c>
+      <c r="B6" t="str">
+        <v>NHÂN LỰC Y TẾ TẠI TRẠM Y TẾ</v>
+      </c>
+      <c r="C6" t="str">
+        <v>indicatorRLD5rvZJhPV</v>
+      </c>
+      <c r="D6" t="str">
+        <v>indicatorQPKya4ndrGp</v>
+      </c>
+      <c r="E6" t="str">
+        <v>indicatorKSD2vjkKBfe</v>
+      </c>
+      <c r="F6" t="str">
+        <v>indicatorTXLPiBsLai1</v>
+      </c>
+      <c r="G6" t="str">
+        <v>indicatorXxgoo1w5HEj</v>
+      </c>
+      <c r="H6" t="str">
+        <v>indicatoragLzAZ4wVbs</v>
+      </c>
+      <c r="I6" t="str">
+        <v>indicatorxTTUAYoMtOw</v>
+      </c>
+      <c r="J6" t="str">
+        <v>indicatorAsQppe0tkYc</v>
+      </c>
+      <c r="K6" t="str">
+        <v>indicatora3yInfWNTqk</v>
+      </c>
+      <c r="L6" t="str">
+        <v>indicatorqXiTHLQntXq</v>
+      </c>
+      <c r="M6" t="str">
+        <v>indicatorqs1X5gCjSQG</v>
+      </c>
+      <c r="N6" t="str">
+        <v>indicatormWEd3XcJys5</v>
+      </c>
+      <c r="O6" t="str">
+        <v>indicatoriwyJwiHdHAD</v>
+      </c>
+      <c r="P6" t="str">
+        <v>indicatorrcLO80n30NI</v>
+      </c>
+      <c r="Q6" t="str">
+        <v>indicatorSX4KmNYYhGy</v>
+      </c>
+      <c r="R6" t="str">
+        <v>indicatorDyh7aaJLytQ</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>1</v>
+      </c>
+      <c r="B7" t="str">
+        <v>Bác sĩ (tất cả các chuyên ngành)</v>
+      </c>
+      <c r="C7" t="str">
+        <v>totalYD9NYYpTEFV</v>
+      </c>
+      <c r="D7" t="str">
+        <v>indicatorge4nqMQhKex</v>
+      </c>
+      <c r="E7" t="str">
+        <v>indicatorYN2BeNa5sKL</v>
+      </c>
+      <c r="F7" t="str">
+        <v>jF1NWA8L0sE-HllvX50cXC0-val</v>
+      </c>
+      <c r="G7" t="str">
+        <v>YD9NYYpTEFV-j6NSiwlSxIi-val</v>
+      </c>
+      <c r="H7" t="str">
+        <v>YD9NYYpTEFV-fcK57lSPGQh-val</v>
+      </c>
+      <c r="I7" t="str">
+        <v>YD9NYYpTEFV-NZUP4w4nyDz-val</v>
+      </c>
+      <c r="J7" t="str">
+        <v>YD9NYYpTEFV-FQXGzVORZ6b-val</v>
+      </c>
+      <c r="K7" t="str">
+        <v>YD9NYYpTEFV-qQzdzVPRE1Y-val</v>
+      </c>
+      <c r="L7" t="str">
+        <v>YD9NYYpTEFV-W7IfepZkWXX-val</v>
+      </c>
+      <c r="M7" t="str">
+        <v>YD9NYYpTEFV-oCXdoKkpm6w-val</v>
+      </c>
+      <c r="N7" t="str">
+        <v>YD9NYYpTEFV-ZVWv8Byjx4a-val</v>
+      </c>
+      <c r="O7" t="str">
+        <v/>
+      </c>
+      <c r="P7" t="str">
+        <v/>
+      </c>
+      <c r="Q7" t="str">
+        <v/>
+      </c>
+      <c r="R7" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v/>
+      </c>
+      <c r="B8" t="str">
+        <v>Trong đó:</v>
+      </c>
+      <c r="C8" t="str">
+        <v/>
+      </c>
+      <c r="D8" t="str">
+        <v/>
+      </c>
+      <c r="E8" t="str">
+        <v/>
+      </c>
+      <c r="F8" t="str">
+        <v/>
+      </c>
+      <c r="G8" t="str">
+        <v/>
+      </c>
+      <c r="H8" t="str">
+        <v/>
+      </c>
+      <c r="I8" t="str">
+        <v/>
+      </c>
+      <c r="J8" t="str">
+        <v/>
+      </c>
+      <c r="K8" t="str">
+        <v/>
+      </c>
+      <c r="L8" t="str">
+        <v/>
+      </c>
+      <c r="M8" t="str">
+        <v/>
+      </c>
+      <c r="N8" t="str">
+        <v/>
+      </c>
+      <c r="O8" t="str">
+        <v/>
+      </c>
+      <c r="P8" t="str">
+        <v/>
+      </c>
+      <c r="Q8" t="str">
+        <v/>
+      </c>
+      <c r="R8" t="str">
+        <v/>
+      </c>
+      <c r="S8" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>-</v>
+      </c>
+      <c r="B9" t="str">
+        <v>Bác sĩ tâm thần</v>
+      </c>
+      <c r="C9" t="str">
+        <v>totalkqDRXtCFV4S</v>
+      </c>
+      <c r="D9" t="str">
+        <v>indicatorg7Ngg42ps5x</v>
+      </c>
+      <c r="E9" t="str">
+        <v>indicatorPqdzRfgio9f</v>
+      </c>
+      <c r="F9" t="str">
+        <v>MZAGa29CMIj-HllvX50cXC0-val</v>
+      </c>
+      <c r="G9" t="str">
+        <v>kqDRXtCFV4S-j6NSiwlSxIi-val</v>
+      </c>
+      <c r="H9" t="str">
+        <v>kqDRXtCFV4S-fcK57lSPGQh-val</v>
+      </c>
+      <c r="I9" t="str">
+        <v>kqDRXtCFV4S-NZUP4w4nyDz-val</v>
+      </c>
+      <c r="J9" t="str">
+        <v>kqDRXtCFV4S-FQXGzVORZ6b-val</v>
+      </c>
+      <c r="K9" t="str">
+        <v>kqDRXtCFV4S-qQzdzVPRE1Y-val</v>
+      </c>
+      <c r="L9" t="str">
+        <v>kqDRXtCFV4S-W7IfepZkWXX-val</v>
+      </c>
+      <c r="M9" t="str">
+        <v>kqDRXtCFV4S-oCXdoKkpm6w-val</v>
+      </c>
+      <c r="N9" t="str">
+        <v>kqDRXtCFV4S-ZVWv8Byjx4a-val</v>
+      </c>
+      <c r="O9" t="str">
+        <v/>
+      </c>
+      <c r="P9" t="str">
+        <v/>
+      </c>
+      <c r="Q9" t="str">
+        <v/>
+      </c>
+      <c r="R9" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>-</v>
+      </c>
+      <c r="B10" t="str">
+        <v>Bác sĩ tâm lý lâm sàng</v>
+      </c>
+      <c r="C10" t="str">
+        <v>totalz2tLKKD9O40</v>
+      </c>
+      <c r="D10" t="str">
+        <v>indicatori3KKcYHvCdT</v>
+      </c>
+      <c r="E10" t="str">
+        <v>indicatorhCYRLjYBIOb</v>
+      </c>
+      <c r="F10" t="str">
+        <v>aiRnVq6ctIB-HllvX50cXC0-val</v>
+      </c>
+      <c r="G10" t="str">
+        <v>z2tLKKD9O40-j6NSiwlSxIi-val</v>
+      </c>
+      <c r="H10" t="str">
+        <v>z2tLKKD9O40-fcK57lSPGQh-val</v>
+      </c>
+      <c r="I10" t="str">
+        <v>z2tLKKD9O40-NZUP4w4nyDz-val</v>
+      </c>
+      <c r="J10" t="str">
+        <v>z2tLKKD9O40-FQXGzVORZ6b-val</v>
+      </c>
+      <c r="K10" t="str">
+        <v>z2tLKKD9O40-qQzdzVPRE1Y-val</v>
+      </c>
+      <c r="L10" t="str">
+        <v>z2tLKKD9O40-W7IfepZkWXX-val</v>
+      </c>
+      <c r="M10" t="str">
+        <v>z2tLKKD9O40-oCXdoKkpm6w-val</v>
+      </c>
+      <c r="N10" t="str">
+        <v>z2tLKKD9O40-ZVWv8Byjx4a-val</v>
+      </c>
+      <c r="O10" t="str">
+        <v/>
+      </c>
+      <c r="P10" t="str">
+        <v/>
+      </c>
+      <c r="Q10" t="str">
+        <v/>
+      </c>
+      <c r="R10" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>-</v>
+      </c>
+      <c r="B11" t="str">
+        <v>Bác sĩ y học cổ truyền</v>
+      </c>
+      <c r="C11" t="str">
+        <v>totalcjoW2OBXLDj</v>
+      </c>
+      <c r="D11" t="str">
+        <v>indicatornkJciKZb3Bx</v>
+      </c>
+      <c r="E11" t="str">
+        <v>indicatorttAMTWZOycv</v>
+      </c>
+      <c r="F11" t="str">
+        <v>IClc87LbTJL-HllvX50cXC0-val</v>
+      </c>
+      <c r="G11" t="str">
+        <v>cjoW2OBXLDj-j6NSiwlSxIi-val</v>
+      </c>
+      <c r="H11" t="str">
+        <v>cjoW2OBXLDj-fcK57lSPGQh-val</v>
+      </c>
+      <c r="I11" t="str">
+        <v>cjoW2OBXLDj-NZUP4w4nyDz-val</v>
+      </c>
+      <c r="J11" t="str">
+        <v>cjoW2OBXLDj-FQXGzVORZ6b-val</v>
+      </c>
+      <c r="K11" t="str">
+        <v>cjoW2OBXLDj-qQzdzVPRE1Y-val</v>
+      </c>
+      <c r="L11" t="str">
+        <v>cjoW2OBXLDj-W7IfepZkWXX-val</v>
+      </c>
+      <c r="M11" t="str">
+        <v>cjoW2OBXLDj-oCXdoKkpm6w-val</v>
+      </c>
+      <c r="N11" t="str">
+        <v>cjoW2OBXLDj-ZVWv8Byjx4a-val</v>
+      </c>
+      <c r="O11" t="str">
+        <v/>
+      </c>
+      <c r="P11" t="str">
+        <v/>
+      </c>
+      <c r="Q11" t="str">
+        <v/>
+      </c>
+      <c r="R11" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>-</v>
+      </c>
+      <c r="B12" t="str">
+        <v>Bác sĩ răng hàm mặt</v>
+      </c>
+      <c r="C12" t="str">
+        <v>totalp9GO3747RX3</v>
+      </c>
+      <c r="D12" t="str">
+        <v>indicatorVIAvaLRbBdj</v>
+      </c>
+      <c r="E12" t="str">
+        <v>indicatorRMLGeiSBMc9</v>
+      </c>
+      <c r="F12" t="str">
+        <v>H2tvKnTrxY8-HllvX50cXC0-val</v>
+      </c>
+      <c r="G12" t="str">
+        <v>p9GO3747RX3-j6NSiwlSxIi-val</v>
+      </c>
+      <c r="H12" t="str">
+        <v>p9GO3747RX3-fcK57lSPGQh-val</v>
+      </c>
+      <c r="I12" t="str">
+        <v>p9GO3747RX3-NZUP4w4nyDz-val</v>
+      </c>
+      <c r="J12" t="str">
+        <v>p9GO3747RX3-FQXGzVORZ6b-val</v>
+      </c>
+      <c r="K12" t="str">
+        <v>p9GO3747RX3-qQzdzVPRE1Y-val</v>
+      </c>
+      <c r="L12" t="str">
+        <v>p9GO3747RX3-W7IfepZkWXX-val</v>
+      </c>
+      <c r="M12" t="str">
+        <v>p9GO3747RX3-oCXdoKkpm6w-val</v>
+      </c>
+      <c r="N12" t="str">
+        <v>p9GO3747RX3-ZVWv8Byjx4a-val</v>
+      </c>
+      <c r="O12" t="str">
+        <v/>
+      </c>
+      <c r="P12" t="str">
+        <v/>
+      </c>
+      <c r="Q12" t="str">
+        <v/>
+      </c>
+      <c r="R12" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>-</v>
+      </c>
+      <c r="B13" t="str">
+        <v>Bác sĩ y học dự phòng</v>
+      </c>
+      <c r="C13" t="str">
+        <v>totaliBPVIZeR0dC</v>
+      </c>
+      <c r="D13" t="str">
+        <v>indicatorNJNSggbus90</v>
+      </c>
+      <c r="E13" t="str">
+        <v>indicatorto8QP1CObtu</v>
+      </c>
+      <c r="F13" t="str">
+        <v>BWyyZkiIsKB-HllvX50cXC0-val</v>
+      </c>
+      <c r="G13" t="str">
+        <v>iBPVIZeR0dC-j6NSiwlSxIi-val</v>
+      </c>
+      <c r="H13" t="str">
+        <v>iBPVIZeR0dC-fcK57lSPGQh-val</v>
+      </c>
+      <c r="I13" t="str">
+        <v>iBPVIZeR0dC-NZUP4w4nyDz-val</v>
+      </c>
+      <c r="J13" t="str">
+        <v>iBPVIZeR0dC-FQXGzVORZ6b-val</v>
+      </c>
+      <c r="K13" t="str">
+        <v>iBPVIZeR0dC-qQzdzVPRE1Y-val</v>
+      </c>
+      <c r="L13" t="str">
+        <v>iBPVIZeR0dC-W7IfepZkWXX-val</v>
+      </c>
+      <c r="M13" t="str">
+        <v>iBPVIZeR0dC-oCXdoKkpm6w-val</v>
+      </c>
+      <c r="N13" t="str">
+        <v>iBPVIZeR0dC-ZVWv8Byjx4a-val</v>
+      </c>
+      <c r="O13" t="str">
+        <v/>
+      </c>
+      <c r="P13" t="str">
+        <v/>
+      </c>
+      <c r="Q13" t="str">
+        <v/>
+      </c>
+      <c r="R13" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>2</v>
+      </c>
+      <c r="B14" t="str">
+        <v>Khúc xạ nhãn khoa</v>
+      </c>
+      <c r="C14" t="str">
+        <v>totalWvBabF9GM06</v>
+      </c>
+      <c r="D14" t="str">
+        <v>indicatorESKjXovyt7f</v>
+      </c>
+      <c r="E14" t="str">
+        <v>indicatork2pYgoyh9xh</v>
+      </c>
+      <c r="F14" t="str">
+        <v>G2zYTLfmEj0-HllvX50cXC0-val</v>
+      </c>
+      <c r="G14" t="str">
+        <v>WvBabF9GM06-j6NSiwlSxIi-val</v>
+      </c>
+      <c r="H14" t="str">
+        <v>WvBabF9GM06-fcK57lSPGQh-val</v>
+      </c>
+      <c r="I14" t="str">
+        <v>WvBabF9GM06-NZUP4w4nyDz-val</v>
+      </c>
+      <c r="J14" t="str">
+        <v>WvBabF9GM06-FQXGzVORZ6b-val</v>
+      </c>
+      <c r="K14" t="str">
+        <v>WvBabF9GM06-qQzdzVPRE1Y-val</v>
+      </c>
+      <c r="L14" t="str">
+        <v>WvBabF9GM06-W7IfepZkWXX-val</v>
+      </c>
+      <c r="M14" t="str">
+        <v>WvBabF9GM06-oCXdoKkpm6w-val</v>
+      </c>
+      <c r="N14" t="str">
+        <v>WvBabF9GM06-ZVWv8Byjx4a-val</v>
+      </c>
+      <c r="O14" t="str">
+        <v/>
+      </c>
+      <c r="P14" t="str">
+        <v/>
+      </c>
+      <c r="Q14" t="str">
+        <v/>
+      </c>
+      <c r="R14" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>3</v>
+      </c>
+      <c r="B15" t="str">
+        <v>Y tế công cộng</v>
+      </c>
+      <c r="C15" t="str">
+        <v>totalI1q7eUkrtiD</v>
+      </c>
+      <c r="D15" t="str">
+        <v>indicatorw0XzbiIpNGv</v>
+      </c>
+      <c r="E15" t="str">
+        <v>indicatorunqLFEq83Eo</v>
+      </c>
+      <c r="F15" t="str">
+        <v>BhmDnw6WxAS-HllvX50cXC0-val</v>
+      </c>
+      <c r="G15" t="str">
+        <v>I1q7eUkrtiD-j6NSiwlSxIi-val</v>
+      </c>
+      <c r="H15" t="str">
+        <v>I1q7eUkrtiD-fcK57lSPGQh-val</v>
+      </c>
+      <c r="I15" t="str">
+        <v>I1q7eUkrtiD-NZUP4w4nyDz-val</v>
+      </c>
+      <c r="J15" t="str">
+        <v>I1q7eUkrtiD-FQXGzVORZ6b-val</v>
+      </c>
+      <c r="K15" t="str">
+        <v>I1q7eUkrtiD-qQzdzVPRE1Y-val</v>
+      </c>
+      <c r="L15" t="str">
+        <v>I1q7eUkrtiD-W7IfepZkWXX-val</v>
+      </c>
+      <c r="M15" t="str">
+        <v>I1q7eUkrtiD-oCXdoKkpm6w-val</v>
+      </c>
+      <c r="N15" t="str">
+        <v>I1q7eUkrtiD-ZVWv8Byjx4a-val</v>
+      </c>
+      <c r="O15" t="str">
+        <v/>
+      </c>
+      <c r="P15" t="str">
+        <v/>
+      </c>
+      <c r="Q15" t="str">
+        <v/>
+      </c>
+      <c r="R15" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>4</v>
+      </c>
+      <c r="B16" t="str">
+        <v>Dược</v>
+      </c>
+      <c r="C16" t="str">
+        <v>totaltYHvKOCPKD0</v>
+      </c>
+      <c r="D16" t="str">
+        <v>indicatorSpQDIjaDz1t</v>
+      </c>
+      <c r="E16" t="str">
+        <v>indicatorcu9ZUTtTmRi</v>
+      </c>
+      <c r="F16" t="str">
+        <v>fJsALv2chFQ-HllvX50cXC0-val</v>
+      </c>
+      <c r="G16" t="str">
+        <v>tYHvKOCPKD0-j6NSiwlSxIi-val</v>
+      </c>
+      <c r="H16" t="str">
+        <v>tYHvKOCPKD0-fcK57lSPGQh-val</v>
+      </c>
+      <c r="I16" t="str">
+        <v>tYHvKOCPKD0-NZUP4w4nyDz-val</v>
+      </c>
+      <c r="J16" t="str">
+        <v>tYHvKOCPKD0-FQXGzVORZ6b-val</v>
+      </c>
+      <c r="K16" t="str">
+        <v>tYHvKOCPKD0-qQzdzVPRE1Y-val</v>
+      </c>
+      <c r="L16" t="str">
+        <v>tYHvKOCPKD0-W7IfepZkWXX-val</v>
+      </c>
+      <c r="M16" t="str">
+        <v>tYHvKOCPKD0-oCXdoKkpm6w-val</v>
+      </c>
+      <c r="N16" t="str">
+        <v>tYHvKOCPKD0-ZVWv8Byjx4a-val</v>
+      </c>
+      <c r="O16" t="str">
+        <v>tYHvKOCPKD0-lulFtHd6g9U-val</v>
+      </c>
+      <c r="P16" t="str">
+        <v>tYHvKOCPKD0-Xh0GebJLxc7-val</v>
+      </c>
+      <c r="Q16" t="str">
+        <v>tYHvKOCPKD0-WtSoS3htH0e-val</v>
+      </c>
+      <c r="R16" t="str">
+        <v>tYHvKOCPKD0-aBTLow9SHt6-val</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>5</v>
+      </c>
+      <c r="B17" t="str">
+        <v>Điều dưỡng</v>
+      </c>
+      <c r="C17" t="str">
+        <v>totalSuJV0QHbGMC</v>
+      </c>
+      <c r="D17" t="str">
+        <v>indicatorr0b3z7AEbNV</v>
+      </c>
+      <c r="E17" t="str">
+        <v>indicatorM1fMqT4Awei</v>
+      </c>
+      <c r="F17" t="str">
+        <v>p9mbre5d9EX-HllvX50cXC0-val</v>
+      </c>
+      <c r="G17" t="str">
+        <v>SuJV0QHbGMC-j6NSiwlSxIi-val</v>
+      </c>
+      <c r="H17" t="str">
+        <v>SuJV0QHbGMC-fcK57lSPGQh-val</v>
+      </c>
+      <c r="I17" t="str">
+        <v>SuJV0QHbGMC-NZUP4w4nyDz-val</v>
+      </c>
+      <c r="J17" t="str">
+        <v>SuJV0QHbGMC-FQXGzVORZ6b-val</v>
+      </c>
+      <c r="K17" t="str">
+        <v>SuJV0QHbGMC-qQzdzVPRE1Y-val</v>
+      </c>
+      <c r="L17" t="str">
+        <v>SuJV0QHbGMC-W7IfepZkWXX-val</v>
+      </c>
+      <c r="M17" t="str">
+        <v>SuJV0QHbGMC-oCXdoKkpm6w-val</v>
+      </c>
+      <c r="N17" t="str">
+        <v>SuJV0QHbGMC-ZVWv8Byjx4a-val</v>
+      </c>
+      <c r="O17" t="str">
+        <v>SuJV0QHbGMC-lulFtHd6g9U-val</v>
+      </c>
+      <c r="P17" t="str">
+        <v>SuJV0QHbGMC-Xh0GebJLxc7-val</v>
+      </c>
+      <c r="Q17" t="str">
+        <v>SuJV0QHbGMC-WtSoS3htH0e-val</v>
+      </c>
+      <c r="R17" t="str">
+        <v>SuJV0QHbGMC-aBTLow9SHt6-val</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>6</v>
+      </c>
+      <c r="B18" t="str">
+        <v>Kỹ thuật Y</v>
+      </c>
+      <c r="C18" t="str">
+        <v>totalVmYCezYPWfW</v>
+      </c>
+      <c r="D18" t="str">
+        <v>indicatorFPraZJsauMY</v>
+      </c>
+      <c r="E18" t="str">
+        <v>indicatorJnBBB72qFCL</v>
+      </c>
+      <c r="F18" t="str">
+        <v>oRMUFE5FcFL-HllvX50cXC0-val</v>
+      </c>
+      <c r="G18" t="str">
+        <v>VmYCezYPWfW-j6NSiwlSxIi-val</v>
+      </c>
+      <c r="H18" t="str">
+        <v>VmYCezYPWfW-fcK57lSPGQh-val</v>
+      </c>
+      <c r="I18" t="str">
+        <v>VmYCezYPWfW-NZUP4w4nyDz-val</v>
+      </c>
+      <c r="J18" t="str">
+        <v>VmYCezYPWfW-FQXGzVORZ6b-val</v>
+      </c>
+      <c r="K18" t="str">
+        <v>VmYCezYPWfW-qQzdzVPRE1Y-val</v>
+      </c>
+      <c r="L18" t="str">
+        <v>VmYCezYPWfW-W7IfepZkWXX-val</v>
+      </c>
+      <c r="M18" t="str">
+        <v>VmYCezYPWfW-oCXdoKkpm6w-val</v>
+      </c>
+      <c r="N18" t="str">
+        <v>VmYCezYPWfW-ZVWv8Byjx4a-val</v>
+      </c>
+      <c r="O18" t="str">
+        <v>VmYCezYPWfW-lulFtHd6g9U-val</v>
+      </c>
+      <c r="P18" t="str">
+        <v>VmYCezYPWfW-Xh0GebJLxc7-val</v>
+      </c>
+      <c r="Q18" t="str">
+        <v>VmYCezYPWfW-WtSoS3htH0e-val</v>
+      </c>
+      <c r="R18" t="str">
+        <v>VmYCezYPWfW-aBTLow9SHt6-val</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>7</v>
+      </c>
+      <c r="B19" t="str">
+        <v>Hộ sinh</v>
+      </c>
+      <c r="C19" t="str">
+        <v>totalaXmairWrfMD</v>
+      </c>
+      <c r="D19" t="str">
+        <v>indicatormDQcUxpV7uU</v>
+      </c>
+      <c r="E19" t="str">
+        <v>indicatorR2aa2yl74vr</v>
+      </c>
+      <c r="F19" t="str">
+        <v>khx70zeNUUW-HllvX50cXC0-val</v>
+      </c>
+      <c r="G19" t="str">
+        <v>aXmairWrfMD-j6NSiwlSxIi-val</v>
+      </c>
+      <c r="H19" t="str">
+        <v>aXmairWrfMD-fcK57lSPGQh-val</v>
+      </c>
+      <c r="I19" t="str">
+        <v>aXmairWrfMD-NZUP4w4nyDz-val</v>
+      </c>
+      <c r="J19" t="str">
+        <v>aXmairWrfMD-FQXGzVORZ6b-val</v>
+      </c>
+      <c r="K19" t="str">
+        <v>aXmairWrfMD-qQzdzVPRE1Y-val</v>
+      </c>
+      <c r="L19" t="str">
+        <v>aXmairWrfMD-W7IfepZkWXX-val</v>
+      </c>
+      <c r="M19" t="str">
+        <v>aXmairWrfMD-oCXdoKkpm6w-val</v>
+      </c>
+      <c r="N19" t="str">
+        <v>aXmairWrfMD-ZVWv8Byjx4a-val</v>
+      </c>
+      <c r="O19" t="str">
+        <v>aXmairWrfMD-lulFtHd6g9U-val</v>
+      </c>
+      <c r="P19" t="str">
+        <v>aXmairWrfMD-Xh0GebJLxc7-val</v>
+      </c>
+      <c r="Q19" t="str">
+        <v>aXmairWrfMD-WtSoS3htH0e-val</v>
+      </c>
+      <c r="R19" t="str">
+        <v>aXmairWrfMD-aBTLow9SHt6-val</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>8</v>
+      </c>
+      <c r="B20" t="str">
+        <v>Dinh dưỡng</v>
+      </c>
+      <c r="C20" t="str">
+        <v>totalNQ2DQIdC9bh</v>
+      </c>
+      <c r="D20" t="str">
+        <v>indicatorU2KvL4vZg1B</v>
+      </c>
+      <c r="E20" t="str">
+        <v>indicatorkPqt7bgVaha</v>
+      </c>
+      <c r="F20" t="str">
+        <v>CdNXzkSckvr-HllvX50cXC0-val</v>
+      </c>
+      <c r="G20" t="str">
+        <v>NQ2DQIdC9bh-j6NSiwlSxIi-val</v>
+      </c>
+      <c r="H20" t="str">
+        <v>NQ2DQIdC9bh-fcK57lSPGQh-val</v>
+      </c>
+      <c r="I20" t="str">
+        <v>NQ2DQIdC9bh-NZUP4w4nyDz-val</v>
+      </c>
+      <c r="J20" t="str">
+        <v>NQ2DQIdC9bh-FQXGzVORZ6b-val</v>
+      </c>
+      <c r="K20" t="str">
+        <v>NQ2DQIdC9bh-qQzdzVPRE1Y-val</v>
+      </c>
+      <c r="L20" t="str">
+        <v>NQ2DQIdC9bh-W7IfepZkWXX-val</v>
+      </c>
+      <c r="M20" t="str">
+        <v>NQ2DQIdC9bh-oCXdoKkpm6w-val</v>
+      </c>
+      <c r="N20" t="str">
+        <v>NQ2DQIdC9bh-ZVWv8Byjx4a-val</v>
+      </c>
+      <c r="O20" t="str">
+        <v>NQ2DQIdC9bh-lulFtHd6g9U-val</v>
+      </c>
+      <c r="P20" t="str">
+        <v>NQ2DQIdC9bh-Xh0GebJLxc7-val</v>
+      </c>
+      <c r="Q20" t="str">
+        <v>NQ2DQIdC9bh-WtSoS3htH0e-val</v>
+      </c>
+      <c r="R20" t="str">
+        <v>NQ2DQIdC9bh-aBTLow9SHt6-val</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>9</v>
+      </c>
+      <c r="B21" t="str">
+        <v>Y sĩ</v>
+      </c>
+      <c r="C21" t="str">
+        <v>totalpEnCidSJu83</v>
+      </c>
+      <c r="D21" t="str">
+        <v>indicatorQ56HFzHq0aC</v>
+      </c>
+      <c r="E21" t="str">
+        <v>indicatorbpr7fqeFGCO</v>
+      </c>
+      <c r="F21" t="str">
+        <v>S9UBTvEcJJr-HllvX50cXC0-val</v>
+      </c>
+      <c r="G21" t="str">
+        <v/>
+      </c>
+      <c r="H21" t="str">
+        <v/>
+      </c>
+      <c r="I21" t="str">
+        <v/>
+      </c>
+      <c r="J21" t="str">
+        <v/>
+      </c>
+      <c r="K21" t="str">
+        <v/>
+      </c>
+      <c r="L21" t="str">
+        <v/>
+      </c>
+      <c r="M21" t="str">
+        <v/>
+      </c>
+      <c r="N21" t="str">
+        <v/>
+      </c>
+      <c r="O21" t="str">
+        <v>pEnCidSJu83-lulFtHd6g9U-val</v>
+      </c>
+      <c r="P21" t="str">
+        <v>pEnCidSJu83-Xh0GebJLxc7-val</v>
+      </c>
+      <c r="Q21" t="str">
+        <v>pEnCidSJu83-WtSoS3htH0e-val</v>
+      </c>
+      <c r="R21" t="str">
+        <v>pEnCidSJu83-aBTLow9SHt6-val</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v/>
+      </c>
+      <c r="B22" t="str">
+        <v>Trong đó: Y sĩ sản nhi</v>
+      </c>
+      <c r="C22" t="str">
+        <v>totals0wgnRiHeUe</v>
+      </c>
+      <c r="D22" t="str">
+        <v>indicatorTSc0jodArgj</v>
+      </c>
+      <c r="E22" t="str">
+        <v>indicatorvpZqAkSoTrw</v>
+      </c>
+      <c r="F22" t="str">
+        <v>cI46I5xfpAE-HllvX50cXC0-val</v>
+      </c>
+      <c r="G22" t="str">
+        <v/>
+      </c>
+      <c r="H22" t="str">
+        <v/>
+      </c>
+      <c r="I22" t="str">
+        <v/>
+      </c>
+      <c r="J22" t="str">
+        <v/>
+      </c>
+      <c r="K22" t="str">
+        <v/>
+      </c>
+      <c r="L22" t="str">
+        <v/>
+      </c>
+      <c r="M22" t="str">
+        <v/>
+      </c>
+      <c r="N22" t="str">
+        <v/>
+      </c>
+      <c r="O22" t="str">
+        <v>s0wgnRiHeUe-lulFtHd6g9U-val</v>
+      </c>
+      <c r="P22" t="str">
+        <v>s0wgnRiHeUe-Xh0GebJLxc7-val</v>
+      </c>
+      <c r="Q22" t="str">
+        <v>s0wgnRiHeUe-WtSoS3htH0e-val</v>
+      </c>
+      <c r="R22" t="str">
+        <v>s0wgnRiHeUe-aBTLow9SHt6-val</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>10</v>
+      </c>
+      <c r="B23" t="str">
+        <v>Lương Y</v>
+      </c>
+      <c r="C23" t="str">
+        <v>totalRregpNece1W</v>
+      </c>
+      <c r="D23" t="str">
+        <v>RregpNece1W-iIcV5MepJ9Q-val</v>
+      </c>
+      <c r="E23" t="str">
+        <v>RregpNece1W-teIQx8w7HTL-val</v>
+      </c>
+      <c r="F23" t="str">
+        <v>gnV1JoEvWDh-HllvX50cXC0-val</v>
+      </c>
+      <c r="G23" t="str">
+        <v/>
+      </c>
+      <c r="H23" t="str">
+        <v/>
+      </c>
+      <c r="I23" t="str">
+        <v/>
+      </c>
+      <c r="J23" t="str">
+        <v/>
+      </c>
+      <c r="K23" t="str">
+        <v/>
+      </c>
+      <c r="L23" t="str">
+        <v/>
+      </c>
+      <c r="M23" t="str">
+        <v/>
+      </c>
+      <c r="N23" t="str">
+        <v/>
+      </c>
+      <c r="O23" t="str">
+        <v/>
+      </c>
+      <c r="P23" t="str">
+        <v/>
+      </c>
+      <c r="Q23" t="str">
+        <v/>
+      </c>
+      <c r="R23" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>11</v>
+      </c>
+      <c r="B24" t="str">
+        <v>Dân số viên</v>
+      </c>
+      <c r="C24" t="str">
+        <v>totalmrx79MJf6Hm</v>
+      </c>
+      <c r="D24" t="str">
+        <v>indicatorjgzI0oW8Uhz</v>
+      </c>
+      <c r="E24" t="str">
+        <v>indicatorpQmY5wqaeAj</v>
+      </c>
+      <c r="F24" t="str">
+        <v>h2w2h1f6l9N-HllvX50cXC0-val</v>
+      </c>
+      <c r="G24" t="str">
+        <v>mrx79MJf6Hm-j6NSiwlSxIi-val</v>
+      </c>
+      <c r="H24" t="str">
+        <v>mrx79MJf6Hm-fcK57lSPGQh-val</v>
+      </c>
+      <c r="I24" t="str">
+        <v>mrx79MJf6Hm-NZUP4w4nyDz-val</v>
+      </c>
+      <c r="J24" t="str">
+        <v>mrx79MJf6Hm-FQXGzVORZ6b-val</v>
+      </c>
+      <c r="K24" t="str">
+        <v>mrx79MJf6Hm-qQzdzVPRE1Y-val</v>
+      </c>
+      <c r="L24" t="str">
+        <v>mrx79MJf6Hm-W7IfepZkWXX-val</v>
+      </c>
+      <c r="M24" t="str">
+        <v>mrx79MJf6Hm-oCXdoKkpm6w-val</v>
+      </c>
+      <c r="N24" t="str">
+        <v>mrx79MJf6Hm-ZVWv8Byjx4a-val</v>
+      </c>
+      <c r="O24" t="str">
+        <v>mrx79MJf6Hm-lulFtHd6g9U-val</v>
+      </c>
+      <c r="P24" t="str">
+        <v>mrx79MJf6Hm-Xh0GebJLxc7-val</v>
+      </c>
+      <c r="Q24" t="str">
+        <v>mrx79MJf6Hm-WtSoS3htH0e-val</v>
+      </c>
+      <c r="R24" t="str">
+        <v>mrx79MJf6Hm-aBTLow9SHt6-val</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>12</v>
+      </c>
+      <c r="B25" t="str">
+        <v>Nhân lực y tế khác</v>
+      </c>
+      <c r="C25" t="str">
+        <v>totalCKr5or7Rsw2</v>
+      </c>
+      <c r="D25" t="str">
+        <v>indicatorzqnnh5ZWvuF</v>
+      </c>
+      <c r="E25" t="str">
+        <v>indicatorUgXTsTuoHFR</v>
+      </c>
+      <c r="F25" t="str">
+        <v>iZhUj6XLCf2-HllvX50cXC0-val</v>
+      </c>
+      <c r="G25" t="str">
+        <v>CKr5or7Rsw2-j6NSiwlSxIi-val</v>
+      </c>
+      <c r="H25" t="str">
+        <v>CKr5or7Rsw2-fcK57lSPGQh-val</v>
+      </c>
+      <c r="I25" t="str">
+        <v>CKr5or7Rsw2-NZUP4w4nyDz-val</v>
+      </c>
+      <c r="J25" t="str">
+        <v>CKr5or7Rsw2-FQXGzVORZ6b-val</v>
+      </c>
+      <c r="K25" t="str">
+        <v>CKr5or7Rsw2-qQzdzVPRE1Y-val</v>
+      </c>
+      <c r="L25" t="str">
+        <v>CKr5or7Rsw2-W7IfepZkWXX-val</v>
+      </c>
+      <c r="M25" t="str">
+        <v>CKr5or7Rsw2-oCXdoKkpm6w-val</v>
+      </c>
+      <c r="N25" t="str">
+        <v>CKr5or7Rsw2-ZVWv8Byjx4a-val</v>
+      </c>
+      <c r="O25" t="str">
+        <v>CKr5or7Rsw2-lulFtHd6g9U-val</v>
+      </c>
+      <c r="P25" t="str">
+        <v>CKr5or7Rsw2-Xh0GebJLxc7-val</v>
+      </c>
+      <c r="Q25" t="str">
+        <v>CKr5or7Rsw2-WtSoS3htH0e-val</v>
+      </c>
+      <c r="R25" t="str">
+        <v>CKr5or7Rsw2-aBTLow9SHt6-val</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v/>
+      </c>
+      <c r="B26" t="str">
+        <v>Sau đại học y khoa (báo cáo Thông tư 37/2019/TT-BYT)</v>
+      </c>
+      <c r="C26" t="str">
+        <v>totalaRDVsuK2oJa</v>
+      </c>
+      <c r="D26" t="str">
+        <v>aRDVsuK2oJa-iIcV5MepJ9Q-val</v>
+      </c>
+      <c r="E26" t="str">
+        <v>aRDVsuK2oJa-teIQx8w7HTL-val</v>
+      </c>
+      <c r="F26" t="str">
+        <v>hEJwt8L00yP-HllvX50cXC0-val</v>
+      </c>
+      <c r="G26" t="str">
+        <v/>
+      </c>
+      <c r="H26" t="str">
+        <v/>
+      </c>
+      <c r="I26" t="str">
+        <v/>
+      </c>
+      <c r="J26" t="str">
+        <v/>
+      </c>
+      <c r="K26" t="str">
+        <v/>
+      </c>
+      <c r="L26" t="str">
+        <v/>
+      </c>
+      <c r="M26" t="str">
+        <v/>
+      </c>
+      <c r="N26" t="str">
+        <v/>
+      </c>
+      <c r="O26" t="str">
+        <v/>
+      </c>
+      <c r="P26" t="str">
+        <v/>
+      </c>
+      <c r="Q26" t="str">
+        <v/>
+      </c>
+      <c r="R26" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>II</v>
+      </c>
+      <c r="B27" t="str">
+        <v>NHÂN LỰC Y TẾ THÔN BẢN</v>
+      </c>
+      <c r="C27" t="str">
+        <v>indicatoroa6oEvTCsge</v>
+      </c>
+      <c r="D27" t="str">
+        <v>indicatorhlF88VvJnBI</v>
+      </c>
+      <c r="E27" t="str">
+        <v>indicatorrTLAulI0jKR</v>
+      </c>
+      <c r="F27" t="str">
+        <v>indicatorDISXKpnQM8L</v>
+      </c>
+      <c r="G27" t="str">
+        <v/>
+      </c>
+      <c r="H27" t="str">
+        <v/>
+      </c>
+      <c r="I27" t="str">
+        <v/>
+      </c>
+      <c r="J27" t="str">
+        <v/>
+      </c>
+      <c r="K27" t="str">
+        <v/>
+      </c>
+      <c r="L27" t="str">
+        <v/>
+      </c>
+      <c r="M27" t="str">
+        <v/>
+      </c>
+      <c r="N27" t="str">
+        <v/>
+      </c>
+      <c r="O27" t="str">
+        <v/>
+      </c>
+      <c r="P27" t="str">
+        <v/>
+      </c>
+      <c r="Q27" t="str">
+        <v/>
+      </c>
+      <c r="R27" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>1</v>
+      </c>
+      <c r="B28" t="str">
+        <v>Nhân viên y tế thôn bản</v>
+      </c>
+      <c r="C28" t="str">
+        <v>totalPAWDJs2uaJJ</v>
+      </c>
+      <c r="D28" t="str">
+        <v>PAWDJs2uaJJ-iIcV5MepJ9Q-val</v>
+      </c>
+      <c r="E28" t="str">
+        <v>PAWDJs2uaJJ-teIQx8w7HTL-val</v>
+      </c>
+      <c r="F28" t="str">
+        <v>AY6fur1TF4R-HllvX50cXC0-val</v>
+      </c>
+      <c r="G28" t="str">
+        <v/>
+      </c>
+      <c r="H28" t="str">
+        <v/>
+      </c>
+      <c r="I28" t="str">
+        <v/>
+      </c>
+      <c r="J28" t="str">
+        <v/>
+      </c>
+      <c r="K28" t="str">
+        <v/>
+      </c>
+      <c r="L28" t="str">
+        <v/>
+      </c>
+      <c r="M28" t="str">
+        <v/>
+      </c>
+      <c r="N28" t="str">
+        <v/>
+      </c>
+      <c r="O28" t="str">
+        <v/>
+      </c>
+      <c r="P28" t="str">
+        <v/>
+      </c>
+      <c r="Q28" t="str">
+        <v/>
+      </c>
+      <c r="R28" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v/>
+      </c>
+      <c r="B29" t="str">
+        <v>Trong đó: Số được đào tạo theo chương trình của BYT</v>
+      </c>
+      <c r="C29" t="str">
+        <v>totalMogQN0tG8p3</v>
+      </c>
+      <c r="D29" t="str">
+        <v>MogQN0tG8p3-iIcV5MepJ9Q-val</v>
+      </c>
+      <c r="E29" t="str">
+        <v>MogQN0tG8p3-teIQx8w7HTL-val</v>
+      </c>
+      <c r="F29" t="str">
+        <v>UIcWKa2Uozp-HllvX50cXC0-val</v>
+      </c>
+      <c r="G29" t="str">
+        <v/>
+      </c>
+      <c r="H29" t="str">
+        <v/>
+      </c>
+      <c r="I29" t="str">
+        <v/>
+      </c>
+      <c r="J29" t="str">
+        <v/>
+      </c>
+      <c r="K29" t="str">
+        <v/>
+      </c>
+      <c r="L29" t="str">
+        <v/>
+      </c>
+      <c r="M29" t="str">
+        <v/>
+      </c>
+      <c r="N29" t="str">
+        <v/>
+      </c>
+      <c r="O29" t="str">
+        <v/>
+      </c>
+      <c r="P29" t="str">
+        <v/>
+      </c>
+      <c r="Q29" t="str">
+        <v/>
+      </c>
+      <c r="R29" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>2</v>
+      </c>
+      <c r="B30" t="str">
+        <v>Cô đỡ thôn bản</v>
+      </c>
+      <c r="C30" t="str">
+        <v>totalin4t2CQUISx</v>
+      </c>
+      <c r="D30" t="str">
+        <v>in4t2CQUISx-iIcV5MepJ9Q-val</v>
+      </c>
+      <c r="E30" t="str">
+        <v>in4t2CQUISx-teIQx8w7HTL-val</v>
+      </c>
+      <c r="F30" t="str">
+        <v>tWNUs7domxy-HllvX50cXC0-val</v>
+      </c>
+      <c r="G30" t="str">
+        <v/>
+      </c>
+      <c r="H30" t="str">
+        <v/>
+      </c>
+      <c r="I30" t="str">
+        <v/>
+      </c>
+      <c r="J30" t="str">
+        <v/>
+      </c>
+      <c r="K30" t="str">
+        <v/>
+      </c>
+      <c r="L30" t="str">
+        <v/>
+      </c>
+      <c r="M30" t="str">
+        <v/>
+      </c>
+      <c r="N30" t="str">
+        <v/>
+      </c>
+      <c r="O30" t="str">
+        <v/>
+      </c>
+      <c r="P30" t="str">
+        <v/>
+      </c>
+      <c r="Q30" t="str">
+        <v/>
+      </c>
+      <c r="R30" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>3</v>
+      </c>
+      <c r="B31" t="str">
+        <v>Cộng tác viên dân số</v>
+      </c>
+      <c r="C31" t="str">
+        <v>totaltyrVAw8kPD8</v>
+      </c>
+      <c r="D31" t="str">
+        <v>tyrVAw8kPD8-iIcV5MepJ9Q-val</v>
+      </c>
+      <c r="E31" t="str">
+        <v>tyrVAw8kPD8-teIQx8w7HTL-val</v>
+      </c>
+      <c r="F31" t="str">
+        <v>hvNQUfij4xn-HllvX50cXC0-val</v>
+      </c>
+      <c r="G31" t="str">
+        <v/>
+      </c>
+      <c r="H31" t="str">
+        <v/>
+      </c>
+      <c r="I31" t="str">
+        <v/>
+      </c>
+      <c r="J31" t="str">
+        <v/>
+      </c>
+      <c r="K31" t="str">
+        <v/>
+      </c>
+      <c r="L31" t="str">
+        <v/>
+      </c>
+      <c r="M31" t="str">
+        <v/>
+      </c>
+      <c r="N31" t="str">
+        <v/>
+      </c>
+      <c r="O31" t="str">
+        <v/>
+      </c>
+      <c r="P31" t="str">
+        <v/>
+      </c>
+      <c r="Q31" t="str">
+        <v/>
+      </c>
+      <c r="R31" t="str">
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:S31"/>
   </ignoredErrors>
 </worksheet>
 </file>